--- a/documentos/Estimativa de Tamanho.xlsx
+++ b/documentos/Estimativa de Tamanho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Descartes\Desktop\Eng. Software\Projeto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B18B69-1987-4420-8DE8-1F7660750F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB637741-1971-44C6-BB9E-026FE0680E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="6300" windowWidth="21600" windowHeight="11385" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1984,6 +1984,61 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1996,50 +2051,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2051,19 +2062,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,21 +2083,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2455,7 +2455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2756,8 +2756,8 @@
   </sheetPr>
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2803,32 +2803,32 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
       <c r="K4" s="2"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2848,36 +2848,36 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="148" t="s">
+      <c r="C7" s="138"/>
+      <c r="D7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -2892,10 +2892,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="141"/>
+      <c r="G8" s="138"/>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2908,14 +2908,14 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="6"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -2950,18 +2950,18 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
       <c r="F12"/>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2972,24 +2972,24 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="9">
         <f>(Atores!D10+'RFS ou RFC'!D10)*Fatores!E22*Fatores!G36</f>
         <v>112.101</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="10">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
-        <v>26.1569</v>
+        <v>15.694140000000001</v>
       </c>
       <c r="K13" s="11">
         <f>dadoshistoricos!E31</f>
@@ -2999,23 +2999,23 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
-        <v>92.171933333333328</v>
+        <v>55.303159999999998</v>
       </c>
       <c r="K14" s="15">
         <f>dadoshistoricos!F31*0.8</f>
@@ -3025,19 +3025,19 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
-        <v>23.042983333333332</v>
+        <v>13.82579</v>
       </c>
       <c r="K15" s="16">
         <f>dadoshistoricos!F31*0.2</f>
@@ -3047,19 +3047,19 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
-        <v>37.366999999999997</v>
+        <v>22.420200000000001</v>
       </c>
       <c r="K16" s="16">
         <f>dadoshistoricos!G31</f>
@@ -3074,14 +3074,14 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
-        <v>311.39166666666665</v>
+        <v>186.83500000000001</v>
       </c>
       <c r="K17" s="16">
         <f>dadoshistoricos!H31</f>
@@ -3096,14 +3096,14 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
       <c r="J18" s="14">
         <f t="shared" si="0"/>
-        <v>12.455666666666668</v>
+        <v>7.4733999999999998</v>
       </c>
       <c r="K18" s="16">
         <f>dadoshistoricos!I31</f>
@@ -3117,14 +3117,14 @@
       <c r="D19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
       <c r="J19" s="14">
         <f>$E$13*$E$14*K19</f>
-        <v>37.989783333333335</v>
+        <v>22.793870000000002</v>
       </c>
       <c r="K19" s="16">
         <f>dadoshistoricos!J31</f>
@@ -3140,14 +3140,14 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
-        <v>19.929066666666667</v>
+        <v>11.95744</v>
       </c>
       <c r="K20" s="16">
         <f>dadoshistoricos!K31</f>
@@ -3161,14 +3161,14 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="132" t="s">
+      <c r="G21" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
       <c r="J21" s="18">
         <f>SUM(J13:J20)</f>
-        <v>560.505</v>
+        <v>336.30300000000011</v>
       </c>
       <c r="K21" s="19">
         <f>SUM(K13:K20)</f>
@@ -3177,31 +3177,31 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -3259,47 +3259,47 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3345,11 +3345,11 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="22"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -3628,11 +3628,11 @@
     </row>
     <row r="2" spans="1:1025" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
@@ -3742,9 +3742,9 @@
       <c r="O10"/>
     </row>
     <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="128"/>
       <c r="E11"/>
       <c r="H11"/>
@@ -12057,7 +12057,7 @@
       <c r="AMJ20" s="112"/>
       <c r="AMK20" s="112"/>
     </row>
-    <row r="21" spans="1:1025" s="162" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
         <v>213</v>
       </c>
@@ -12067,1033 +12067,1033 @@
       <c r="C21" s="126">
         <v>1</v>
       </c>
-      <c r="D21" s="159" t="str">
+      <c r="D21" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Simples</v>
       </c>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="161"/>
-      <c r="AL21" s="161"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="161"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="161"/>
-      <c r="AQ21" s="161"/>
-      <c r="AR21" s="161"/>
-      <c r="AS21" s="161"/>
-      <c r="AT21" s="161"/>
-      <c r="AU21" s="161"/>
-      <c r="AV21" s="161"/>
-      <c r="AW21" s="161"/>
-      <c r="AX21" s="161"/>
-      <c r="AY21" s="161"/>
-      <c r="AZ21" s="161"/>
-      <c r="BA21" s="161"/>
-      <c r="BB21" s="161"/>
-      <c r="BC21" s="161"/>
-      <c r="BD21" s="161"/>
-      <c r="BE21" s="161"/>
-      <c r="BF21" s="161"/>
-      <c r="BG21" s="161"/>
-      <c r="BH21" s="161"/>
-      <c r="BI21" s="161"/>
-      <c r="BJ21" s="161"/>
-      <c r="BK21" s="161"/>
-      <c r="BL21" s="161"/>
-      <c r="BM21" s="161"/>
-      <c r="BN21" s="161"/>
-      <c r="BO21" s="161"/>
-      <c r="BP21" s="161"/>
-      <c r="BQ21" s="161"/>
-      <c r="BR21" s="161"/>
-      <c r="BS21" s="161"/>
-      <c r="BT21" s="161"/>
-      <c r="BU21" s="161"/>
-      <c r="BV21" s="161"/>
-      <c r="BW21" s="161"/>
-      <c r="BX21" s="161"/>
-      <c r="BY21" s="161"/>
-      <c r="BZ21" s="161"/>
-      <c r="CA21" s="161"/>
-      <c r="CB21" s="161"/>
-      <c r="CC21" s="161"/>
-      <c r="CD21" s="161"/>
-      <c r="CE21" s="161"/>
-      <c r="CF21" s="161"/>
-      <c r="CG21" s="161"/>
-      <c r="CH21" s="161"/>
-      <c r="CI21" s="161"/>
-      <c r="CJ21" s="161"/>
-      <c r="CK21" s="161"/>
-      <c r="CL21" s="161"/>
-      <c r="CM21" s="161"/>
-      <c r="CN21" s="161"/>
-      <c r="CO21" s="161"/>
-      <c r="CP21" s="161"/>
-      <c r="CQ21" s="161"/>
-      <c r="CR21" s="161"/>
-      <c r="CS21" s="161"/>
-      <c r="CT21" s="161"/>
-      <c r="CU21" s="161"/>
-      <c r="CV21" s="161"/>
-      <c r="CW21" s="161"/>
-      <c r="CX21" s="161"/>
-      <c r="CY21" s="161"/>
-      <c r="CZ21" s="161"/>
-      <c r="DA21" s="161"/>
-      <c r="DB21" s="161"/>
-      <c r="DC21" s="161"/>
-      <c r="DD21" s="161"/>
-      <c r="DE21" s="161"/>
-      <c r="DF21" s="161"/>
-      <c r="DG21" s="161"/>
-      <c r="DH21" s="161"/>
-      <c r="DI21" s="161"/>
-      <c r="DJ21" s="161"/>
-      <c r="DK21" s="161"/>
-      <c r="DL21" s="161"/>
-      <c r="DM21" s="161"/>
-      <c r="DN21" s="161"/>
-      <c r="DO21" s="161"/>
-      <c r="DP21" s="161"/>
-      <c r="DQ21" s="161"/>
-      <c r="DR21" s="161"/>
-      <c r="DS21" s="161"/>
-      <c r="DT21" s="161"/>
-      <c r="DU21" s="161"/>
-      <c r="DV21" s="161"/>
-      <c r="DW21" s="161"/>
-      <c r="DX21" s="161"/>
-      <c r="DY21" s="161"/>
-      <c r="DZ21" s="161"/>
-      <c r="EA21" s="161"/>
-      <c r="EB21" s="161"/>
-      <c r="EC21" s="161"/>
-      <c r="ED21" s="161"/>
-      <c r="EE21" s="161"/>
-      <c r="EF21" s="161"/>
-      <c r="EG21" s="161"/>
-      <c r="EH21" s="161"/>
-      <c r="EI21" s="161"/>
-      <c r="EJ21" s="161"/>
-      <c r="EK21" s="161"/>
-      <c r="EL21" s="161"/>
-      <c r="EM21" s="161"/>
-      <c r="EN21" s="161"/>
-      <c r="EO21" s="161"/>
-      <c r="EP21" s="161"/>
-      <c r="EQ21" s="161"/>
-      <c r="ER21" s="161"/>
-      <c r="ES21" s="161"/>
-      <c r="ET21" s="161"/>
-      <c r="EU21" s="161"/>
-      <c r="EV21" s="161"/>
-      <c r="EW21" s="161"/>
-      <c r="EX21" s="161"/>
-      <c r="EY21" s="161"/>
-      <c r="EZ21" s="161"/>
-      <c r="FA21" s="161"/>
-      <c r="FB21" s="161"/>
-      <c r="FC21" s="161"/>
-      <c r="FD21" s="161"/>
-      <c r="FE21" s="161"/>
-      <c r="FF21" s="161"/>
-      <c r="FG21" s="161"/>
-      <c r="FH21" s="161"/>
-      <c r="FI21" s="161"/>
-      <c r="FJ21" s="161"/>
-      <c r="FK21" s="161"/>
-      <c r="FL21" s="161"/>
-      <c r="FM21" s="161"/>
-      <c r="FN21" s="161"/>
-      <c r="FO21" s="161"/>
-      <c r="FP21" s="161"/>
-      <c r="FQ21" s="161"/>
-      <c r="FR21" s="161"/>
-      <c r="FS21" s="161"/>
-      <c r="FT21" s="161"/>
-      <c r="FU21" s="161"/>
-      <c r="FV21" s="161"/>
-      <c r="FW21" s="161"/>
-      <c r="FX21" s="161"/>
-      <c r="FY21" s="161"/>
-      <c r="FZ21" s="161"/>
-      <c r="GA21" s="161"/>
-      <c r="GB21" s="161"/>
-      <c r="GC21" s="161"/>
-      <c r="GD21" s="161"/>
-      <c r="GE21" s="161"/>
-      <c r="GF21" s="161"/>
-      <c r="GG21" s="161"/>
-      <c r="GH21" s="161"/>
-      <c r="GI21" s="161"/>
-      <c r="GJ21" s="161"/>
-      <c r="GK21" s="161"/>
-      <c r="GL21" s="161"/>
-      <c r="GM21" s="161"/>
-      <c r="GN21" s="161"/>
-      <c r="GO21" s="161"/>
-      <c r="GP21" s="161"/>
-      <c r="GQ21" s="161"/>
-      <c r="GR21" s="161"/>
-      <c r="GS21" s="161"/>
-      <c r="GT21" s="161"/>
-      <c r="GU21" s="161"/>
-      <c r="GV21" s="161"/>
-      <c r="GW21" s="161"/>
-      <c r="GX21" s="161"/>
-      <c r="GY21" s="161"/>
-      <c r="GZ21" s="161"/>
-      <c r="HA21" s="161"/>
-      <c r="HB21" s="161"/>
-      <c r="HC21" s="161"/>
-      <c r="HD21" s="161"/>
-      <c r="HE21" s="161"/>
-      <c r="HF21" s="161"/>
-      <c r="HG21" s="161"/>
-      <c r="HH21" s="161"/>
-      <c r="HI21" s="161"/>
-      <c r="HJ21" s="161"/>
-      <c r="HK21" s="161"/>
-      <c r="HL21" s="161"/>
-      <c r="HM21" s="161"/>
-      <c r="HN21" s="161"/>
-      <c r="HO21" s="161"/>
-      <c r="HP21" s="161"/>
-      <c r="HQ21" s="161"/>
-      <c r="HR21" s="161"/>
-      <c r="HS21" s="161"/>
-      <c r="HT21" s="161"/>
-      <c r="HU21" s="161"/>
-      <c r="HV21" s="161"/>
-      <c r="HW21" s="161"/>
-      <c r="HX21" s="161"/>
-      <c r="HY21" s="161"/>
-      <c r="HZ21" s="161"/>
-      <c r="IA21" s="161"/>
-      <c r="IB21" s="161"/>
-      <c r="IC21" s="161"/>
-      <c r="ID21" s="161"/>
-      <c r="IE21" s="161"/>
-      <c r="IF21" s="161"/>
-      <c r="IG21" s="161"/>
-      <c r="IH21" s="161"/>
-      <c r="II21" s="161"/>
-      <c r="IJ21" s="161"/>
-      <c r="IK21" s="161"/>
-      <c r="IL21" s="161"/>
-      <c r="IM21" s="161"/>
-      <c r="IN21" s="161"/>
-      <c r="IO21" s="161"/>
-      <c r="IP21" s="161"/>
-      <c r="IQ21" s="161"/>
-      <c r="IR21" s="161"/>
-      <c r="IS21" s="161"/>
-      <c r="IT21" s="161"/>
-      <c r="IU21" s="161"/>
-      <c r="IV21" s="161"/>
-      <c r="IW21" s="161"/>
-      <c r="IX21" s="161"/>
-      <c r="IY21" s="161"/>
-      <c r="IZ21" s="161"/>
-      <c r="JA21" s="161"/>
-      <c r="JB21" s="161"/>
-      <c r="JC21" s="161"/>
-      <c r="JD21" s="161"/>
-      <c r="JE21" s="161"/>
-      <c r="JF21" s="161"/>
-      <c r="JG21" s="161"/>
-      <c r="JH21" s="161"/>
-      <c r="JI21" s="161"/>
-      <c r="JJ21" s="161"/>
-      <c r="JK21" s="161"/>
-      <c r="JL21" s="161"/>
-      <c r="JM21" s="161"/>
-      <c r="JN21" s="161"/>
-      <c r="JO21" s="161"/>
-      <c r="JP21" s="161"/>
-      <c r="JQ21" s="161"/>
-      <c r="JR21" s="161"/>
-      <c r="JS21" s="161"/>
-      <c r="JT21" s="161"/>
-      <c r="JU21" s="161"/>
-      <c r="JV21" s="161"/>
-      <c r="JW21" s="161"/>
-      <c r="JX21" s="161"/>
-      <c r="JY21" s="161"/>
-      <c r="JZ21" s="161"/>
-      <c r="KA21" s="161"/>
-      <c r="KB21" s="161"/>
-      <c r="KC21" s="161"/>
-      <c r="KD21" s="161"/>
-      <c r="KE21" s="161"/>
-      <c r="KF21" s="161"/>
-      <c r="KG21" s="161"/>
-      <c r="KH21" s="161"/>
-      <c r="KI21" s="161"/>
-      <c r="KJ21" s="161"/>
-      <c r="KK21" s="161"/>
-      <c r="KL21" s="161"/>
-      <c r="KM21" s="161"/>
-      <c r="KN21" s="161"/>
-      <c r="KO21" s="161"/>
-      <c r="KP21" s="161"/>
-      <c r="KQ21" s="161"/>
-      <c r="KR21" s="161"/>
-      <c r="KS21" s="161"/>
-      <c r="KT21" s="161"/>
-      <c r="KU21" s="161"/>
-      <c r="KV21" s="161"/>
-      <c r="KW21" s="161"/>
-      <c r="KX21" s="161"/>
-      <c r="KY21" s="161"/>
-      <c r="KZ21" s="161"/>
-      <c r="LA21" s="161"/>
-      <c r="LB21" s="161"/>
-      <c r="LC21" s="161"/>
-      <c r="LD21" s="161"/>
-      <c r="LE21" s="161"/>
-      <c r="LF21" s="161"/>
-      <c r="LG21" s="161"/>
-      <c r="LH21" s="161"/>
-      <c r="LI21" s="161"/>
-      <c r="LJ21" s="161"/>
-      <c r="LK21" s="161"/>
-      <c r="LL21" s="161"/>
-      <c r="LM21" s="161"/>
-      <c r="LN21" s="161"/>
-      <c r="LO21" s="161"/>
-      <c r="LP21" s="161"/>
-      <c r="LQ21" s="161"/>
-      <c r="LR21" s="161"/>
-      <c r="LS21" s="161"/>
-      <c r="LT21" s="161"/>
-      <c r="LU21" s="161"/>
-      <c r="LV21" s="161"/>
-      <c r="LW21" s="161"/>
-      <c r="LX21" s="161"/>
-      <c r="LY21" s="161"/>
-      <c r="LZ21" s="161"/>
-      <c r="MA21" s="161"/>
-      <c r="MB21" s="161"/>
-      <c r="MC21" s="161"/>
-      <c r="MD21" s="161"/>
-      <c r="ME21" s="161"/>
-      <c r="MF21" s="161"/>
-      <c r="MG21" s="161"/>
-      <c r="MH21" s="161"/>
-      <c r="MI21" s="161"/>
-      <c r="MJ21" s="161"/>
-      <c r="MK21" s="161"/>
-      <c r="ML21" s="161"/>
-      <c r="MM21" s="161"/>
-      <c r="MN21" s="161"/>
-      <c r="MO21" s="161"/>
-      <c r="MP21" s="161"/>
-      <c r="MQ21" s="161"/>
-      <c r="MR21" s="161"/>
-      <c r="MS21" s="161"/>
-      <c r="MT21" s="161"/>
-      <c r="MU21" s="161"/>
-      <c r="MV21" s="161"/>
-      <c r="MW21" s="161"/>
-      <c r="MX21" s="161"/>
-      <c r="MY21" s="161"/>
-      <c r="MZ21" s="161"/>
-      <c r="NA21" s="161"/>
-      <c r="NB21" s="161"/>
-      <c r="NC21" s="161"/>
-      <c r="ND21" s="161"/>
-      <c r="NE21" s="161"/>
-      <c r="NF21" s="161"/>
-      <c r="NG21" s="161"/>
-      <c r="NH21" s="161"/>
-      <c r="NI21" s="161"/>
-      <c r="NJ21" s="161"/>
-      <c r="NK21" s="161"/>
-      <c r="NL21" s="161"/>
-      <c r="NM21" s="161"/>
-      <c r="NN21" s="161"/>
-      <c r="NO21" s="161"/>
-      <c r="NP21" s="161"/>
-      <c r="NQ21" s="161"/>
-      <c r="NR21" s="161"/>
-      <c r="NS21" s="161"/>
-      <c r="NT21" s="161"/>
-      <c r="NU21" s="161"/>
-      <c r="NV21" s="161"/>
-      <c r="NW21" s="161"/>
-      <c r="NX21" s="161"/>
-      <c r="NY21" s="161"/>
-      <c r="NZ21" s="161"/>
-      <c r="OA21" s="161"/>
-      <c r="OB21" s="161"/>
-      <c r="OC21" s="161"/>
-      <c r="OD21" s="161"/>
-      <c r="OE21" s="161"/>
-      <c r="OF21" s="161"/>
-      <c r="OG21" s="161"/>
-      <c r="OH21" s="161"/>
-      <c r="OI21" s="161"/>
-      <c r="OJ21" s="161"/>
-      <c r="OK21" s="161"/>
-      <c r="OL21" s="161"/>
-      <c r="OM21" s="161"/>
-      <c r="ON21" s="161"/>
-      <c r="OO21" s="161"/>
-      <c r="OP21" s="161"/>
-      <c r="OQ21" s="161"/>
-      <c r="OR21" s="161"/>
-      <c r="OS21" s="161"/>
-      <c r="OT21" s="161"/>
-      <c r="OU21" s="161"/>
-      <c r="OV21" s="161"/>
-      <c r="OW21" s="161"/>
-      <c r="OX21" s="161"/>
-      <c r="OY21" s="161"/>
-      <c r="OZ21" s="161"/>
-      <c r="PA21" s="161"/>
-      <c r="PB21" s="161"/>
-      <c r="PC21" s="161"/>
-      <c r="PD21" s="161"/>
-      <c r="PE21" s="161"/>
-      <c r="PF21" s="161"/>
-      <c r="PG21" s="161"/>
-      <c r="PH21" s="161"/>
-      <c r="PI21" s="161"/>
-      <c r="PJ21" s="161"/>
-      <c r="PK21" s="161"/>
-      <c r="PL21" s="161"/>
-      <c r="PM21" s="161"/>
-      <c r="PN21" s="161"/>
-      <c r="PO21" s="161"/>
-      <c r="PP21" s="161"/>
-      <c r="PQ21" s="161"/>
-      <c r="PR21" s="161"/>
-      <c r="PS21" s="161"/>
-      <c r="PT21" s="161"/>
-      <c r="PU21" s="161"/>
-      <c r="PV21" s="161"/>
-      <c r="PW21" s="161"/>
-      <c r="PX21" s="161"/>
-      <c r="PY21" s="161"/>
-      <c r="PZ21" s="161"/>
-      <c r="QA21" s="161"/>
-      <c r="QB21" s="161"/>
-      <c r="QC21" s="161"/>
-      <c r="QD21" s="161"/>
-      <c r="QE21" s="161"/>
-      <c r="QF21" s="161"/>
-      <c r="QG21" s="161"/>
-      <c r="QH21" s="161"/>
-      <c r="QI21" s="161"/>
-      <c r="QJ21" s="161"/>
-      <c r="QK21" s="161"/>
-      <c r="QL21" s="161"/>
-      <c r="QM21" s="161"/>
-      <c r="QN21" s="161"/>
-      <c r="QO21" s="161"/>
-      <c r="QP21" s="161"/>
-      <c r="QQ21" s="161"/>
-      <c r="QR21" s="161"/>
-      <c r="QS21" s="161"/>
-      <c r="QT21" s="161"/>
-      <c r="QU21" s="161"/>
-      <c r="QV21" s="161"/>
-      <c r="QW21" s="161"/>
-      <c r="QX21" s="161"/>
-      <c r="QY21" s="161"/>
-      <c r="QZ21" s="161"/>
-      <c r="RA21" s="161"/>
-      <c r="RB21" s="161"/>
-      <c r="RC21" s="161"/>
-      <c r="RD21" s="161"/>
-      <c r="RE21" s="161"/>
-      <c r="RF21" s="161"/>
-      <c r="RG21" s="161"/>
-      <c r="RH21" s="161"/>
-      <c r="RI21" s="161"/>
-      <c r="RJ21" s="161"/>
-      <c r="RK21" s="161"/>
-      <c r="RL21" s="161"/>
-      <c r="RM21" s="161"/>
-      <c r="RN21" s="161"/>
-      <c r="RO21" s="161"/>
-      <c r="RP21" s="161"/>
-      <c r="RQ21" s="161"/>
-      <c r="RR21" s="161"/>
-      <c r="RS21" s="161"/>
-      <c r="RT21" s="161"/>
-      <c r="RU21" s="161"/>
-      <c r="RV21" s="161"/>
-      <c r="RW21" s="161"/>
-      <c r="RX21" s="161"/>
-      <c r="RY21" s="161"/>
-      <c r="RZ21" s="161"/>
-      <c r="SA21" s="161"/>
-      <c r="SB21" s="161"/>
-      <c r="SC21" s="161"/>
-      <c r="SD21" s="161"/>
-      <c r="SE21" s="161"/>
-      <c r="SF21" s="161"/>
-      <c r="SG21" s="161"/>
-      <c r="SH21" s="161"/>
-      <c r="SI21" s="161"/>
-      <c r="SJ21" s="161"/>
-      <c r="SK21" s="161"/>
-      <c r="SL21" s="161"/>
-      <c r="SM21" s="161"/>
-      <c r="SN21" s="161"/>
-      <c r="SO21" s="161"/>
-      <c r="SP21" s="161"/>
-      <c r="SQ21" s="161"/>
-      <c r="SR21" s="161"/>
-      <c r="SS21" s="161"/>
-      <c r="ST21" s="161"/>
-      <c r="SU21" s="161"/>
-      <c r="SV21" s="161"/>
-      <c r="SW21" s="161"/>
-      <c r="SX21" s="161"/>
-      <c r="SY21" s="161"/>
-      <c r="SZ21" s="161"/>
-      <c r="TA21" s="161"/>
-      <c r="TB21" s="161"/>
-      <c r="TC21" s="161"/>
-      <c r="TD21" s="161"/>
-      <c r="TE21" s="161"/>
-      <c r="TF21" s="161"/>
-      <c r="TG21" s="161"/>
-      <c r="TH21" s="161"/>
-      <c r="TI21" s="161"/>
-      <c r="TJ21" s="161"/>
-      <c r="TK21" s="161"/>
-      <c r="TL21" s="161"/>
-      <c r="TM21" s="161"/>
-      <c r="TN21" s="161"/>
-      <c r="TO21" s="161"/>
-      <c r="TP21" s="161"/>
-      <c r="TQ21" s="161"/>
-      <c r="TR21" s="161"/>
-      <c r="TS21" s="161"/>
-      <c r="TT21" s="161"/>
-      <c r="TU21" s="161"/>
-      <c r="TV21" s="161"/>
-      <c r="TW21" s="161"/>
-      <c r="TX21" s="161"/>
-      <c r="TY21" s="161"/>
-      <c r="TZ21" s="161"/>
-      <c r="UA21" s="161"/>
-      <c r="UB21" s="161"/>
-      <c r="UC21" s="161"/>
-      <c r="UD21" s="161"/>
-      <c r="UE21" s="161"/>
-      <c r="UF21" s="161"/>
-      <c r="UG21" s="161"/>
-      <c r="UH21" s="161"/>
-      <c r="UI21" s="161"/>
-      <c r="UJ21" s="161"/>
-      <c r="UK21" s="161"/>
-      <c r="UL21" s="161"/>
-      <c r="UM21" s="161"/>
-      <c r="UN21" s="161"/>
-      <c r="UO21" s="161"/>
-      <c r="UP21" s="161"/>
-      <c r="UQ21" s="161"/>
-      <c r="UR21" s="161"/>
-      <c r="US21" s="161"/>
-      <c r="UT21" s="161"/>
-      <c r="UU21" s="161"/>
-      <c r="UV21" s="161"/>
-      <c r="UW21" s="161"/>
-      <c r="UX21" s="161"/>
-      <c r="UY21" s="161"/>
-      <c r="UZ21" s="161"/>
-      <c r="VA21" s="161"/>
-      <c r="VB21" s="161"/>
-      <c r="VC21" s="161"/>
-      <c r="VD21" s="161"/>
-      <c r="VE21" s="161"/>
-      <c r="VF21" s="161"/>
-      <c r="VG21" s="161"/>
-      <c r="VH21" s="161"/>
-      <c r="VI21" s="161"/>
-      <c r="VJ21" s="161"/>
-      <c r="VK21" s="161"/>
-      <c r="VL21" s="161"/>
-      <c r="VM21" s="161"/>
-      <c r="VN21" s="161"/>
-      <c r="VO21" s="161"/>
-      <c r="VP21" s="161"/>
-      <c r="VQ21" s="161"/>
-      <c r="VR21" s="161"/>
-      <c r="VS21" s="161"/>
-      <c r="VT21" s="161"/>
-      <c r="VU21" s="161"/>
-      <c r="VV21" s="161"/>
-      <c r="VW21" s="161"/>
-      <c r="VX21" s="161"/>
-      <c r="VY21" s="161"/>
-      <c r="VZ21" s="161"/>
-      <c r="WA21" s="161"/>
-      <c r="WB21" s="161"/>
-      <c r="WC21" s="161"/>
-      <c r="WD21" s="161"/>
-      <c r="WE21" s="161"/>
-      <c r="WF21" s="161"/>
-      <c r="WG21" s="161"/>
-      <c r="WH21" s="161"/>
-      <c r="WI21" s="161"/>
-      <c r="WJ21" s="161"/>
-      <c r="WK21" s="161"/>
-      <c r="WL21" s="161"/>
-      <c r="WM21" s="161"/>
-      <c r="WN21" s="161"/>
-      <c r="WO21" s="161"/>
-      <c r="WP21" s="161"/>
-      <c r="WQ21" s="161"/>
-      <c r="WR21" s="161"/>
-      <c r="WS21" s="161"/>
-      <c r="WT21" s="161"/>
-      <c r="WU21" s="161"/>
-      <c r="WV21" s="161"/>
-      <c r="WW21" s="161"/>
-      <c r="WX21" s="161"/>
-      <c r="WY21" s="161"/>
-      <c r="WZ21" s="161"/>
-      <c r="XA21" s="161"/>
-      <c r="XB21" s="161"/>
-      <c r="XC21" s="161"/>
-      <c r="XD21" s="161"/>
-      <c r="XE21" s="161"/>
-      <c r="XF21" s="161"/>
-      <c r="XG21" s="161"/>
-      <c r="XH21" s="161"/>
-      <c r="XI21" s="161"/>
-      <c r="XJ21" s="161"/>
-      <c r="XK21" s="161"/>
-      <c r="XL21" s="161"/>
-      <c r="XM21" s="161"/>
-      <c r="XN21" s="161"/>
-      <c r="XO21" s="161"/>
-      <c r="XP21" s="161"/>
-      <c r="XQ21" s="161"/>
-      <c r="XR21" s="161"/>
-      <c r="XS21" s="161"/>
-      <c r="XT21" s="161"/>
-      <c r="XU21" s="161"/>
-      <c r="XV21" s="161"/>
-      <c r="XW21" s="161"/>
-      <c r="XX21" s="161"/>
-      <c r="XY21" s="161"/>
-      <c r="XZ21" s="161"/>
-      <c r="YA21" s="161"/>
-      <c r="YB21" s="161"/>
-      <c r="YC21" s="161"/>
-      <c r="YD21" s="161"/>
-      <c r="YE21" s="161"/>
-      <c r="YF21" s="161"/>
-      <c r="YG21" s="161"/>
-      <c r="YH21" s="161"/>
-      <c r="YI21" s="161"/>
-      <c r="YJ21" s="161"/>
-      <c r="YK21" s="161"/>
-      <c r="YL21" s="161"/>
-      <c r="YM21" s="161"/>
-      <c r="YN21" s="161"/>
-      <c r="YO21" s="161"/>
-      <c r="YP21" s="161"/>
-      <c r="YQ21" s="161"/>
-      <c r="YR21" s="161"/>
-      <c r="YS21" s="161"/>
-      <c r="YT21" s="161"/>
-      <c r="YU21" s="161"/>
-      <c r="YV21" s="161"/>
-      <c r="YW21" s="161"/>
-      <c r="YX21" s="161"/>
-      <c r="YY21" s="161"/>
-      <c r="YZ21" s="161"/>
-      <c r="ZA21" s="161"/>
-      <c r="ZB21" s="161"/>
-      <c r="ZC21" s="161"/>
-      <c r="ZD21" s="161"/>
-      <c r="ZE21" s="161"/>
-      <c r="ZF21" s="161"/>
-      <c r="ZG21" s="161"/>
-      <c r="ZH21" s="161"/>
-      <c r="ZI21" s="161"/>
-      <c r="ZJ21" s="161"/>
-      <c r="ZK21" s="161"/>
-      <c r="ZL21" s="161"/>
-      <c r="ZM21" s="161"/>
-      <c r="ZN21" s="161"/>
-      <c r="ZO21" s="161"/>
-      <c r="ZP21" s="161"/>
-      <c r="ZQ21" s="161"/>
-      <c r="ZR21" s="161"/>
-      <c r="ZS21" s="161"/>
-      <c r="ZT21" s="161"/>
-      <c r="ZU21" s="161"/>
-      <c r="ZV21" s="161"/>
-      <c r="ZW21" s="161"/>
-      <c r="ZX21" s="161"/>
-      <c r="ZY21" s="161"/>
-      <c r="ZZ21" s="161"/>
-      <c r="AAA21" s="161"/>
-      <c r="AAB21" s="161"/>
-      <c r="AAC21" s="161"/>
-      <c r="AAD21" s="161"/>
-      <c r="AAE21" s="161"/>
-      <c r="AAF21" s="161"/>
-      <c r="AAG21" s="161"/>
-      <c r="AAH21" s="161"/>
-      <c r="AAI21" s="161"/>
-      <c r="AAJ21" s="161"/>
-      <c r="AAK21" s="161"/>
-      <c r="AAL21" s="161"/>
-      <c r="AAM21" s="161"/>
-      <c r="AAN21" s="161"/>
-      <c r="AAO21" s="161"/>
-      <c r="AAP21" s="161"/>
-      <c r="AAQ21" s="161"/>
-      <c r="AAR21" s="161"/>
-      <c r="AAS21" s="161"/>
-      <c r="AAT21" s="161"/>
-      <c r="AAU21" s="161"/>
-      <c r="AAV21" s="161"/>
-      <c r="AAW21" s="161"/>
-      <c r="AAX21" s="161"/>
-      <c r="AAY21" s="161"/>
-      <c r="AAZ21" s="161"/>
-      <c r="ABA21" s="161"/>
-      <c r="ABB21" s="161"/>
-      <c r="ABC21" s="161"/>
-      <c r="ABD21" s="161"/>
-      <c r="ABE21" s="161"/>
-      <c r="ABF21" s="161"/>
-      <c r="ABG21" s="161"/>
-      <c r="ABH21" s="161"/>
-      <c r="ABI21" s="161"/>
-      <c r="ABJ21" s="161"/>
-      <c r="ABK21" s="161"/>
-      <c r="ABL21" s="161"/>
-      <c r="ABM21" s="161"/>
-      <c r="ABN21" s="161"/>
-      <c r="ABO21" s="161"/>
-      <c r="ABP21" s="161"/>
-      <c r="ABQ21" s="161"/>
-      <c r="ABR21" s="161"/>
-      <c r="ABS21" s="161"/>
-      <c r="ABT21" s="161"/>
-      <c r="ABU21" s="161"/>
-      <c r="ABV21" s="161"/>
-      <c r="ABW21" s="161"/>
-      <c r="ABX21" s="161"/>
-      <c r="ABY21" s="161"/>
-      <c r="ABZ21" s="161"/>
-      <c r="ACA21" s="161"/>
-      <c r="ACB21" s="161"/>
-      <c r="ACC21" s="161"/>
-      <c r="ACD21" s="161"/>
-      <c r="ACE21" s="161"/>
-      <c r="ACF21" s="161"/>
-      <c r="ACG21" s="161"/>
-      <c r="ACH21" s="161"/>
-      <c r="ACI21" s="161"/>
-      <c r="ACJ21" s="161"/>
-      <c r="ACK21" s="161"/>
-      <c r="ACL21" s="161"/>
-      <c r="ACM21" s="161"/>
-      <c r="ACN21" s="161"/>
-      <c r="ACO21" s="161"/>
-      <c r="ACP21" s="161"/>
-      <c r="ACQ21" s="161"/>
-      <c r="ACR21" s="161"/>
-      <c r="ACS21" s="161"/>
-      <c r="ACT21" s="161"/>
-      <c r="ACU21" s="161"/>
-      <c r="ACV21" s="161"/>
-      <c r="ACW21" s="161"/>
-      <c r="ACX21" s="161"/>
-      <c r="ACY21" s="161"/>
-      <c r="ACZ21" s="161"/>
-      <c r="ADA21" s="161"/>
-      <c r="ADB21" s="161"/>
-      <c r="ADC21" s="161"/>
-      <c r="ADD21" s="161"/>
-      <c r="ADE21" s="161"/>
-      <c r="ADF21" s="161"/>
-      <c r="ADG21" s="161"/>
-      <c r="ADH21" s="161"/>
-      <c r="ADI21" s="161"/>
-      <c r="ADJ21" s="161"/>
-      <c r="ADK21" s="161"/>
-      <c r="ADL21" s="161"/>
-      <c r="ADM21" s="161"/>
-      <c r="ADN21" s="161"/>
-      <c r="ADO21" s="161"/>
-      <c r="ADP21" s="161"/>
-      <c r="ADQ21" s="161"/>
-      <c r="ADR21" s="161"/>
-      <c r="ADS21" s="161"/>
-      <c r="ADT21" s="161"/>
-      <c r="ADU21" s="161"/>
-      <c r="ADV21" s="161"/>
-      <c r="ADW21" s="161"/>
-      <c r="ADX21" s="161"/>
-      <c r="ADY21" s="161"/>
-      <c r="ADZ21" s="161"/>
-      <c r="AEA21" s="161"/>
-      <c r="AEB21" s="161"/>
-      <c r="AEC21" s="161"/>
-      <c r="AED21" s="161"/>
-      <c r="AEE21" s="161"/>
-      <c r="AEF21" s="161"/>
-      <c r="AEG21" s="161"/>
-      <c r="AEH21" s="161"/>
-      <c r="AEI21" s="161"/>
-      <c r="AEJ21" s="161"/>
-      <c r="AEK21" s="161"/>
-      <c r="AEL21" s="161"/>
-      <c r="AEM21" s="161"/>
-      <c r="AEN21" s="161"/>
-      <c r="AEO21" s="161"/>
-      <c r="AEP21" s="161"/>
-      <c r="AEQ21" s="161"/>
-      <c r="AER21" s="161"/>
-      <c r="AES21" s="161"/>
-      <c r="AET21" s="161"/>
-      <c r="AEU21" s="161"/>
-      <c r="AEV21" s="161"/>
-      <c r="AEW21" s="161"/>
-      <c r="AEX21" s="161"/>
-      <c r="AEY21" s="161"/>
-      <c r="AEZ21" s="161"/>
-      <c r="AFA21" s="161"/>
-      <c r="AFB21" s="161"/>
-      <c r="AFC21" s="161"/>
-      <c r="AFD21" s="161"/>
-      <c r="AFE21" s="161"/>
-      <c r="AFF21" s="161"/>
-      <c r="AFG21" s="161"/>
-      <c r="AFH21" s="161"/>
-      <c r="AFI21" s="161"/>
-      <c r="AFJ21" s="161"/>
-      <c r="AFK21" s="161"/>
-      <c r="AFL21" s="161"/>
-      <c r="AFM21" s="161"/>
-      <c r="AFN21" s="161"/>
-      <c r="AFO21" s="161"/>
-      <c r="AFP21" s="161"/>
-      <c r="AFQ21" s="161"/>
-      <c r="AFR21" s="161"/>
-      <c r="AFS21" s="161"/>
-      <c r="AFT21" s="161"/>
-      <c r="AFU21" s="161"/>
-      <c r="AFV21" s="161"/>
-      <c r="AFW21" s="161"/>
-      <c r="AFX21" s="161"/>
-      <c r="AFY21" s="161"/>
-      <c r="AFZ21" s="161"/>
-      <c r="AGA21" s="161"/>
-      <c r="AGB21" s="161"/>
-      <c r="AGC21" s="161"/>
-      <c r="AGD21" s="161"/>
-      <c r="AGE21" s="161"/>
-      <c r="AGF21" s="161"/>
-      <c r="AGG21" s="161"/>
-      <c r="AGH21" s="161"/>
-      <c r="AGI21" s="161"/>
-      <c r="AGJ21" s="161"/>
-      <c r="AGK21" s="161"/>
-      <c r="AGL21" s="161"/>
-      <c r="AGM21" s="161"/>
-      <c r="AGN21" s="161"/>
-      <c r="AGO21" s="161"/>
-      <c r="AGP21" s="161"/>
-      <c r="AGQ21" s="161"/>
-      <c r="AGR21" s="161"/>
-      <c r="AGS21" s="161"/>
-      <c r="AGT21" s="161"/>
-      <c r="AGU21" s="161"/>
-      <c r="AGV21" s="161"/>
-      <c r="AGW21" s="161"/>
-      <c r="AGX21" s="161"/>
-      <c r="AGY21" s="161"/>
-      <c r="AGZ21" s="161"/>
-      <c r="AHA21" s="161"/>
-      <c r="AHB21" s="161"/>
-      <c r="AHC21" s="161"/>
-      <c r="AHD21" s="161"/>
-      <c r="AHE21" s="161"/>
-      <c r="AHF21" s="161"/>
-      <c r="AHG21" s="161"/>
-      <c r="AHH21" s="161"/>
-      <c r="AHI21" s="161"/>
-      <c r="AHJ21" s="161"/>
-      <c r="AHK21" s="161"/>
-      <c r="AHL21" s="161"/>
-      <c r="AHM21" s="161"/>
-      <c r="AHN21" s="161"/>
-      <c r="AHO21" s="161"/>
-      <c r="AHP21" s="161"/>
-      <c r="AHQ21" s="161"/>
-      <c r="AHR21" s="161"/>
-      <c r="AHS21" s="161"/>
-      <c r="AHT21" s="161"/>
-      <c r="AHU21" s="161"/>
-      <c r="AHV21" s="161"/>
-      <c r="AHW21" s="161"/>
-      <c r="AHX21" s="161"/>
-      <c r="AHY21" s="161"/>
-      <c r="AHZ21" s="161"/>
-      <c r="AIA21" s="161"/>
-      <c r="AIB21" s="161"/>
-      <c r="AIC21" s="161"/>
-      <c r="AID21" s="161"/>
-      <c r="AIE21" s="161"/>
-      <c r="AIF21" s="161"/>
-      <c r="AIG21" s="161"/>
-      <c r="AIH21" s="161"/>
-      <c r="AII21" s="161"/>
-      <c r="AIJ21" s="161"/>
-      <c r="AIK21" s="161"/>
-      <c r="AIL21" s="161"/>
-      <c r="AIM21" s="161"/>
-      <c r="AIN21" s="161"/>
-      <c r="AIO21" s="161"/>
-      <c r="AIP21" s="161"/>
-      <c r="AIQ21" s="161"/>
-      <c r="AIR21" s="161"/>
-      <c r="AIS21" s="161"/>
-      <c r="AIT21" s="161"/>
-      <c r="AIU21" s="161"/>
-      <c r="AIV21" s="161"/>
-      <c r="AIW21" s="161"/>
-      <c r="AIX21" s="161"/>
-      <c r="AIY21" s="161"/>
-      <c r="AIZ21" s="161"/>
-      <c r="AJA21" s="161"/>
-      <c r="AJB21" s="161"/>
-      <c r="AJC21" s="161"/>
-      <c r="AJD21" s="161"/>
-      <c r="AJE21" s="161"/>
-      <c r="AJF21" s="161"/>
-      <c r="AJG21" s="161"/>
-      <c r="AJH21" s="161"/>
-      <c r="AJI21" s="161"/>
-      <c r="AJJ21" s="161"/>
-      <c r="AJK21" s="161"/>
-      <c r="AJL21" s="161"/>
-      <c r="AJM21" s="161"/>
-      <c r="AJN21" s="161"/>
-      <c r="AJO21" s="161"/>
-      <c r="AJP21" s="161"/>
-      <c r="AJQ21" s="161"/>
-      <c r="AJR21" s="161"/>
-      <c r="AJS21" s="161"/>
-      <c r="AJT21" s="161"/>
-      <c r="AJU21" s="161"/>
-      <c r="AJV21" s="161"/>
-      <c r="AJW21" s="161"/>
-      <c r="AJX21" s="161"/>
-      <c r="AJY21" s="161"/>
-      <c r="AJZ21" s="161"/>
-      <c r="AKA21" s="161"/>
-      <c r="AKB21" s="161"/>
-      <c r="AKC21" s="161"/>
-      <c r="AKD21" s="161"/>
-      <c r="AKE21" s="161"/>
-      <c r="AKF21" s="161"/>
-      <c r="AKG21" s="161"/>
-      <c r="AKH21" s="161"/>
-      <c r="AKI21" s="161"/>
-      <c r="AKJ21" s="161"/>
-      <c r="AKK21" s="161"/>
-      <c r="AKL21" s="161"/>
-      <c r="AKM21" s="161"/>
-      <c r="AKN21" s="161"/>
-      <c r="AKO21" s="161"/>
-      <c r="AKP21" s="161"/>
-      <c r="AKQ21" s="161"/>
-      <c r="AKR21" s="161"/>
-      <c r="AKS21" s="161"/>
-      <c r="AKT21" s="161"/>
-      <c r="AKU21" s="161"/>
-      <c r="AKV21" s="161"/>
-      <c r="AKW21" s="161"/>
-      <c r="AKX21" s="161"/>
-      <c r="AKY21" s="161"/>
-      <c r="AKZ21" s="161"/>
-      <c r="ALA21" s="161"/>
-      <c r="ALB21" s="161"/>
-      <c r="ALC21" s="161"/>
-      <c r="ALD21" s="161"/>
-      <c r="ALE21" s="161"/>
-      <c r="ALF21" s="161"/>
-      <c r="ALG21" s="161"/>
-      <c r="ALH21" s="161"/>
-      <c r="ALI21" s="161"/>
-      <c r="ALJ21" s="161"/>
-      <c r="ALK21" s="161"/>
-      <c r="ALL21" s="161"/>
-      <c r="ALM21" s="161"/>
-      <c r="ALN21" s="161"/>
-      <c r="ALO21" s="161"/>
-      <c r="ALP21" s="161"/>
-      <c r="ALQ21" s="161"/>
-      <c r="ALR21" s="161"/>
-      <c r="ALS21" s="161"/>
-      <c r="ALT21" s="161"/>
-      <c r="ALU21" s="161"/>
-      <c r="ALV21" s="161"/>
-      <c r="ALW21" s="161"/>
-      <c r="ALX21" s="161"/>
-      <c r="ALY21" s="161"/>
-      <c r="ALZ21" s="161"/>
-      <c r="AMA21" s="161"/>
-      <c r="AMB21" s="161"/>
-      <c r="AMC21" s="161"/>
-      <c r="AMD21" s="161"/>
-      <c r="AME21" s="161"/>
-      <c r="AMF21" s="161"/>
-      <c r="AMG21" s="161"/>
-      <c r="AMH21" s="161"/>
-      <c r="AMI21" s="161"/>
-      <c r="AMJ21" s="161"/>
-      <c r="AMK21" s="161"/>
-    </row>
-    <row r="22" spans="1:1025" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="133"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="133"/>
+      <c r="AJ21" s="133"/>
+      <c r="AK21" s="133"/>
+      <c r="AL21" s="133"/>
+      <c r="AM21" s="133"/>
+      <c r="AN21" s="133"/>
+      <c r="AO21" s="133"/>
+      <c r="AP21" s="133"/>
+      <c r="AQ21" s="133"/>
+      <c r="AR21" s="133"/>
+      <c r="AS21" s="133"/>
+      <c r="AT21" s="133"/>
+      <c r="AU21" s="133"/>
+      <c r="AV21" s="133"/>
+      <c r="AW21" s="133"/>
+      <c r="AX21" s="133"/>
+      <c r="AY21" s="133"/>
+      <c r="AZ21" s="133"/>
+      <c r="BA21" s="133"/>
+      <c r="BB21" s="133"/>
+      <c r="BC21" s="133"/>
+      <c r="BD21" s="133"/>
+      <c r="BE21" s="133"/>
+      <c r="BF21" s="133"/>
+      <c r="BG21" s="133"/>
+      <c r="BH21" s="133"/>
+      <c r="BI21" s="133"/>
+      <c r="BJ21" s="133"/>
+      <c r="BK21" s="133"/>
+      <c r="BL21" s="133"/>
+      <c r="BM21" s="133"/>
+      <c r="BN21" s="133"/>
+      <c r="BO21" s="133"/>
+      <c r="BP21" s="133"/>
+      <c r="BQ21" s="133"/>
+      <c r="BR21" s="133"/>
+      <c r="BS21" s="133"/>
+      <c r="BT21" s="133"/>
+      <c r="BU21" s="133"/>
+      <c r="BV21" s="133"/>
+      <c r="BW21" s="133"/>
+      <c r="BX21" s="133"/>
+      <c r="BY21" s="133"/>
+      <c r="BZ21" s="133"/>
+      <c r="CA21" s="133"/>
+      <c r="CB21" s="133"/>
+      <c r="CC21" s="133"/>
+      <c r="CD21" s="133"/>
+      <c r="CE21" s="133"/>
+      <c r="CF21" s="133"/>
+      <c r="CG21" s="133"/>
+      <c r="CH21" s="133"/>
+      <c r="CI21" s="133"/>
+      <c r="CJ21" s="133"/>
+      <c r="CK21" s="133"/>
+      <c r="CL21" s="133"/>
+      <c r="CM21" s="133"/>
+      <c r="CN21" s="133"/>
+      <c r="CO21" s="133"/>
+      <c r="CP21" s="133"/>
+      <c r="CQ21" s="133"/>
+      <c r="CR21" s="133"/>
+      <c r="CS21" s="133"/>
+      <c r="CT21" s="133"/>
+      <c r="CU21" s="133"/>
+      <c r="CV21" s="133"/>
+      <c r="CW21" s="133"/>
+      <c r="CX21" s="133"/>
+      <c r="CY21" s="133"/>
+      <c r="CZ21" s="133"/>
+      <c r="DA21" s="133"/>
+      <c r="DB21" s="133"/>
+      <c r="DC21" s="133"/>
+      <c r="DD21" s="133"/>
+      <c r="DE21" s="133"/>
+      <c r="DF21" s="133"/>
+      <c r="DG21" s="133"/>
+      <c r="DH21" s="133"/>
+      <c r="DI21" s="133"/>
+      <c r="DJ21" s="133"/>
+      <c r="DK21" s="133"/>
+      <c r="DL21" s="133"/>
+      <c r="DM21" s="133"/>
+      <c r="DN21" s="133"/>
+      <c r="DO21" s="133"/>
+      <c r="DP21" s="133"/>
+      <c r="DQ21" s="133"/>
+      <c r="DR21" s="133"/>
+      <c r="DS21" s="133"/>
+      <c r="DT21" s="133"/>
+      <c r="DU21" s="133"/>
+      <c r="DV21" s="133"/>
+      <c r="DW21" s="133"/>
+      <c r="DX21" s="133"/>
+      <c r="DY21" s="133"/>
+      <c r="DZ21" s="133"/>
+      <c r="EA21" s="133"/>
+      <c r="EB21" s="133"/>
+      <c r="EC21" s="133"/>
+      <c r="ED21" s="133"/>
+      <c r="EE21" s="133"/>
+      <c r="EF21" s="133"/>
+      <c r="EG21" s="133"/>
+      <c r="EH21" s="133"/>
+      <c r="EI21" s="133"/>
+      <c r="EJ21" s="133"/>
+      <c r="EK21" s="133"/>
+      <c r="EL21" s="133"/>
+      <c r="EM21" s="133"/>
+      <c r="EN21" s="133"/>
+      <c r="EO21" s="133"/>
+      <c r="EP21" s="133"/>
+      <c r="EQ21" s="133"/>
+      <c r="ER21" s="133"/>
+      <c r="ES21" s="133"/>
+      <c r="ET21" s="133"/>
+      <c r="EU21" s="133"/>
+      <c r="EV21" s="133"/>
+      <c r="EW21" s="133"/>
+      <c r="EX21" s="133"/>
+      <c r="EY21" s="133"/>
+      <c r="EZ21" s="133"/>
+      <c r="FA21" s="133"/>
+      <c r="FB21" s="133"/>
+      <c r="FC21" s="133"/>
+      <c r="FD21" s="133"/>
+      <c r="FE21" s="133"/>
+      <c r="FF21" s="133"/>
+      <c r="FG21" s="133"/>
+      <c r="FH21" s="133"/>
+      <c r="FI21" s="133"/>
+      <c r="FJ21" s="133"/>
+      <c r="FK21" s="133"/>
+      <c r="FL21" s="133"/>
+      <c r="FM21" s="133"/>
+      <c r="FN21" s="133"/>
+      <c r="FO21" s="133"/>
+      <c r="FP21" s="133"/>
+      <c r="FQ21" s="133"/>
+      <c r="FR21" s="133"/>
+      <c r="FS21" s="133"/>
+      <c r="FT21" s="133"/>
+      <c r="FU21" s="133"/>
+      <c r="FV21" s="133"/>
+      <c r="FW21" s="133"/>
+      <c r="FX21" s="133"/>
+      <c r="FY21" s="133"/>
+      <c r="FZ21" s="133"/>
+      <c r="GA21" s="133"/>
+      <c r="GB21" s="133"/>
+      <c r="GC21" s="133"/>
+      <c r="GD21" s="133"/>
+      <c r="GE21" s="133"/>
+      <c r="GF21" s="133"/>
+      <c r="GG21" s="133"/>
+      <c r="GH21" s="133"/>
+      <c r="GI21" s="133"/>
+      <c r="GJ21" s="133"/>
+      <c r="GK21" s="133"/>
+      <c r="GL21" s="133"/>
+      <c r="GM21" s="133"/>
+      <c r="GN21" s="133"/>
+      <c r="GO21" s="133"/>
+      <c r="GP21" s="133"/>
+      <c r="GQ21" s="133"/>
+      <c r="GR21" s="133"/>
+      <c r="GS21" s="133"/>
+      <c r="GT21" s="133"/>
+      <c r="GU21" s="133"/>
+      <c r="GV21" s="133"/>
+      <c r="GW21" s="133"/>
+      <c r="GX21" s="133"/>
+      <c r="GY21" s="133"/>
+      <c r="GZ21" s="133"/>
+      <c r="HA21" s="133"/>
+      <c r="HB21" s="133"/>
+      <c r="HC21" s="133"/>
+      <c r="HD21" s="133"/>
+      <c r="HE21" s="133"/>
+      <c r="HF21" s="133"/>
+      <c r="HG21" s="133"/>
+      <c r="HH21" s="133"/>
+      <c r="HI21" s="133"/>
+      <c r="HJ21" s="133"/>
+      <c r="HK21" s="133"/>
+      <c r="HL21" s="133"/>
+      <c r="HM21" s="133"/>
+      <c r="HN21" s="133"/>
+      <c r="HO21" s="133"/>
+      <c r="HP21" s="133"/>
+      <c r="HQ21" s="133"/>
+      <c r="HR21" s="133"/>
+      <c r="HS21" s="133"/>
+      <c r="HT21" s="133"/>
+      <c r="HU21" s="133"/>
+      <c r="HV21" s="133"/>
+      <c r="HW21" s="133"/>
+      <c r="HX21" s="133"/>
+      <c r="HY21" s="133"/>
+      <c r="HZ21" s="133"/>
+      <c r="IA21" s="133"/>
+      <c r="IB21" s="133"/>
+      <c r="IC21" s="133"/>
+      <c r="ID21" s="133"/>
+      <c r="IE21" s="133"/>
+      <c r="IF21" s="133"/>
+      <c r="IG21" s="133"/>
+      <c r="IH21" s="133"/>
+      <c r="II21" s="133"/>
+      <c r="IJ21" s="133"/>
+      <c r="IK21" s="133"/>
+      <c r="IL21" s="133"/>
+      <c r="IM21" s="133"/>
+      <c r="IN21" s="133"/>
+      <c r="IO21" s="133"/>
+      <c r="IP21" s="133"/>
+      <c r="IQ21" s="133"/>
+      <c r="IR21" s="133"/>
+      <c r="IS21" s="133"/>
+      <c r="IT21" s="133"/>
+      <c r="IU21" s="133"/>
+      <c r="IV21" s="133"/>
+      <c r="IW21" s="133"/>
+      <c r="IX21" s="133"/>
+      <c r="IY21" s="133"/>
+      <c r="IZ21" s="133"/>
+      <c r="JA21" s="133"/>
+      <c r="JB21" s="133"/>
+      <c r="JC21" s="133"/>
+      <c r="JD21" s="133"/>
+      <c r="JE21" s="133"/>
+      <c r="JF21" s="133"/>
+      <c r="JG21" s="133"/>
+      <c r="JH21" s="133"/>
+      <c r="JI21" s="133"/>
+      <c r="JJ21" s="133"/>
+      <c r="JK21" s="133"/>
+      <c r="JL21" s="133"/>
+      <c r="JM21" s="133"/>
+      <c r="JN21" s="133"/>
+      <c r="JO21" s="133"/>
+      <c r="JP21" s="133"/>
+      <c r="JQ21" s="133"/>
+      <c r="JR21" s="133"/>
+      <c r="JS21" s="133"/>
+      <c r="JT21" s="133"/>
+      <c r="JU21" s="133"/>
+      <c r="JV21" s="133"/>
+      <c r="JW21" s="133"/>
+      <c r="JX21" s="133"/>
+      <c r="JY21" s="133"/>
+      <c r="JZ21" s="133"/>
+      <c r="KA21" s="133"/>
+      <c r="KB21" s="133"/>
+      <c r="KC21" s="133"/>
+      <c r="KD21" s="133"/>
+      <c r="KE21" s="133"/>
+      <c r="KF21" s="133"/>
+      <c r="KG21" s="133"/>
+      <c r="KH21" s="133"/>
+      <c r="KI21" s="133"/>
+      <c r="KJ21" s="133"/>
+      <c r="KK21" s="133"/>
+      <c r="KL21" s="133"/>
+      <c r="KM21" s="133"/>
+      <c r="KN21" s="133"/>
+      <c r="KO21" s="133"/>
+      <c r="KP21" s="133"/>
+      <c r="KQ21" s="133"/>
+      <c r="KR21" s="133"/>
+      <c r="KS21" s="133"/>
+      <c r="KT21" s="133"/>
+      <c r="KU21" s="133"/>
+      <c r="KV21" s="133"/>
+      <c r="KW21" s="133"/>
+      <c r="KX21" s="133"/>
+      <c r="KY21" s="133"/>
+      <c r="KZ21" s="133"/>
+      <c r="LA21" s="133"/>
+      <c r="LB21" s="133"/>
+      <c r="LC21" s="133"/>
+      <c r="LD21" s="133"/>
+      <c r="LE21" s="133"/>
+      <c r="LF21" s="133"/>
+      <c r="LG21" s="133"/>
+      <c r="LH21" s="133"/>
+      <c r="LI21" s="133"/>
+      <c r="LJ21" s="133"/>
+      <c r="LK21" s="133"/>
+      <c r="LL21" s="133"/>
+      <c r="LM21" s="133"/>
+      <c r="LN21" s="133"/>
+      <c r="LO21" s="133"/>
+      <c r="LP21" s="133"/>
+      <c r="LQ21" s="133"/>
+      <c r="LR21" s="133"/>
+      <c r="LS21" s="133"/>
+      <c r="LT21" s="133"/>
+      <c r="LU21" s="133"/>
+      <c r="LV21" s="133"/>
+      <c r="LW21" s="133"/>
+      <c r="LX21" s="133"/>
+      <c r="LY21" s="133"/>
+      <c r="LZ21" s="133"/>
+      <c r="MA21" s="133"/>
+      <c r="MB21" s="133"/>
+      <c r="MC21" s="133"/>
+      <c r="MD21" s="133"/>
+      <c r="ME21" s="133"/>
+      <c r="MF21" s="133"/>
+      <c r="MG21" s="133"/>
+      <c r="MH21" s="133"/>
+      <c r="MI21" s="133"/>
+      <c r="MJ21" s="133"/>
+      <c r="MK21" s="133"/>
+      <c r="ML21" s="133"/>
+      <c r="MM21" s="133"/>
+      <c r="MN21" s="133"/>
+      <c r="MO21" s="133"/>
+      <c r="MP21" s="133"/>
+      <c r="MQ21" s="133"/>
+      <c r="MR21" s="133"/>
+      <c r="MS21" s="133"/>
+      <c r="MT21" s="133"/>
+      <c r="MU21" s="133"/>
+      <c r="MV21" s="133"/>
+      <c r="MW21" s="133"/>
+      <c r="MX21" s="133"/>
+      <c r="MY21" s="133"/>
+      <c r="MZ21" s="133"/>
+      <c r="NA21" s="133"/>
+      <c r="NB21" s="133"/>
+      <c r="NC21" s="133"/>
+      <c r="ND21" s="133"/>
+      <c r="NE21" s="133"/>
+      <c r="NF21" s="133"/>
+      <c r="NG21" s="133"/>
+      <c r="NH21" s="133"/>
+      <c r="NI21" s="133"/>
+      <c r="NJ21" s="133"/>
+      <c r="NK21" s="133"/>
+      <c r="NL21" s="133"/>
+      <c r="NM21" s="133"/>
+      <c r="NN21" s="133"/>
+      <c r="NO21" s="133"/>
+      <c r="NP21" s="133"/>
+      <c r="NQ21" s="133"/>
+      <c r="NR21" s="133"/>
+      <c r="NS21" s="133"/>
+      <c r="NT21" s="133"/>
+      <c r="NU21" s="133"/>
+      <c r="NV21" s="133"/>
+      <c r="NW21" s="133"/>
+      <c r="NX21" s="133"/>
+      <c r="NY21" s="133"/>
+      <c r="NZ21" s="133"/>
+      <c r="OA21" s="133"/>
+      <c r="OB21" s="133"/>
+      <c r="OC21" s="133"/>
+      <c r="OD21" s="133"/>
+      <c r="OE21" s="133"/>
+      <c r="OF21" s="133"/>
+      <c r="OG21" s="133"/>
+      <c r="OH21" s="133"/>
+      <c r="OI21" s="133"/>
+      <c r="OJ21" s="133"/>
+      <c r="OK21" s="133"/>
+      <c r="OL21" s="133"/>
+      <c r="OM21" s="133"/>
+      <c r="ON21" s="133"/>
+      <c r="OO21" s="133"/>
+      <c r="OP21" s="133"/>
+      <c r="OQ21" s="133"/>
+      <c r="OR21" s="133"/>
+      <c r="OS21" s="133"/>
+      <c r="OT21" s="133"/>
+      <c r="OU21" s="133"/>
+      <c r="OV21" s="133"/>
+      <c r="OW21" s="133"/>
+      <c r="OX21" s="133"/>
+      <c r="OY21" s="133"/>
+      <c r="OZ21" s="133"/>
+      <c r="PA21" s="133"/>
+      <c r="PB21" s="133"/>
+      <c r="PC21" s="133"/>
+      <c r="PD21" s="133"/>
+      <c r="PE21" s="133"/>
+      <c r="PF21" s="133"/>
+      <c r="PG21" s="133"/>
+      <c r="PH21" s="133"/>
+      <c r="PI21" s="133"/>
+      <c r="PJ21" s="133"/>
+      <c r="PK21" s="133"/>
+      <c r="PL21" s="133"/>
+      <c r="PM21" s="133"/>
+      <c r="PN21" s="133"/>
+      <c r="PO21" s="133"/>
+      <c r="PP21" s="133"/>
+      <c r="PQ21" s="133"/>
+      <c r="PR21" s="133"/>
+      <c r="PS21" s="133"/>
+      <c r="PT21" s="133"/>
+      <c r="PU21" s="133"/>
+      <c r="PV21" s="133"/>
+      <c r="PW21" s="133"/>
+      <c r="PX21" s="133"/>
+      <c r="PY21" s="133"/>
+      <c r="PZ21" s="133"/>
+      <c r="QA21" s="133"/>
+      <c r="QB21" s="133"/>
+      <c r="QC21" s="133"/>
+      <c r="QD21" s="133"/>
+      <c r="QE21" s="133"/>
+      <c r="QF21" s="133"/>
+      <c r="QG21" s="133"/>
+      <c r="QH21" s="133"/>
+      <c r="QI21" s="133"/>
+      <c r="QJ21" s="133"/>
+      <c r="QK21" s="133"/>
+      <c r="QL21" s="133"/>
+      <c r="QM21" s="133"/>
+      <c r="QN21" s="133"/>
+      <c r="QO21" s="133"/>
+      <c r="QP21" s="133"/>
+      <c r="QQ21" s="133"/>
+      <c r="QR21" s="133"/>
+      <c r="QS21" s="133"/>
+      <c r="QT21" s="133"/>
+      <c r="QU21" s="133"/>
+      <c r="QV21" s="133"/>
+      <c r="QW21" s="133"/>
+      <c r="QX21" s="133"/>
+      <c r="QY21" s="133"/>
+      <c r="QZ21" s="133"/>
+      <c r="RA21" s="133"/>
+      <c r="RB21" s="133"/>
+      <c r="RC21" s="133"/>
+      <c r="RD21" s="133"/>
+      <c r="RE21" s="133"/>
+      <c r="RF21" s="133"/>
+      <c r="RG21" s="133"/>
+      <c r="RH21" s="133"/>
+      <c r="RI21" s="133"/>
+      <c r="RJ21" s="133"/>
+      <c r="RK21" s="133"/>
+      <c r="RL21" s="133"/>
+      <c r="RM21" s="133"/>
+      <c r="RN21" s="133"/>
+      <c r="RO21" s="133"/>
+      <c r="RP21" s="133"/>
+      <c r="RQ21" s="133"/>
+      <c r="RR21" s="133"/>
+      <c r="RS21" s="133"/>
+      <c r="RT21" s="133"/>
+      <c r="RU21" s="133"/>
+      <c r="RV21" s="133"/>
+      <c r="RW21" s="133"/>
+      <c r="RX21" s="133"/>
+      <c r="RY21" s="133"/>
+      <c r="RZ21" s="133"/>
+      <c r="SA21" s="133"/>
+      <c r="SB21" s="133"/>
+      <c r="SC21" s="133"/>
+      <c r="SD21" s="133"/>
+      <c r="SE21" s="133"/>
+      <c r="SF21" s="133"/>
+      <c r="SG21" s="133"/>
+      <c r="SH21" s="133"/>
+      <c r="SI21" s="133"/>
+      <c r="SJ21" s="133"/>
+      <c r="SK21" s="133"/>
+      <c r="SL21" s="133"/>
+      <c r="SM21" s="133"/>
+      <c r="SN21" s="133"/>
+      <c r="SO21" s="133"/>
+      <c r="SP21" s="133"/>
+      <c r="SQ21" s="133"/>
+      <c r="SR21" s="133"/>
+      <c r="SS21" s="133"/>
+      <c r="ST21" s="133"/>
+      <c r="SU21" s="133"/>
+      <c r="SV21" s="133"/>
+      <c r="SW21" s="133"/>
+      <c r="SX21" s="133"/>
+      <c r="SY21" s="133"/>
+      <c r="SZ21" s="133"/>
+      <c r="TA21" s="133"/>
+      <c r="TB21" s="133"/>
+      <c r="TC21" s="133"/>
+      <c r="TD21" s="133"/>
+      <c r="TE21" s="133"/>
+      <c r="TF21" s="133"/>
+      <c r="TG21" s="133"/>
+      <c r="TH21" s="133"/>
+      <c r="TI21" s="133"/>
+      <c r="TJ21" s="133"/>
+      <c r="TK21" s="133"/>
+      <c r="TL21" s="133"/>
+      <c r="TM21" s="133"/>
+      <c r="TN21" s="133"/>
+      <c r="TO21" s="133"/>
+      <c r="TP21" s="133"/>
+      <c r="TQ21" s="133"/>
+      <c r="TR21" s="133"/>
+      <c r="TS21" s="133"/>
+      <c r="TT21" s="133"/>
+      <c r="TU21" s="133"/>
+      <c r="TV21" s="133"/>
+      <c r="TW21" s="133"/>
+      <c r="TX21" s="133"/>
+      <c r="TY21" s="133"/>
+      <c r="TZ21" s="133"/>
+      <c r="UA21" s="133"/>
+      <c r="UB21" s="133"/>
+      <c r="UC21" s="133"/>
+      <c r="UD21" s="133"/>
+      <c r="UE21" s="133"/>
+      <c r="UF21" s="133"/>
+      <c r="UG21" s="133"/>
+      <c r="UH21" s="133"/>
+      <c r="UI21" s="133"/>
+      <c r="UJ21" s="133"/>
+      <c r="UK21" s="133"/>
+      <c r="UL21" s="133"/>
+      <c r="UM21" s="133"/>
+      <c r="UN21" s="133"/>
+      <c r="UO21" s="133"/>
+      <c r="UP21" s="133"/>
+      <c r="UQ21" s="133"/>
+      <c r="UR21" s="133"/>
+      <c r="US21" s="133"/>
+      <c r="UT21" s="133"/>
+      <c r="UU21" s="133"/>
+      <c r="UV21" s="133"/>
+      <c r="UW21" s="133"/>
+      <c r="UX21" s="133"/>
+      <c r="UY21" s="133"/>
+      <c r="UZ21" s="133"/>
+      <c r="VA21" s="133"/>
+      <c r="VB21" s="133"/>
+      <c r="VC21" s="133"/>
+      <c r="VD21" s="133"/>
+      <c r="VE21" s="133"/>
+      <c r="VF21" s="133"/>
+      <c r="VG21" s="133"/>
+      <c r="VH21" s="133"/>
+      <c r="VI21" s="133"/>
+      <c r="VJ21" s="133"/>
+      <c r="VK21" s="133"/>
+      <c r="VL21" s="133"/>
+      <c r="VM21" s="133"/>
+      <c r="VN21" s="133"/>
+      <c r="VO21" s="133"/>
+      <c r="VP21" s="133"/>
+      <c r="VQ21" s="133"/>
+      <c r="VR21" s="133"/>
+      <c r="VS21" s="133"/>
+      <c r="VT21" s="133"/>
+      <c r="VU21" s="133"/>
+      <c r="VV21" s="133"/>
+      <c r="VW21" s="133"/>
+      <c r="VX21" s="133"/>
+      <c r="VY21" s="133"/>
+      <c r="VZ21" s="133"/>
+      <c r="WA21" s="133"/>
+      <c r="WB21" s="133"/>
+      <c r="WC21" s="133"/>
+      <c r="WD21" s="133"/>
+      <c r="WE21" s="133"/>
+      <c r="WF21" s="133"/>
+      <c r="WG21" s="133"/>
+      <c r="WH21" s="133"/>
+      <c r="WI21" s="133"/>
+      <c r="WJ21" s="133"/>
+      <c r="WK21" s="133"/>
+      <c r="WL21" s="133"/>
+      <c r="WM21" s="133"/>
+      <c r="WN21" s="133"/>
+      <c r="WO21" s="133"/>
+      <c r="WP21" s="133"/>
+      <c r="WQ21" s="133"/>
+      <c r="WR21" s="133"/>
+      <c r="WS21" s="133"/>
+      <c r="WT21" s="133"/>
+      <c r="WU21" s="133"/>
+      <c r="WV21" s="133"/>
+      <c r="WW21" s="133"/>
+      <c r="WX21" s="133"/>
+      <c r="WY21" s="133"/>
+      <c r="WZ21" s="133"/>
+      <c r="XA21" s="133"/>
+      <c r="XB21" s="133"/>
+      <c r="XC21" s="133"/>
+      <c r="XD21" s="133"/>
+      <c r="XE21" s="133"/>
+      <c r="XF21" s="133"/>
+      <c r="XG21" s="133"/>
+      <c r="XH21" s="133"/>
+      <c r="XI21" s="133"/>
+      <c r="XJ21" s="133"/>
+      <c r="XK21" s="133"/>
+      <c r="XL21" s="133"/>
+      <c r="XM21" s="133"/>
+      <c r="XN21" s="133"/>
+      <c r="XO21" s="133"/>
+      <c r="XP21" s="133"/>
+      <c r="XQ21" s="133"/>
+      <c r="XR21" s="133"/>
+      <c r="XS21" s="133"/>
+      <c r="XT21" s="133"/>
+      <c r="XU21" s="133"/>
+      <c r="XV21" s="133"/>
+      <c r="XW21" s="133"/>
+      <c r="XX21" s="133"/>
+      <c r="XY21" s="133"/>
+      <c r="XZ21" s="133"/>
+      <c r="YA21" s="133"/>
+      <c r="YB21" s="133"/>
+      <c r="YC21" s="133"/>
+      <c r="YD21" s="133"/>
+      <c r="YE21" s="133"/>
+      <c r="YF21" s="133"/>
+      <c r="YG21" s="133"/>
+      <c r="YH21" s="133"/>
+      <c r="YI21" s="133"/>
+      <c r="YJ21" s="133"/>
+      <c r="YK21" s="133"/>
+      <c r="YL21" s="133"/>
+      <c r="YM21" s="133"/>
+      <c r="YN21" s="133"/>
+      <c r="YO21" s="133"/>
+      <c r="YP21" s="133"/>
+      <c r="YQ21" s="133"/>
+      <c r="YR21" s="133"/>
+      <c r="YS21" s="133"/>
+      <c r="YT21" s="133"/>
+      <c r="YU21" s="133"/>
+      <c r="YV21" s="133"/>
+      <c r="YW21" s="133"/>
+      <c r="YX21" s="133"/>
+      <c r="YY21" s="133"/>
+      <c r="YZ21" s="133"/>
+      <c r="ZA21" s="133"/>
+      <c r="ZB21" s="133"/>
+      <c r="ZC21" s="133"/>
+      <c r="ZD21" s="133"/>
+      <c r="ZE21" s="133"/>
+      <c r="ZF21" s="133"/>
+      <c r="ZG21" s="133"/>
+      <c r="ZH21" s="133"/>
+      <c r="ZI21" s="133"/>
+      <c r="ZJ21" s="133"/>
+      <c r="ZK21" s="133"/>
+      <c r="ZL21" s="133"/>
+      <c r="ZM21" s="133"/>
+      <c r="ZN21" s="133"/>
+      <c r="ZO21" s="133"/>
+      <c r="ZP21" s="133"/>
+      <c r="ZQ21" s="133"/>
+      <c r="ZR21" s="133"/>
+      <c r="ZS21" s="133"/>
+      <c r="ZT21" s="133"/>
+      <c r="ZU21" s="133"/>
+      <c r="ZV21" s="133"/>
+      <c r="ZW21" s="133"/>
+      <c r="ZX21" s="133"/>
+      <c r="ZY21" s="133"/>
+      <c r="ZZ21" s="133"/>
+      <c r="AAA21" s="133"/>
+      <c r="AAB21" s="133"/>
+      <c r="AAC21" s="133"/>
+      <c r="AAD21" s="133"/>
+      <c r="AAE21" s="133"/>
+      <c r="AAF21" s="133"/>
+      <c r="AAG21" s="133"/>
+      <c r="AAH21" s="133"/>
+      <c r="AAI21" s="133"/>
+      <c r="AAJ21" s="133"/>
+      <c r="AAK21" s="133"/>
+      <c r="AAL21" s="133"/>
+      <c r="AAM21" s="133"/>
+      <c r="AAN21" s="133"/>
+      <c r="AAO21" s="133"/>
+      <c r="AAP21" s="133"/>
+      <c r="AAQ21" s="133"/>
+      <c r="AAR21" s="133"/>
+      <c r="AAS21" s="133"/>
+      <c r="AAT21" s="133"/>
+      <c r="AAU21" s="133"/>
+      <c r="AAV21" s="133"/>
+      <c r="AAW21" s="133"/>
+      <c r="AAX21" s="133"/>
+      <c r="AAY21" s="133"/>
+      <c r="AAZ21" s="133"/>
+      <c r="ABA21" s="133"/>
+      <c r="ABB21" s="133"/>
+      <c r="ABC21" s="133"/>
+      <c r="ABD21" s="133"/>
+      <c r="ABE21" s="133"/>
+      <c r="ABF21" s="133"/>
+      <c r="ABG21" s="133"/>
+      <c r="ABH21" s="133"/>
+      <c r="ABI21" s="133"/>
+      <c r="ABJ21" s="133"/>
+      <c r="ABK21" s="133"/>
+      <c r="ABL21" s="133"/>
+      <c r="ABM21" s="133"/>
+      <c r="ABN21" s="133"/>
+      <c r="ABO21" s="133"/>
+      <c r="ABP21" s="133"/>
+      <c r="ABQ21" s="133"/>
+      <c r="ABR21" s="133"/>
+      <c r="ABS21" s="133"/>
+      <c r="ABT21" s="133"/>
+      <c r="ABU21" s="133"/>
+      <c r="ABV21" s="133"/>
+      <c r="ABW21" s="133"/>
+      <c r="ABX21" s="133"/>
+      <c r="ABY21" s="133"/>
+      <c r="ABZ21" s="133"/>
+      <c r="ACA21" s="133"/>
+      <c r="ACB21" s="133"/>
+      <c r="ACC21" s="133"/>
+      <c r="ACD21" s="133"/>
+      <c r="ACE21" s="133"/>
+      <c r="ACF21" s="133"/>
+      <c r="ACG21" s="133"/>
+      <c r="ACH21" s="133"/>
+      <c r="ACI21" s="133"/>
+      <c r="ACJ21" s="133"/>
+      <c r="ACK21" s="133"/>
+      <c r="ACL21" s="133"/>
+      <c r="ACM21" s="133"/>
+      <c r="ACN21" s="133"/>
+      <c r="ACO21" s="133"/>
+      <c r="ACP21" s="133"/>
+      <c r="ACQ21" s="133"/>
+      <c r="ACR21" s="133"/>
+      <c r="ACS21" s="133"/>
+      <c r="ACT21" s="133"/>
+      <c r="ACU21" s="133"/>
+      <c r="ACV21" s="133"/>
+      <c r="ACW21" s="133"/>
+      <c r="ACX21" s="133"/>
+      <c r="ACY21" s="133"/>
+      <c r="ACZ21" s="133"/>
+      <c r="ADA21" s="133"/>
+      <c r="ADB21" s="133"/>
+      <c r="ADC21" s="133"/>
+      <c r="ADD21" s="133"/>
+      <c r="ADE21" s="133"/>
+      <c r="ADF21" s="133"/>
+      <c r="ADG21" s="133"/>
+      <c r="ADH21" s="133"/>
+      <c r="ADI21" s="133"/>
+      <c r="ADJ21" s="133"/>
+      <c r="ADK21" s="133"/>
+      <c r="ADL21" s="133"/>
+      <c r="ADM21" s="133"/>
+      <c r="ADN21" s="133"/>
+      <c r="ADO21" s="133"/>
+      <c r="ADP21" s="133"/>
+      <c r="ADQ21" s="133"/>
+      <c r="ADR21" s="133"/>
+      <c r="ADS21" s="133"/>
+      <c r="ADT21" s="133"/>
+      <c r="ADU21" s="133"/>
+      <c r="ADV21" s="133"/>
+      <c r="ADW21" s="133"/>
+      <c r="ADX21" s="133"/>
+      <c r="ADY21" s="133"/>
+      <c r="ADZ21" s="133"/>
+      <c r="AEA21" s="133"/>
+      <c r="AEB21" s="133"/>
+      <c r="AEC21" s="133"/>
+      <c r="AED21" s="133"/>
+      <c r="AEE21" s="133"/>
+      <c r="AEF21" s="133"/>
+      <c r="AEG21" s="133"/>
+      <c r="AEH21" s="133"/>
+      <c r="AEI21" s="133"/>
+      <c r="AEJ21" s="133"/>
+      <c r="AEK21" s="133"/>
+      <c r="AEL21" s="133"/>
+      <c r="AEM21" s="133"/>
+      <c r="AEN21" s="133"/>
+      <c r="AEO21" s="133"/>
+      <c r="AEP21" s="133"/>
+      <c r="AEQ21" s="133"/>
+      <c r="AER21" s="133"/>
+      <c r="AES21" s="133"/>
+      <c r="AET21" s="133"/>
+      <c r="AEU21" s="133"/>
+      <c r="AEV21" s="133"/>
+      <c r="AEW21" s="133"/>
+      <c r="AEX21" s="133"/>
+      <c r="AEY21" s="133"/>
+      <c r="AEZ21" s="133"/>
+      <c r="AFA21" s="133"/>
+      <c r="AFB21" s="133"/>
+      <c r="AFC21" s="133"/>
+      <c r="AFD21" s="133"/>
+      <c r="AFE21" s="133"/>
+      <c r="AFF21" s="133"/>
+      <c r="AFG21" s="133"/>
+      <c r="AFH21" s="133"/>
+      <c r="AFI21" s="133"/>
+      <c r="AFJ21" s="133"/>
+      <c r="AFK21" s="133"/>
+      <c r="AFL21" s="133"/>
+      <c r="AFM21" s="133"/>
+      <c r="AFN21" s="133"/>
+      <c r="AFO21" s="133"/>
+      <c r="AFP21" s="133"/>
+      <c r="AFQ21" s="133"/>
+      <c r="AFR21" s="133"/>
+      <c r="AFS21" s="133"/>
+      <c r="AFT21" s="133"/>
+      <c r="AFU21" s="133"/>
+      <c r="AFV21" s="133"/>
+      <c r="AFW21" s="133"/>
+      <c r="AFX21" s="133"/>
+      <c r="AFY21" s="133"/>
+      <c r="AFZ21" s="133"/>
+      <c r="AGA21" s="133"/>
+      <c r="AGB21" s="133"/>
+      <c r="AGC21" s="133"/>
+      <c r="AGD21" s="133"/>
+      <c r="AGE21" s="133"/>
+      <c r="AGF21" s="133"/>
+      <c r="AGG21" s="133"/>
+      <c r="AGH21" s="133"/>
+      <c r="AGI21" s="133"/>
+      <c r="AGJ21" s="133"/>
+      <c r="AGK21" s="133"/>
+      <c r="AGL21" s="133"/>
+      <c r="AGM21" s="133"/>
+      <c r="AGN21" s="133"/>
+      <c r="AGO21" s="133"/>
+      <c r="AGP21" s="133"/>
+      <c r="AGQ21" s="133"/>
+      <c r="AGR21" s="133"/>
+      <c r="AGS21" s="133"/>
+      <c r="AGT21" s="133"/>
+      <c r="AGU21" s="133"/>
+      <c r="AGV21" s="133"/>
+      <c r="AGW21" s="133"/>
+      <c r="AGX21" s="133"/>
+      <c r="AGY21" s="133"/>
+      <c r="AGZ21" s="133"/>
+      <c r="AHA21" s="133"/>
+      <c r="AHB21" s="133"/>
+      <c r="AHC21" s="133"/>
+      <c r="AHD21" s="133"/>
+      <c r="AHE21" s="133"/>
+      <c r="AHF21" s="133"/>
+      <c r="AHG21" s="133"/>
+      <c r="AHH21" s="133"/>
+      <c r="AHI21" s="133"/>
+      <c r="AHJ21" s="133"/>
+      <c r="AHK21" s="133"/>
+      <c r="AHL21" s="133"/>
+      <c r="AHM21" s="133"/>
+      <c r="AHN21" s="133"/>
+      <c r="AHO21" s="133"/>
+      <c r="AHP21" s="133"/>
+      <c r="AHQ21" s="133"/>
+      <c r="AHR21" s="133"/>
+      <c r="AHS21" s="133"/>
+      <c r="AHT21" s="133"/>
+      <c r="AHU21" s="133"/>
+      <c r="AHV21" s="133"/>
+      <c r="AHW21" s="133"/>
+      <c r="AHX21" s="133"/>
+      <c r="AHY21" s="133"/>
+      <c r="AHZ21" s="133"/>
+      <c r="AIA21" s="133"/>
+      <c r="AIB21" s="133"/>
+      <c r="AIC21" s="133"/>
+      <c r="AID21" s="133"/>
+      <c r="AIE21" s="133"/>
+      <c r="AIF21" s="133"/>
+      <c r="AIG21" s="133"/>
+      <c r="AIH21" s="133"/>
+      <c r="AII21" s="133"/>
+      <c r="AIJ21" s="133"/>
+      <c r="AIK21" s="133"/>
+      <c r="AIL21" s="133"/>
+      <c r="AIM21" s="133"/>
+      <c r="AIN21" s="133"/>
+      <c r="AIO21" s="133"/>
+      <c r="AIP21" s="133"/>
+      <c r="AIQ21" s="133"/>
+      <c r="AIR21" s="133"/>
+      <c r="AIS21" s="133"/>
+      <c r="AIT21" s="133"/>
+      <c r="AIU21" s="133"/>
+      <c r="AIV21" s="133"/>
+      <c r="AIW21" s="133"/>
+      <c r="AIX21" s="133"/>
+      <c r="AIY21" s="133"/>
+      <c r="AIZ21" s="133"/>
+      <c r="AJA21" s="133"/>
+      <c r="AJB21" s="133"/>
+      <c r="AJC21" s="133"/>
+      <c r="AJD21" s="133"/>
+      <c r="AJE21" s="133"/>
+      <c r="AJF21" s="133"/>
+      <c r="AJG21" s="133"/>
+      <c r="AJH21" s="133"/>
+      <c r="AJI21" s="133"/>
+      <c r="AJJ21" s="133"/>
+      <c r="AJK21" s="133"/>
+      <c r="AJL21" s="133"/>
+      <c r="AJM21" s="133"/>
+      <c r="AJN21" s="133"/>
+      <c r="AJO21" s="133"/>
+      <c r="AJP21" s="133"/>
+      <c r="AJQ21" s="133"/>
+      <c r="AJR21" s="133"/>
+      <c r="AJS21" s="133"/>
+      <c r="AJT21" s="133"/>
+      <c r="AJU21" s="133"/>
+      <c r="AJV21" s="133"/>
+      <c r="AJW21" s="133"/>
+      <c r="AJX21" s="133"/>
+      <c r="AJY21" s="133"/>
+      <c r="AJZ21" s="133"/>
+      <c r="AKA21" s="133"/>
+      <c r="AKB21" s="133"/>
+      <c r="AKC21" s="133"/>
+      <c r="AKD21" s="133"/>
+      <c r="AKE21" s="133"/>
+      <c r="AKF21" s="133"/>
+      <c r="AKG21" s="133"/>
+      <c r="AKH21" s="133"/>
+      <c r="AKI21" s="133"/>
+      <c r="AKJ21" s="133"/>
+      <c r="AKK21" s="133"/>
+      <c r="AKL21" s="133"/>
+      <c r="AKM21" s="133"/>
+      <c r="AKN21" s="133"/>
+      <c r="AKO21" s="133"/>
+      <c r="AKP21" s="133"/>
+      <c r="AKQ21" s="133"/>
+      <c r="AKR21" s="133"/>
+      <c r="AKS21" s="133"/>
+      <c r="AKT21" s="133"/>
+      <c r="AKU21" s="133"/>
+      <c r="AKV21" s="133"/>
+      <c r="AKW21" s="133"/>
+      <c r="AKX21" s="133"/>
+      <c r="AKY21" s="133"/>
+      <c r="AKZ21" s="133"/>
+      <c r="ALA21" s="133"/>
+      <c r="ALB21" s="133"/>
+      <c r="ALC21" s="133"/>
+      <c r="ALD21" s="133"/>
+      <c r="ALE21" s="133"/>
+      <c r="ALF21" s="133"/>
+      <c r="ALG21" s="133"/>
+      <c r="ALH21" s="133"/>
+      <c r="ALI21" s="133"/>
+      <c r="ALJ21" s="133"/>
+      <c r="ALK21" s="133"/>
+      <c r="ALL21" s="133"/>
+      <c r="ALM21" s="133"/>
+      <c r="ALN21" s="133"/>
+      <c r="ALO21" s="133"/>
+      <c r="ALP21" s="133"/>
+      <c r="ALQ21" s="133"/>
+      <c r="ALR21" s="133"/>
+      <c r="ALS21" s="133"/>
+      <c r="ALT21" s="133"/>
+      <c r="ALU21" s="133"/>
+      <c r="ALV21" s="133"/>
+      <c r="ALW21" s="133"/>
+      <c r="ALX21" s="133"/>
+      <c r="ALY21" s="133"/>
+      <c r="ALZ21" s="133"/>
+      <c r="AMA21" s="133"/>
+      <c r="AMB21" s="133"/>
+      <c r="AMC21" s="133"/>
+      <c r="AMD21" s="133"/>
+      <c r="AME21" s="133"/>
+      <c r="AMF21" s="133"/>
+      <c r="AMG21" s="133"/>
+      <c r="AMH21" s="133"/>
+      <c r="AMI21" s="133"/>
+      <c r="AMJ21" s="133"/>
+      <c r="AMK21" s="133"/>
+    </row>
+    <row r="22" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
         <v>214</v>
       </c>
@@ -13103,1033 +13103,1033 @@
       <c r="C22" s="126">
         <v>4</v>
       </c>
-      <c r="D22" s="159" t="str">
+      <c r="D22" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Médio</v>
       </c>
-      <c r="E22" s="160" t="s">
+      <c r="E22" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="161"/>
-      <c r="AJ22" s="161"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="161"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="161"/>
-      <c r="AS22" s="161"/>
-      <c r="AT22" s="161"/>
-      <c r="AU22" s="161"/>
-      <c r="AV22" s="161"/>
-      <c r="AW22" s="161"/>
-      <c r="AX22" s="161"/>
-      <c r="AY22" s="161"/>
-      <c r="AZ22" s="161"/>
-      <c r="BA22" s="161"/>
-      <c r="BB22" s="161"/>
-      <c r="BC22" s="161"/>
-      <c r="BD22" s="161"/>
-      <c r="BE22" s="161"/>
-      <c r="BF22" s="161"/>
-      <c r="BG22" s="161"/>
-      <c r="BH22" s="161"/>
-      <c r="BI22" s="161"/>
-      <c r="BJ22" s="161"/>
-      <c r="BK22" s="161"/>
-      <c r="BL22" s="161"/>
-      <c r="BM22" s="161"/>
-      <c r="BN22" s="161"/>
-      <c r="BO22" s="161"/>
-      <c r="BP22" s="161"/>
-      <c r="BQ22" s="161"/>
-      <c r="BR22" s="161"/>
-      <c r="BS22" s="161"/>
-      <c r="BT22" s="161"/>
-      <c r="BU22" s="161"/>
-      <c r="BV22" s="161"/>
-      <c r="BW22" s="161"/>
-      <c r="BX22" s="161"/>
-      <c r="BY22" s="161"/>
-      <c r="BZ22" s="161"/>
-      <c r="CA22" s="161"/>
-      <c r="CB22" s="161"/>
-      <c r="CC22" s="161"/>
-      <c r="CD22" s="161"/>
-      <c r="CE22" s="161"/>
-      <c r="CF22" s="161"/>
-      <c r="CG22" s="161"/>
-      <c r="CH22" s="161"/>
-      <c r="CI22" s="161"/>
-      <c r="CJ22" s="161"/>
-      <c r="CK22" s="161"/>
-      <c r="CL22" s="161"/>
-      <c r="CM22" s="161"/>
-      <c r="CN22" s="161"/>
-      <c r="CO22" s="161"/>
-      <c r="CP22" s="161"/>
-      <c r="CQ22" s="161"/>
-      <c r="CR22" s="161"/>
-      <c r="CS22" s="161"/>
-      <c r="CT22" s="161"/>
-      <c r="CU22" s="161"/>
-      <c r="CV22" s="161"/>
-      <c r="CW22" s="161"/>
-      <c r="CX22" s="161"/>
-      <c r="CY22" s="161"/>
-      <c r="CZ22" s="161"/>
-      <c r="DA22" s="161"/>
-      <c r="DB22" s="161"/>
-      <c r="DC22" s="161"/>
-      <c r="DD22" s="161"/>
-      <c r="DE22" s="161"/>
-      <c r="DF22" s="161"/>
-      <c r="DG22" s="161"/>
-      <c r="DH22" s="161"/>
-      <c r="DI22" s="161"/>
-      <c r="DJ22" s="161"/>
-      <c r="DK22" s="161"/>
-      <c r="DL22" s="161"/>
-      <c r="DM22" s="161"/>
-      <c r="DN22" s="161"/>
-      <c r="DO22" s="161"/>
-      <c r="DP22" s="161"/>
-      <c r="DQ22" s="161"/>
-      <c r="DR22" s="161"/>
-      <c r="DS22" s="161"/>
-      <c r="DT22" s="161"/>
-      <c r="DU22" s="161"/>
-      <c r="DV22" s="161"/>
-      <c r="DW22" s="161"/>
-      <c r="DX22" s="161"/>
-      <c r="DY22" s="161"/>
-      <c r="DZ22" s="161"/>
-      <c r="EA22" s="161"/>
-      <c r="EB22" s="161"/>
-      <c r="EC22" s="161"/>
-      <c r="ED22" s="161"/>
-      <c r="EE22" s="161"/>
-      <c r="EF22" s="161"/>
-      <c r="EG22" s="161"/>
-      <c r="EH22" s="161"/>
-      <c r="EI22" s="161"/>
-      <c r="EJ22" s="161"/>
-      <c r="EK22" s="161"/>
-      <c r="EL22" s="161"/>
-      <c r="EM22" s="161"/>
-      <c r="EN22" s="161"/>
-      <c r="EO22" s="161"/>
-      <c r="EP22" s="161"/>
-      <c r="EQ22" s="161"/>
-      <c r="ER22" s="161"/>
-      <c r="ES22" s="161"/>
-      <c r="ET22" s="161"/>
-      <c r="EU22" s="161"/>
-      <c r="EV22" s="161"/>
-      <c r="EW22" s="161"/>
-      <c r="EX22" s="161"/>
-      <c r="EY22" s="161"/>
-      <c r="EZ22" s="161"/>
-      <c r="FA22" s="161"/>
-      <c r="FB22" s="161"/>
-      <c r="FC22" s="161"/>
-      <c r="FD22" s="161"/>
-      <c r="FE22" s="161"/>
-      <c r="FF22" s="161"/>
-      <c r="FG22" s="161"/>
-      <c r="FH22" s="161"/>
-      <c r="FI22" s="161"/>
-      <c r="FJ22" s="161"/>
-      <c r="FK22" s="161"/>
-      <c r="FL22" s="161"/>
-      <c r="FM22" s="161"/>
-      <c r="FN22" s="161"/>
-      <c r="FO22" s="161"/>
-      <c r="FP22" s="161"/>
-      <c r="FQ22" s="161"/>
-      <c r="FR22" s="161"/>
-      <c r="FS22" s="161"/>
-      <c r="FT22" s="161"/>
-      <c r="FU22" s="161"/>
-      <c r="FV22" s="161"/>
-      <c r="FW22" s="161"/>
-      <c r="FX22" s="161"/>
-      <c r="FY22" s="161"/>
-      <c r="FZ22" s="161"/>
-      <c r="GA22" s="161"/>
-      <c r="GB22" s="161"/>
-      <c r="GC22" s="161"/>
-      <c r="GD22" s="161"/>
-      <c r="GE22" s="161"/>
-      <c r="GF22" s="161"/>
-      <c r="GG22" s="161"/>
-      <c r="GH22" s="161"/>
-      <c r="GI22" s="161"/>
-      <c r="GJ22" s="161"/>
-      <c r="GK22" s="161"/>
-      <c r="GL22" s="161"/>
-      <c r="GM22" s="161"/>
-      <c r="GN22" s="161"/>
-      <c r="GO22" s="161"/>
-      <c r="GP22" s="161"/>
-      <c r="GQ22" s="161"/>
-      <c r="GR22" s="161"/>
-      <c r="GS22" s="161"/>
-      <c r="GT22" s="161"/>
-      <c r="GU22" s="161"/>
-      <c r="GV22" s="161"/>
-      <c r="GW22" s="161"/>
-      <c r="GX22" s="161"/>
-      <c r="GY22" s="161"/>
-      <c r="GZ22" s="161"/>
-      <c r="HA22" s="161"/>
-      <c r="HB22" s="161"/>
-      <c r="HC22" s="161"/>
-      <c r="HD22" s="161"/>
-      <c r="HE22" s="161"/>
-      <c r="HF22" s="161"/>
-      <c r="HG22" s="161"/>
-      <c r="HH22" s="161"/>
-      <c r="HI22" s="161"/>
-      <c r="HJ22" s="161"/>
-      <c r="HK22" s="161"/>
-      <c r="HL22" s="161"/>
-      <c r="HM22" s="161"/>
-      <c r="HN22" s="161"/>
-      <c r="HO22" s="161"/>
-      <c r="HP22" s="161"/>
-      <c r="HQ22" s="161"/>
-      <c r="HR22" s="161"/>
-      <c r="HS22" s="161"/>
-      <c r="HT22" s="161"/>
-      <c r="HU22" s="161"/>
-      <c r="HV22" s="161"/>
-      <c r="HW22" s="161"/>
-      <c r="HX22" s="161"/>
-      <c r="HY22" s="161"/>
-      <c r="HZ22" s="161"/>
-      <c r="IA22" s="161"/>
-      <c r="IB22" s="161"/>
-      <c r="IC22" s="161"/>
-      <c r="ID22" s="161"/>
-      <c r="IE22" s="161"/>
-      <c r="IF22" s="161"/>
-      <c r="IG22" s="161"/>
-      <c r="IH22" s="161"/>
-      <c r="II22" s="161"/>
-      <c r="IJ22" s="161"/>
-      <c r="IK22" s="161"/>
-      <c r="IL22" s="161"/>
-      <c r="IM22" s="161"/>
-      <c r="IN22" s="161"/>
-      <c r="IO22" s="161"/>
-      <c r="IP22" s="161"/>
-      <c r="IQ22" s="161"/>
-      <c r="IR22" s="161"/>
-      <c r="IS22" s="161"/>
-      <c r="IT22" s="161"/>
-      <c r="IU22" s="161"/>
-      <c r="IV22" s="161"/>
-      <c r="IW22" s="161"/>
-      <c r="IX22" s="161"/>
-      <c r="IY22" s="161"/>
-      <c r="IZ22" s="161"/>
-      <c r="JA22" s="161"/>
-      <c r="JB22" s="161"/>
-      <c r="JC22" s="161"/>
-      <c r="JD22" s="161"/>
-      <c r="JE22" s="161"/>
-      <c r="JF22" s="161"/>
-      <c r="JG22" s="161"/>
-      <c r="JH22" s="161"/>
-      <c r="JI22" s="161"/>
-      <c r="JJ22" s="161"/>
-      <c r="JK22" s="161"/>
-      <c r="JL22" s="161"/>
-      <c r="JM22" s="161"/>
-      <c r="JN22" s="161"/>
-      <c r="JO22" s="161"/>
-      <c r="JP22" s="161"/>
-      <c r="JQ22" s="161"/>
-      <c r="JR22" s="161"/>
-      <c r="JS22" s="161"/>
-      <c r="JT22" s="161"/>
-      <c r="JU22" s="161"/>
-      <c r="JV22" s="161"/>
-      <c r="JW22" s="161"/>
-      <c r="JX22" s="161"/>
-      <c r="JY22" s="161"/>
-      <c r="JZ22" s="161"/>
-      <c r="KA22" s="161"/>
-      <c r="KB22" s="161"/>
-      <c r="KC22" s="161"/>
-      <c r="KD22" s="161"/>
-      <c r="KE22" s="161"/>
-      <c r="KF22" s="161"/>
-      <c r="KG22" s="161"/>
-      <c r="KH22" s="161"/>
-      <c r="KI22" s="161"/>
-      <c r="KJ22" s="161"/>
-      <c r="KK22" s="161"/>
-      <c r="KL22" s="161"/>
-      <c r="KM22" s="161"/>
-      <c r="KN22" s="161"/>
-      <c r="KO22" s="161"/>
-      <c r="KP22" s="161"/>
-      <c r="KQ22" s="161"/>
-      <c r="KR22" s="161"/>
-      <c r="KS22" s="161"/>
-      <c r="KT22" s="161"/>
-      <c r="KU22" s="161"/>
-      <c r="KV22" s="161"/>
-      <c r="KW22" s="161"/>
-      <c r="KX22" s="161"/>
-      <c r="KY22" s="161"/>
-      <c r="KZ22" s="161"/>
-      <c r="LA22" s="161"/>
-      <c r="LB22" s="161"/>
-      <c r="LC22" s="161"/>
-      <c r="LD22" s="161"/>
-      <c r="LE22" s="161"/>
-      <c r="LF22" s="161"/>
-      <c r="LG22" s="161"/>
-      <c r="LH22" s="161"/>
-      <c r="LI22" s="161"/>
-      <c r="LJ22" s="161"/>
-      <c r="LK22" s="161"/>
-      <c r="LL22" s="161"/>
-      <c r="LM22" s="161"/>
-      <c r="LN22" s="161"/>
-      <c r="LO22" s="161"/>
-      <c r="LP22" s="161"/>
-      <c r="LQ22" s="161"/>
-      <c r="LR22" s="161"/>
-      <c r="LS22" s="161"/>
-      <c r="LT22" s="161"/>
-      <c r="LU22" s="161"/>
-      <c r="LV22" s="161"/>
-      <c r="LW22" s="161"/>
-      <c r="LX22" s="161"/>
-      <c r="LY22" s="161"/>
-      <c r="LZ22" s="161"/>
-      <c r="MA22" s="161"/>
-      <c r="MB22" s="161"/>
-      <c r="MC22" s="161"/>
-      <c r="MD22" s="161"/>
-      <c r="ME22" s="161"/>
-      <c r="MF22" s="161"/>
-      <c r="MG22" s="161"/>
-      <c r="MH22" s="161"/>
-      <c r="MI22" s="161"/>
-      <c r="MJ22" s="161"/>
-      <c r="MK22" s="161"/>
-      <c r="ML22" s="161"/>
-      <c r="MM22" s="161"/>
-      <c r="MN22" s="161"/>
-      <c r="MO22" s="161"/>
-      <c r="MP22" s="161"/>
-      <c r="MQ22" s="161"/>
-      <c r="MR22" s="161"/>
-      <c r="MS22" s="161"/>
-      <c r="MT22" s="161"/>
-      <c r="MU22" s="161"/>
-      <c r="MV22" s="161"/>
-      <c r="MW22" s="161"/>
-      <c r="MX22" s="161"/>
-      <c r="MY22" s="161"/>
-      <c r="MZ22" s="161"/>
-      <c r="NA22" s="161"/>
-      <c r="NB22" s="161"/>
-      <c r="NC22" s="161"/>
-      <c r="ND22" s="161"/>
-      <c r="NE22" s="161"/>
-      <c r="NF22" s="161"/>
-      <c r="NG22" s="161"/>
-      <c r="NH22" s="161"/>
-      <c r="NI22" s="161"/>
-      <c r="NJ22" s="161"/>
-      <c r="NK22" s="161"/>
-      <c r="NL22" s="161"/>
-      <c r="NM22" s="161"/>
-      <c r="NN22" s="161"/>
-      <c r="NO22" s="161"/>
-      <c r="NP22" s="161"/>
-      <c r="NQ22" s="161"/>
-      <c r="NR22" s="161"/>
-      <c r="NS22" s="161"/>
-      <c r="NT22" s="161"/>
-      <c r="NU22" s="161"/>
-      <c r="NV22" s="161"/>
-      <c r="NW22" s="161"/>
-      <c r="NX22" s="161"/>
-      <c r="NY22" s="161"/>
-      <c r="NZ22" s="161"/>
-      <c r="OA22" s="161"/>
-      <c r="OB22" s="161"/>
-      <c r="OC22" s="161"/>
-      <c r="OD22" s="161"/>
-      <c r="OE22" s="161"/>
-      <c r="OF22" s="161"/>
-      <c r="OG22" s="161"/>
-      <c r="OH22" s="161"/>
-      <c r="OI22" s="161"/>
-      <c r="OJ22" s="161"/>
-      <c r="OK22" s="161"/>
-      <c r="OL22" s="161"/>
-      <c r="OM22" s="161"/>
-      <c r="ON22" s="161"/>
-      <c r="OO22" s="161"/>
-      <c r="OP22" s="161"/>
-      <c r="OQ22" s="161"/>
-      <c r="OR22" s="161"/>
-      <c r="OS22" s="161"/>
-      <c r="OT22" s="161"/>
-      <c r="OU22" s="161"/>
-      <c r="OV22" s="161"/>
-      <c r="OW22" s="161"/>
-      <c r="OX22" s="161"/>
-      <c r="OY22" s="161"/>
-      <c r="OZ22" s="161"/>
-      <c r="PA22" s="161"/>
-      <c r="PB22" s="161"/>
-      <c r="PC22" s="161"/>
-      <c r="PD22" s="161"/>
-      <c r="PE22" s="161"/>
-      <c r="PF22" s="161"/>
-      <c r="PG22" s="161"/>
-      <c r="PH22" s="161"/>
-      <c r="PI22" s="161"/>
-      <c r="PJ22" s="161"/>
-      <c r="PK22" s="161"/>
-      <c r="PL22" s="161"/>
-      <c r="PM22" s="161"/>
-      <c r="PN22" s="161"/>
-      <c r="PO22" s="161"/>
-      <c r="PP22" s="161"/>
-      <c r="PQ22" s="161"/>
-      <c r="PR22" s="161"/>
-      <c r="PS22" s="161"/>
-      <c r="PT22" s="161"/>
-      <c r="PU22" s="161"/>
-      <c r="PV22" s="161"/>
-      <c r="PW22" s="161"/>
-      <c r="PX22" s="161"/>
-      <c r="PY22" s="161"/>
-      <c r="PZ22" s="161"/>
-      <c r="QA22" s="161"/>
-      <c r="QB22" s="161"/>
-      <c r="QC22" s="161"/>
-      <c r="QD22" s="161"/>
-      <c r="QE22" s="161"/>
-      <c r="QF22" s="161"/>
-      <c r="QG22" s="161"/>
-      <c r="QH22" s="161"/>
-      <c r="QI22" s="161"/>
-      <c r="QJ22" s="161"/>
-      <c r="QK22" s="161"/>
-      <c r="QL22" s="161"/>
-      <c r="QM22" s="161"/>
-      <c r="QN22" s="161"/>
-      <c r="QO22" s="161"/>
-      <c r="QP22" s="161"/>
-      <c r="QQ22" s="161"/>
-      <c r="QR22" s="161"/>
-      <c r="QS22" s="161"/>
-      <c r="QT22" s="161"/>
-      <c r="QU22" s="161"/>
-      <c r="QV22" s="161"/>
-      <c r="QW22" s="161"/>
-      <c r="QX22" s="161"/>
-      <c r="QY22" s="161"/>
-      <c r="QZ22" s="161"/>
-      <c r="RA22" s="161"/>
-      <c r="RB22" s="161"/>
-      <c r="RC22" s="161"/>
-      <c r="RD22" s="161"/>
-      <c r="RE22" s="161"/>
-      <c r="RF22" s="161"/>
-      <c r="RG22" s="161"/>
-      <c r="RH22" s="161"/>
-      <c r="RI22" s="161"/>
-      <c r="RJ22" s="161"/>
-      <c r="RK22" s="161"/>
-      <c r="RL22" s="161"/>
-      <c r="RM22" s="161"/>
-      <c r="RN22" s="161"/>
-      <c r="RO22" s="161"/>
-      <c r="RP22" s="161"/>
-      <c r="RQ22" s="161"/>
-      <c r="RR22" s="161"/>
-      <c r="RS22" s="161"/>
-      <c r="RT22" s="161"/>
-      <c r="RU22" s="161"/>
-      <c r="RV22" s="161"/>
-      <c r="RW22" s="161"/>
-      <c r="RX22" s="161"/>
-      <c r="RY22" s="161"/>
-      <c r="RZ22" s="161"/>
-      <c r="SA22" s="161"/>
-      <c r="SB22" s="161"/>
-      <c r="SC22" s="161"/>
-      <c r="SD22" s="161"/>
-      <c r="SE22" s="161"/>
-      <c r="SF22" s="161"/>
-      <c r="SG22" s="161"/>
-      <c r="SH22" s="161"/>
-      <c r="SI22" s="161"/>
-      <c r="SJ22" s="161"/>
-      <c r="SK22" s="161"/>
-      <c r="SL22" s="161"/>
-      <c r="SM22" s="161"/>
-      <c r="SN22" s="161"/>
-      <c r="SO22" s="161"/>
-      <c r="SP22" s="161"/>
-      <c r="SQ22" s="161"/>
-      <c r="SR22" s="161"/>
-      <c r="SS22" s="161"/>
-      <c r="ST22" s="161"/>
-      <c r="SU22" s="161"/>
-      <c r="SV22" s="161"/>
-      <c r="SW22" s="161"/>
-      <c r="SX22" s="161"/>
-      <c r="SY22" s="161"/>
-      <c r="SZ22" s="161"/>
-      <c r="TA22" s="161"/>
-      <c r="TB22" s="161"/>
-      <c r="TC22" s="161"/>
-      <c r="TD22" s="161"/>
-      <c r="TE22" s="161"/>
-      <c r="TF22" s="161"/>
-      <c r="TG22" s="161"/>
-      <c r="TH22" s="161"/>
-      <c r="TI22" s="161"/>
-      <c r="TJ22" s="161"/>
-      <c r="TK22" s="161"/>
-      <c r="TL22" s="161"/>
-      <c r="TM22" s="161"/>
-      <c r="TN22" s="161"/>
-      <c r="TO22" s="161"/>
-      <c r="TP22" s="161"/>
-      <c r="TQ22" s="161"/>
-      <c r="TR22" s="161"/>
-      <c r="TS22" s="161"/>
-      <c r="TT22" s="161"/>
-      <c r="TU22" s="161"/>
-      <c r="TV22" s="161"/>
-      <c r="TW22" s="161"/>
-      <c r="TX22" s="161"/>
-      <c r="TY22" s="161"/>
-      <c r="TZ22" s="161"/>
-      <c r="UA22" s="161"/>
-      <c r="UB22" s="161"/>
-      <c r="UC22" s="161"/>
-      <c r="UD22" s="161"/>
-      <c r="UE22" s="161"/>
-      <c r="UF22" s="161"/>
-      <c r="UG22" s="161"/>
-      <c r="UH22" s="161"/>
-      <c r="UI22" s="161"/>
-      <c r="UJ22" s="161"/>
-      <c r="UK22" s="161"/>
-      <c r="UL22" s="161"/>
-      <c r="UM22" s="161"/>
-      <c r="UN22" s="161"/>
-      <c r="UO22" s="161"/>
-      <c r="UP22" s="161"/>
-      <c r="UQ22" s="161"/>
-      <c r="UR22" s="161"/>
-      <c r="US22" s="161"/>
-      <c r="UT22" s="161"/>
-      <c r="UU22" s="161"/>
-      <c r="UV22" s="161"/>
-      <c r="UW22" s="161"/>
-      <c r="UX22" s="161"/>
-      <c r="UY22" s="161"/>
-      <c r="UZ22" s="161"/>
-      <c r="VA22" s="161"/>
-      <c r="VB22" s="161"/>
-      <c r="VC22" s="161"/>
-      <c r="VD22" s="161"/>
-      <c r="VE22" s="161"/>
-      <c r="VF22" s="161"/>
-      <c r="VG22" s="161"/>
-      <c r="VH22" s="161"/>
-      <c r="VI22" s="161"/>
-      <c r="VJ22" s="161"/>
-      <c r="VK22" s="161"/>
-      <c r="VL22" s="161"/>
-      <c r="VM22" s="161"/>
-      <c r="VN22" s="161"/>
-      <c r="VO22" s="161"/>
-      <c r="VP22" s="161"/>
-      <c r="VQ22" s="161"/>
-      <c r="VR22" s="161"/>
-      <c r="VS22" s="161"/>
-      <c r="VT22" s="161"/>
-      <c r="VU22" s="161"/>
-      <c r="VV22" s="161"/>
-      <c r="VW22" s="161"/>
-      <c r="VX22" s="161"/>
-      <c r="VY22" s="161"/>
-      <c r="VZ22" s="161"/>
-      <c r="WA22" s="161"/>
-      <c r="WB22" s="161"/>
-      <c r="WC22" s="161"/>
-      <c r="WD22" s="161"/>
-      <c r="WE22" s="161"/>
-      <c r="WF22" s="161"/>
-      <c r="WG22" s="161"/>
-      <c r="WH22" s="161"/>
-      <c r="WI22" s="161"/>
-      <c r="WJ22" s="161"/>
-      <c r="WK22" s="161"/>
-      <c r="WL22" s="161"/>
-      <c r="WM22" s="161"/>
-      <c r="WN22" s="161"/>
-      <c r="WO22" s="161"/>
-      <c r="WP22" s="161"/>
-      <c r="WQ22" s="161"/>
-      <c r="WR22" s="161"/>
-      <c r="WS22" s="161"/>
-      <c r="WT22" s="161"/>
-      <c r="WU22" s="161"/>
-      <c r="WV22" s="161"/>
-      <c r="WW22" s="161"/>
-      <c r="WX22" s="161"/>
-      <c r="WY22" s="161"/>
-      <c r="WZ22" s="161"/>
-      <c r="XA22" s="161"/>
-      <c r="XB22" s="161"/>
-      <c r="XC22" s="161"/>
-      <c r="XD22" s="161"/>
-      <c r="XE22" s="161"/>
-      <c r="XF22" s="161"/>
-      <c r="XG22" s="161"/>
-      <c r="XH22" s="161"/>
-      <c r="XI22" s="161"/>
-      <c r="XJ22" s="161"/>
-      <c r="XK22" s="161"/>
-      <c r="XL22" s="161"/>
-      <c r="XM22" s="161"/>
-      <c r="XN22" s="161"/>
-      <c r="XO22" s="161"/>
-      <c r="XP22" s="161"/>
-      <c r="XQ22" s="161"/>
-      <c r="XR22" s="161"/>
-      <c r="XS22" s="161"/>
-      <c r="XT22" s="161"/>
-      <c r="XU22" s="161"/>
-      <c r="XV22" s="161"/>
-      <c r="XW22" s="161"/>
-      <c r="XX22" s="161"/>
-      <c r="XY22" s="161"/>
-      <c r="XZ22" s="161"/>
-      <c r="YA22" s="161"/>
-      <c r="YB22" s="161"/>
-      <c r="YC22" s="161"/>
-      <c r="YD22" s="161"/>
-      <c r="YE22" s="161"/>
-      <c r="YF22" s="161"/>
-      <c r="YG22" s="161"/>
-      <c r="YH22" s="161"/>
-      <c r="YI22" s="161"/>
-      <c r="YJ22" s="161"/>
-      <c r="YK22" s="161"/>
-      <c r="YL22" s="161"/>
-      <c r="YM22" s="161"/>
-      <c r="YN22" s="161"/>
-      <c r="YO22" s="161"/>
-      <c r="YP22" s="161"/>
-      <c r="YQ22" s="161"/>
-      <c r="YR22" s="161"/>
-      <c r="YS22" s="161"/>
-      <c r="YT22" s="161"/>
-      <c r="YU22" s="161"/>
-      <c r="YV22" s="161"/>
-      <c r="YW22" s="161"/>
-      <c r="YX22" s="161"/>
-      <c r="YY22" s="161"/>
-      <c r="YZ22" s="161"/>
-      <c r="ZA22" s="161"/>
-      <c r="ZB22" s="161"/>
-      <c r="ZC22" s="161"/>
-      <c r="ZD22" s="161"/>
-      <c r="ZE22" s="161"/>
-      <c r="ZF22" s="161"/>
-      <c r="ZG22" s="161"/>
-      <c r="ZH22" s="161"/>
-      <c r="ZI22" s="161"/>
-      <c r="ZJ22" s="161"/>
-      <c r="ZK22" s="161"/>
-      <c r="ZL22" s="161"/>
-      <c r="ZM22" s="161"/>
-      <c r="ZN22" s="161"/>
-      <c r="ZO22" s="161"/>
-      <c r="ZP22" s="161"/>
-      <c r="ZQ22" s="161"/>
-      <c r="ZR22" s="161"/>
-      <c r="ZS22" s="161"/>
-      <c r="ZT22" s="161"/>
-      <c r="ZU22" s="161"/>
-      <c r="ZV22" s="161"/>
-      <c r="ZW22" s="161"/>
-      <c r="ZX22" s="161"/>
-      <c r="ZY22" s="161"/>
-      <c r="ZZ22" s="161"/>
-      <c r="AAA22" s="161"/>
-      <c r="AAB22" s="161"/>
-      <c r="AAC22" s="161"/>
-      <c r="AAD22" s="161"/>
-      <c r="AAE22" s="161"/>
-      <c r="AAF22" s="161"/>
-      <c r="AAG22" s="161"/>
-      <c r="AAH22" s="161"/>
-      <c r="AAI22" s="161"/>
-      <c r="AAJ22" s="161"/>
-      <c r="AAK22" s="161"/>
-      <c r="AAL22" s="161"/>
-      <c r="AAM22" s="161"/>
-      <c r="AAN22" s="161"/>
-      <c r="AAO22" s="161"/>
-      <c r="AAP22" s="161"/>
-      <c r="AAQ22" s="161"/>
-      <c r="AAR22" s="161"/>
-      <c r="AAS22" s="161"/>
-      <c r="AAT22" s="161"/>
-      <c r="AAU22" s="161"/>
-      <c r="AAV22" s="161"/>
-      <c r="AAW22" s="161"/>
-      <c r="AAX22" s="161"/>
-      <c r="AAY22" s="161"/>
-      <c r="AAZ22" s="161"/>
-      <c r="ABA22" s="161"/>
-      <c r="ABB22" s="161"/>
-      <c r="ABC22" s="161"/>
-      <c r="ABD22" s="161"/>
-      <c r="ABE22" s="161"/>
-      <c r="ABF22" s="161"/>
-      <c r="ABG22" s="161"/>
-      <c r="ABH22" s="161"/>
-      <c r="ABI22" s="161"/>
-      <c r="ABJ22" s="161"/>
-      <c r="ABK22" s="161"/>
-      <c r="ABL22" s="161"/>
-      <c r="ABM22" s="161"/>
-      <c r="ABN22" s="161"/>
-      <c r="ABO22" s="161"/>
-      <c r="ABP22" s="161"/>
-      <c r="ABQ22" s="161"/>
-      <c r="ABR22" s="161"/>
-      <c r="ABS22" s="161"/>
-      <c r="ABT22" s="161"/>
-      <c r="ABU22" s="161"/>
-      <c r="ABV22" s="161"/>
-      <c r="ABW22" s="161"/>
-      <c r="ABX22" s="161"/>
-      <c r="ABY22" s="161"/>
-      <c r="ABZ22" s="161"/>
-      <c r="ACA22" s="161"/>
-      <c r="ACB22" s="161"/>
-      <c r="ACC22" s="161"/>
-      <c r="ACD22" s="161"/>
-      <c r="ACE22" s="161"/>
-      <c r="ACF22" s="161"/>
-      <c r="ACG22" s="161"/>
-      <c r="ACH22" s="161"/>
-      <c r="ACI22" s="161"/>
-      <c r="ACJ22" s="161"/>
-      <c r="ACK22" s="161"/>
-      <c r="ACL22" s="161"/>
-      <c r="ACM22" s="161"/>
-      <c r="ACN22" s="161"/>
-      <c r="ACO22" s="161"/>
-      <c r="ACP22" s="161"/>
-      <c r="ACQ22" s="161"/>
-      <c r="ACR22" s="161"/>
-      <c r="ACS22" s="161"/>
-      <c r="ACT22" s="161"/>
-      <c r="ACU22" s="161"/>
-      <c r="ACV22" s="161"/>
-      <c r="ACW22" s="161"/>
-      <c r="ACX22" s="161"/>
-      <c r="ACY22" s="161"/>
-      <c r="ACZ22" s="161"/>
-      <c r="ADA22" s="161"/>
-      <c r="ADB22" s="161"/>
-      <c r="ADC22" s="161"/>
-      <c r="ADD22" s="161"/>
-      <c r="ADE22" s="161"/>
-      <c r="ADF22" s="161"/>
-      <c r="ADG22" s="161"/>
-      <c r="ADH22" s="161"/>
-      <c r="ADI22" s="161"/>
-      <c r="ADJ22" s="161"/>
-      <c r="ADK22" s="161"/>
-      <c r="ADL22" s="161"/>
-      <c r="ADM22" s="161"/>
-      <c r="ADN22" s="161"/>
-      <c r="ADO22" s="161"/>
-      <c r="ADP22" s="161"/>
-      <c r="ADQ22" s="161"/>
-      <c r="ADR22" s="161"/>
-      <c r="ADS22" s="161"/>
-      <c r="ADT22" s="161"/>
-      <c r="ADU22" s="161"/>
-      <c r="ADV22" s="161"/>
-      <c r="ADW22" s="161"/>
-      <c r="ADX22" s="161"/>
-      <c r="ADY22" s="161"/>
-      <c r="ADZ22" s="161"/>
-      <c r="AEA22" s="161"/>
-      <c r="AEB22" s="161"/>
-      <c r="AEC22" s="161"/>
-      <c r="AED22" s="161"/>
-      <c r="AEE22" s="161"/>
-      <c r="AEF22" s="161"/>
-      <c r="AEG22" s="161"/>
-      <c r="AEH22" s="161"/>
-      <c r="AEI22" s="161"/>
-      <c r="AEJ22" s="161"/>
-      <c r="AEK22" s="161"/>
-      <c r="AEL22" s="161"/>
-      <c r="AEM22" s="161"/>
-      <c r="AEN22" s="161"/>
-      <c r="AEO22" s="161"/>
-      <c r="AEP22" s="161"/>
-      <c r="AEQ22" s="161"/>
-      <c r="AER22" s="161"/>
-      <c r="AES22" s="161"/>
-      <c r="AET22" s="161"/>
-      <c r="AEU22" s="161"/>
-      <c r="AEV22" s="161"/>
-      <c r="AEW22" s="161"/>
-      <c r="AEX22" s="161"/>
-      <c r="AEY22" s="161"/>
-      <c r="AEZ22" s="161"/>
-      <c r="AFA22" s="161"/>
-      <c r="AFB22" s="161"/>
-      <c r="AFC22" s="161"/>
-      <c r="AFD22" s="161"/>
-      <c r="AFE22" s="161"/>
-      <c r="AFF22" s="161"/>
-      <c r="AFG22" s="161"/>
-      <c r="AFH22" s="161"/>
-      <c r="AFI22" s="161"/>
-      <c r="AFJ22" s="161"/>
-      <c r="AFK22" s="161"/>
-      <c r="AFL22" s="161"/>
-      <c r="AFM22" s="161"/>
-      <c r="AFN22" s="161"/>
-      <c r="AFO22" s="161"/>
-      <c r="AFP22" s="161"/>
-      <c r="AFQ22" s="161"/>
-      <c r="AFR22" s="161"/>
-      <c r="AFS22" s="161"/>
-      <c r="AFT22" s="161"/>
-      <c r="AFU22" s="161"/>
-      <c r="AFV22" s="161"/>
-      <c r="AFW22" s="161"/>
-      <c r="AFX22" s="161"/>
-      <c r="AFY22" s="161"/>
-      <c r="AFZ22" s="161"/>
-      <c r="AGA22" s="161"/>
-      <c r="AGB22" s="161"/>
-      <c r="AGC22" s="161"/>
-      <c r="AGD22" s="161"/>
-      <c r="AGE22" s="161"/>
-      <c r="AGF22" s="161"/>
-      <c r="AGG22" s="161"/>
-      <c r="AGH22" s="161"/>
-      <c r="AGI22" s="161"/>
-      <c r="AGJ22" s="161"/>
-      <c r="AGK22" s="161"/>
-      <c r="AGL22" s="161"/>
-      <c r="AGM22" s="161"/>
-      <c r="AGN22" s="161"/>
-      <c r="AGO22" s="161"/>
-      <c r="AGP22" s="161"/>
-      <c r="AGQ22" s="161"/>
-      <c r="AGR22" s="161"/>
-      <c r="AGS22" s="161"/>
-      <c r="AGT22" s="161"/>
-      <c r="AGU22" s="161"/>
-      <c r="AGV22" s="161"/>
-      <c r="AGW22" s="161"/>
-      <c r="AGX22" s="161"/>
-      <c r="AGY22" s="161"/>
-      <c r="AGZ22" s="161"/>
-      <c r="AHA22" s="161"/>
-      <c r="AHB22" s="161"/>
-      <c r="AHC22" s="161"/>
-      <c r="AHD22" s="161"/>
-      <c r="AHE22" s="161"/>
-      <c r="AHF22" s="161"/>
-      <c r="AHG22" s="161"/>
-      <c r="AHH22" s="161"/>
-      <c r="AHI22" s="161"/>
-      <c r="AHJ22" s="161"/>
-      <c r="AHK22" s="161"/>
-      <c r="AHL22" s="161"/>
-      <c r="AHM22" s="161"/>
-      <c r="AHN22" s="161"/>
-      <c r="AHO22" s="161"/>
-      <c r="AHP22" s="161"/>
-      <c r="AHQ22" s="161"/>
-      <c r="AHR22" s="161"/>
-      <c r="AHS22" s="161"/>
-      <c r="AHT22" s="161"/>
-      <c r="AHU22" s="161"/>
-      <c r="AHV22" s="161"/>
-      <c r="AHW22" s="161"/>
-      <c r="AHX22" s="161"/>
-      <c r="AHY22" s="161"/>
-      <c r="AHZ22" s="161"/>
-      <c r="AIA22" s="161"/>
-      <c r="AIB22" s="161"/>
-      <c r="AIC22" s="161"/>
-      <c r="AID22" s="161"/>
-      <c r="AIE22" s="161"/>
-      <c r="AIF22" s="161"/>
-      <c r="AIG22" s="161"/>
-      <c r="AIH22" s="161"/>
-      <c r="AII22" s="161"/>
-      <c r="AIJ22" s="161"/>
-      <c r="AIK22" s="161"/>
-      <c r="AIL22" s="161"/>
-      <c r="AIM22" s="161"/>
-      <c r="AIN22" s="161"/>
-      <c r="AIO22" s="161"/>
-      <c r="AIP22" s="161"/>
-      <c r="AIQ22" s="161"/>
-      <c r="AIR22" s="161"/>
-      <c r="AIS22" s="161"/>
-      <c r="AIT22" s="161"/>
-      <c r="AIU22" s="161"/>
-      <c r="AIV22" s="161"/>
-      <c r="AIW22" s="161"/>
-      <c r="AIX22" s="161"/>
-      <c r="AIY22" s="161"/>
-      <c r="AIZ22" s="161"/>
-      <c r="AJA22" s="161"/>
-      <c r="AJB22" s="161"/>
-      <c r="AJC22" s="161"/>
-      <c r="AJD22" s="161"/>
-      <c r="AJE22" s="161"/>
-      <c r="AJF22" s="161"/>
-      <c r="AJG22" s="161"/>
-      <c r="AJH22" s="161"/>
-      <c r="AJI22" s="161"/>
-      <c r="AJJ22" s="161"/>
-      <c r="AJK22" s="161"/>
-      <c r="AJL22" s="161"/>
-      <c r="AJM22" s="161"/>
-      <c r="AJN22" s="161"/>
-      <c r="AJO22" s="161"/>
-      <c r="AJP22" s="161"/>
-      <c r="AJQ22" s="161"/>
-      <c r="AJR22" s="161"/>
-      <c r="AJS22" s="161"/>
-      <c r="AJT22" s="161"/>
-      <c r="AJU22" s="161"/>
-      <c r="AJV22" s="161"/>
-      <c r="AJW22" s="161"/>
-      <c r="AJX22" s="161"/>
-      <c r="AJY22" s="161"/>
-      <c r="AJZ22" s="161"/>
-      <c r="AKA22" s="161"/>
-      <c r="AKB22" s="161"/>
-      <c r="AKC22" s="161"/>
-      <c r="AKD22" s="161"/>
-      <c r="AKE22" s="161"/>
-      <c r="AKF22" s="161"/>
-      <c r="AKG22" s="161"/>
-      <c r="AKH22" s="161"/>
-      <c r="AKI22" s="161"/>
-      <c r="AKJ22" s="161"/>
-      <c r="AKK22" s="161"/>
-      <c r="AKL22" s="161"/>
-      <c r="AKM22" s="161"/>
-      <c r="AKN22" s="161"/>
-      <c r="AKO22" s="161"/>
-      <c r="AKP22" s="161"/>
-      <c r="AKQ22" s="161"/>
-      <c r="AKR22" s="161"/>
-      <c r="AKS22" s="161"/>
-      <c r="AKT22" s="161"/>
-      <c r="AKU22" s="161"/>
-      <c r="AKV22" s="161"/>
-      <c r="AKW22" s="161"/>
-      <c r="AKX22" s="161"/>
-      <c r="AKY22" s="161"/>
-      <c r="AKZ22" s="161"/>
-      <c r="ALA22" s="161"/>
-      <c r="ALB22" s="161"/>
-      <c r="ALC22" s="161"/>
-      <c r="ALD22" s="161"/>
-      <c r="ALE22" s="161"/>
-      <c r="ALF22" s="161"/>
-      <c r="ALG22" s="161"/>
-      <c r="ALH22" s="161"/>
-      <c r="ALI22" s="161"/>
-      <c r="ALJ22" s="161"/>
-      <c r="ALK22" s="161"/>
-      <c r="ALL22" s="161"/>
-      <c r="ALM22" s="161"/>
-      <c r="ALN22" s="161"/>
-      <c r="ALO22" s="161"/>
-      <c r="ALP22" s="161"/>
-      <c r="ALQ22" s="161"/>
-      <c r="ALR22" s="161"/>
-      <c r="ALS22" s="161"/>
-      <c r="ALT22" s="161"/>
-      <c r="ALU22" s="161"/>
-      <c r="ALV22" s="161"/>
-      <c r="ALW22" s="161"/>
-      <c r="ALX22" s="161"/>
-      <c r="ALY22" s="161"/>
-      <c r="ALZ22" s="161"/>
-      <c r="AMA22" s="161"/>
-      <c r="AMB22" s="161"/>
-      <c r="AMC22" s="161"/>
-      <c r="AMD22" s="161"/>
-      <c r="AME22" s="161"/>
-      <c r="AMF22" s="161"/>
-      <c r="AMG22" s="161"/>
-      <c r="AMH22" s="161"/>
-      <c r="AMI22" s="161"/>
-      <c r="AMJ22" s="161"/>
-      <c r="AMK22" s="161"/>
-    </row>
-    <row r="23" spans="1:1025" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="133"/>
+      <c r="AI22" s="133"/>
+      <c r="AJ22" s="133"/>
+      <c r="AK22" s="133"/>
+      <c r="AL22" s="133"/>
+      <c r="AM22" s="133"/>
+      <c r="AN22" s="133"/>
+      <c r="AO22" s="133"/>
+      <c r="AP22" s="133"/>
+      <c r="AQ22" s="133"/>
+      <c r="AR22" s="133"/>
+      <c r="AS22" s="133"/>
+      <c r="AT22" s="133"/>
+      <c r="AU22" s="133"/>
+      <c r="AV22" s="133"/>
+      <c r="AW22" s="133"/>
+      <c r="AX22" s="133"/>
+      <c r="AY22" s="133"/>
+      <c r="AZ22" s="133"/>
+      <c r="BA22" s="133"/>
+      <c r="BB22" s="133"/>
+      <c r="BC22" s="133"/>
+      <c r="BD22" s="133"/>
+      <c r="BE22" s="133"/>
+      <c r="BF22" s="133"/>
+      <c r="BG22" s="133"/>
+      <c r="BH22" s="133"/>
+      <c r="BI22" s="133"/>
+      <c r="BJ22" s="133"/>
+      <c r="BK22" s="133"/>
+      <c r="BL22" s="133"/>
+      <c r="BM22" s="133"/>
+      <c r="BN22" s="133"/>
+      <c r="BO22" s="133"/>
+      <c r="BP22" s="133"/>
+      <c r="BQ22" s="133"/>
+      <c r="BR22" s="133"/>
+      <c r="BS22" s="133"/>
+      <c r="BT22" s="133"/>
+      <c r="BU22" s="133"/>
+      <c r="BV22" s="133"/>
+      <c r="BW22" s="133"/>
+      <c r="BX22" s="133"/>
+      <c r="BY22" s="133"/>
+      <c r="BZ22" s="133"/>
+      <c r="CA22" s="133"/>
+      <c r="CB22" s="133"/>
+      <c r="CC22" s="133"/>
+      <c r="CD22" s="133"/>
+      <c r="CE22" s="133"/>
+      <c r="CF22" s="133"/>
+      <c r="CG22" s="133"/>
+      <c r="CH22" s="133"/>
+      <c r="CI22" s="133"/>
+      <c r="CJ22" s="133"/>
+      <c r="CK22" s="133"/>
+      <c r="CL22" s="133"/>
+      <c r="CM22" s="133"/>
+      <c r="CN22" s="133"/>
+      <c r="CO22" s="133"/>
+      <c r="CP22" s="133"/>
+      <c r="CQ22" s="133"/>
+      <c r="CR22" s="133"/>
+      <c r="CS22" s="133"/>
+      <c r="CT22" s="133"/>
+      <c r="CU22" s="133"/>
+      <c r="CV22" s="133"/>
+      <c r="CW22" s="133"/>
+      <c r="CX22" s="133"/>
+      <c r="CY22" s="133"/>
+      <c r="CZ22" s="133"/>
+      <c r="DA22" s="133"/>
+      <c r="DB22" s="133"/>
+      <c r="DC22" s="133"/>
+      <c r="DD22" s="133"/>
+      <c r="DE22" s="133"/>
+      <c r="DF22" s="133"/>
+      <c r="DG22" s="133"/>
+      <c r="DH22" s="133"/>
+      <c r="DI22" s="133"/>
+      <c r="DJ22" s="133"/>
+      <c r="DK22" s="133"/>
+      <c r="DL22" s="133"/>
+      <c r="DM22" s="133"/>
+      <c r="DN22" s="133"/>
+      <c r="DO22" s="133"/>
+      <c r="DP22" s="133"/>
+      <c r="DQ22" s="133"/>
+      <c r="DR22" s="133"/>
+      <c r="DS22" s="133"/>
+      <c r="DT22" s="133"/>
+      <c r="DU22" s="133"/>
+      <c r="DV22" s="133"/>
+      <c r="DW22" s="133"/>
+      <c r="DX22" s="133"/>
+      <c r="DY22" s="133"/>
+      <c r="DZ22" s="133"/>
+      <c r="EA22" s="133"/>
+      <c r="EB22" s="133"/>
+      <c r="EC22" s="133"/>
+      <c r="ED22" s="133"/>
+      <c r="EE22" s="133"/>
+      <c r="EF22" s="133"/>
+      <c r="EG22" s="133"/>
+      <c r="EH22" s="133"/>
+      <c r="EI22" s="133"/>
+      <c r="EJ22" s="133"/>
+      <c r="EK22" s="133"/>
+      <c r="EL22" s="133"/>
+      <c r="EM22" s="133"/>
+      <c r="EN22" s="133"/>
+      <c r="EO22" s="133"/>
+      <c r="EP22" s="133"/>
+      <c r="EQ22" s="133"/>
+      <c r="ER22" s="133"/>
+      <c r="ES22" s="133"/>
+      <c r="ET22" s="133"/>
+      <c r="EU22" s="133"/>
+      <c r="EV22" s="133"/>
+      <c r="EW22" s="133"/>
+      <c r="EX22" s="133"/>
+      <c r="EY22" s="133"/>
+      <c r="EZ22" s="133"/>
+      <c r="FA22" s="133"/>
+      <c r="FB22" s="133"/>
+      <c r="FC22" s="133"/>
+      <c r="FD22" s="133"/>
+      <c r="FE22" s="133"/>
+      <c r="FF22" s="133"/>
+      <c r="FG22" s="133"/>
+      <c r="FH22" s="133"/>
+      <c r="FI22" s="133"/>
+      <c r="FJ22" s="133"/>
+      <c r="FK22" s="133"/>
+      <c r="FL22" s="133"/>
+      <c r="FM22" s="133"/>
+      <c r="FN22" s="133"/>
+      <c r="FO22" s="133"/>
+      <c r="FP22" s="133"/>
+      <c r="FQ22" s="133"/>
+      <c r="FR22" s="133"/>
+      <c r="FS22" s="133"/>
+      <c r="FT22" s="133"/>
+      <c r="FU22" s="133"/>
+      <c r="FV22" s="133"/>
+      <c r="FW22" s="133"/>
+      <c r="FX22" s="133"/>
+      <c r="FY22" s="133"/>
+      <c r="FZ22" s="133"/>
+      <c r="GA22" s="133"/>
+      <c r="GB22" s="133"/>
+      <c r="GC22" s="133"/>
+      <c r="GD22" s="133"/>
+      <c r="GE22" s="133"/>
+      <c r="GF22" s="133"/>
+      <c r="GG22" s="133"/>
+      <c r="GH22" s="133"/>
+      <c r="GI22" s="133"/>
+      <c r="GJ22" s="133"/>
+      <c r="GK22" s="133"/>
+      <c r="GL22" s="133"/>
+      <c r="GM22" s="133"/>
+      <c r="GN22" s="133"/>
+      <c r="GO22" s="133"/>
+      <c r="GP22" s="133"/>
+      <c r="GQ22" s="133"/>
+      <c r="GR22" s="133"/>
+      <c r="GS22" s="133"/>
+      <c r="GT22" s="133"/>
+      <c r="GU22" s="133"/>
+      <c r="GV22" s="133"/>
+      <c r="GW22" s="133"/>
+      <c r="GX22" s="133"/>
+      <c r="GY22" s="133"/>
+      <c r="GZ22" s="133"/>
+      <c r="HA22" s="133"/>
+      <c r="HB22" s="133"/>
+      <c r="HC22" s="133"/>
+      <c r="HD22" s="133"/>
+      <c r="HE22" s="133"/>
+      <c r="HF22" s="133"/>
+      <c r="HG22" s="133"/>
+      <c r="HH22" s="133"/>
+      <c r="HI22" s="133"/>
+      <c r="HJ22" s="133"/>
+      <c r="HK22" s="133"/>
+      <c r="HL22" s="133"/>
+      <c r="HM22" s="133"/>
+      <c r="HN22" s="133"/>
+      <c r="HO22" s="133"/>
+      <c r="HP22" s="133"/>
+      <c r="HQ22" s="133"/>
+      <c r="HR22" s="133"/>
+      <c r="HS22" s="133"/>
+      <c r="HT22" s="133"/>
+      <c r="HU22" s="133"/>
+      <c r="HV22" s="133"/>
+      <c r="HW22" s="133"/>
+      <c r="HX22" s="133"/>
+      <c r="HY22" s="133"/>
+      <c r="HZ22" s="133"/>
+      <c r="IA22" s="133"/>
+      <c r="IB22" s="133"/>
+      <c r="IC22" s="133"/>
+      <c r="ID22" s="133"/>
+      <c r="IE22" s="133"/>
+      <c r="IF22" s="133"/>
+      <c r="IG22" s="133"/>
+      <c r="IH22" s="133"/>
+      <c r="II22" s="133"/>
+      <c r="IJ22" s="133"/>
+      <c r="IK22" s="133"/>
+      <c r="IL22" s="133"/>
+      <c r="IM22" s="133"/>
+      <c r="IN22" s="133"/>
+      <c r="IO22" s="133"/>
+      <c r="IP22" s="133"/>
+      <c r="IQ22" s="133"/>
+      <c r="IR22" s="133"/>
+      <c r="IS22" s="133"/>
+      <c r="IT22" s="133"/>
+      <c r="IU22" s="133"/>
+      <c r="IV22" s="133"/>
+      <c r="IW22" s="133"/>
+      <c r="IX22" s="133"/>
+      <c r="IY22" s="133"/>
+      <c r="IZ22" s="133"/>
+      <c r="JA22" s="133"/>
+      <c r="JB22" s="133"/>
+      <c r="JC22" s="133"/>
+      <c r="JD22" s="133"/>
+      <c r="JE22" s="133"/>
+      <c r="JF22" s="133"/>
+      <c r="JG22" s="133"/>
+      <c r="JH22" s="133"/>
+      <c r="JI22" s="133"/>
+      <c r="JJ22" s="133"/>
+      <c r="JK22" s="133"/>
+      <c r="JL22" s="133"/>
+      <c r="JM22" s="133"/>
+      <c r="JN22" s="133"/>
+      <c r="JO22" s="133"/>
+      <c r="JP22" s="133"/>
+      <c r="JQ22" s="133"/>
+      <c r="JR22" s="133"/>
+      <c r="JS22" s="133"/>
+      <c r="JT22" s="133"/>
+      <c r="JU22" s="133"/>
+      <c r="JV22" s="133"/>
+      <c r="JW22" s="133"/>
+      <c r="JX22" s="133"/>
+      <c r="JY22" s="133"/>
+      <c r="JZ22" s="133"/>
+      <c r="KA22" s="133"/>
+      <c r="KB22" s="133"/>
+      <c r="KC22" s="133"/>
+      <c r="KD22" s="133"/>
+      <c r="KE22" s="133"/>
+      <c r="KF22" s="133"/>
+      <c r="KG22" s="133"/>
+      <c r="KH22" s="133"/>
+      <c r="KI22" s="133"/>
+      <c r="KJ22" s="133"/>
+      <c r="KK22" s="133"/>
+      <c r="KL22" s="133"/>
+      <c r="KM22" s="133"/>
+      <c r="KN22" s="133"/>
+      <c r="KO22" s="133"/>
+      <c r="KP22" s="133"/>
+      <c r="KQ22" s="133"/>
+      <c r="KR22" s="133"/>
+      <c r="KS22" s="133"/>
+      <c r="KT22" s="133"/>
+      <c r="KU22" s="133"/>
+      <c r="KV22" s="133"/>
+      <c r="KW22" s="133"/>
+      <c r="KX22" s="133"/>
+      <c r="KY22" s="133"/>
+      <c r="KZ22" s="133"/>
+      <c r="LA22" s="133"/>
+      <c r="LB22" s="133"/>
+      <c r="LC22" s="133"/>
+      <c r="LD22" s="133"/>
+      <c r="LE22" s="133"/>
+      <c r="LF22" s="133"/>
+      <c r="LG22" s="133"/>
+      <c r="LH22" s="133"/>
+      <c r="LI22" s="133"/>
+      <c r="LJ22" s="133"/>
+      <c r="LK22" s="133"/>
+      <c r="LL22" s="133"/>
+      <c r="LM22" s="133"/>
+      <c r="LN22" s="133"/>
+      <c r="LO22" s="133"/>
+      <c r="LP22" s="133"/>
+      <c r="LQ22" s="133"/>
+      <c r="LR22" s="133"/>
+      <c r="LS22" s="133"/>
+      <c r="LT22" s="133"/>
+      <c r="LU22" s="133"/>
+      <c r="LV22" s="133"/>
+      <c r="LW22" s="133"/>
+      <c r="LX22" s="133"/>
+      <c r="LY22" s="133"/>
+      <c r="LZ22" s="133"/>
+      <c r="MA22" s="133"/>
+      <c r="MB22" s="133"/>
+      <c r="MC22" s="133"/>
+      <c r="MD22" s="133"/>
+      <c r="ME22" s="133"/>
+      <c r="MF22" s="133"/>
+      <c r="MG22" s="133"/>
+      <c r="MH22" s="133"/>
+      <c r="MI22" s="133"/>
+      <c r="MJ22" s="133"/>
+      <c r="MK22" s="133"/>
+      <c r="ML22" s="133"/>
+      <c r="MM22" s="133"/>
+      <c r="MN22" s="133"/>
+      <c r="MO22" s="133"/>
+      <c r="MP22" s="133"/>
+      <c r="MQ22" s="133"/>
+      <c r="MR22" s="133"/>
+      <c r="MS22" s="133"/>
+      <c r="MT22" s="133"/>
+      <c r="MU22" s="133"/>
+      <c r="MV22" s="133"/>
+      <c r="MW22" s="133"/>
+      <c r="MX22" s="133"/>
+      <c r="MY22" s="133"/>
+      <c r="MZ22" s="133"/>
+      <c r="NA22" s="133"/>
+      <c r="NB22" s="133"/>
+      <c r="NC22" s="133"/>
+      <c r="ND22" s="133"/>
+      <c r="NE22" s="133"/>
+      <c r="NF22" s="133"/>
+      <c r="NG22" s="133"/>
+      <c r="NH22" s="133"/>
+      <c r="NI22" s="133"/>
+      <c r="NJ22" s="133"/>
+      <c r="NK22" s="133"/>
+      <c r="NL22" s="133"/>
+      <c r="NM22" s="133"/>
+      <c r="NN22" s="133"/>
+      <c r="NO22" s="133"/>
+      <c r="NP22" s="133"/>
+      <c r="NQ22" s="133"/>
+      <c r="NR22" s="133"/>
+      <c r="NS22" s="133"/>
+      <c r="NT22" s="133"/>
+      <c r="NU22" s="133"/>
+      <c r="NV22" s="133"/>
+      <c r="NW22" s="133"/>
+      <c r="NX22" s="133"/>
+      <c r="NY22" s="133"/>
+      <c r="NZ22" s="133"/>
+      <c r="OA22" s="133"/>
+      <c r="OB22" s="133"/>
+      <c r="OC22" s="133"/>
+      <c r="OD22" s="133"/>
+      <c r="OE22" s="133"/>
+      <c r="OF22" s="133"/>
+      <c r="OG22" s="133"/>
+      <c r="OH22" s="133"/>
+      <c r="OI22" s="133"/>
+      <c r="OJ22" s="133"/>
+      <c r="OK22" s="133"/>
+      <c r="OL22" s="133"/>
+      <c r="OM22" s="133"/>
+      <c r="ON22" s="133"/>
+      <c r="OO22" s="133"/>
+      <c r="OP22" s="133"/>
+      <c r="OQ22" s="133"/>
+      <c r="OR22" s="133"/>
+      <c r="OS22" s="133"/>
+      <c r="OT22" s="133"/>
+      <c r="OU22" s="133"/>
+      <c r="OV22" s="133"/>
+      <c r="OW22" s="133"/>
+      <c r="OX22" s="133"/>
+      <c r="OY22" s="133"/>
+      <c r="OZ22" s="133"/>
+      <c r="PA22" s="133"/>
+      <c r="PB22" s="133"/>
+      <c r="PC22" s="133"/>
+      <c r="PD22" s="133"/>
+      <c r="PE22" s="133"/>
+      <c r="PF22" s="133"/>
+      <c r="PG22" s="133"/>
+      <c r="PH22" s="133"/>
+      <c r="PI22" s="133"/>
+      <c r="PJ22" s="133"/>
+      <c r="PK22" s="133"/>
+      <c r="PL22" s="133"/>
+      <c r="PM22" s="133"/>
+      <c r="PN22" s="133"/>
+      <c r="PO22" s="133"/>
+      <c r="PP22" s="133"/>
+      <c r="PQ22" s="133"/>
+      <c r="PR22" s="133"/>
+      <c r="PS22" s="133"/>
+      <c r="PT22" s="133"/>
+      <c r="PU22" s="133"/>
+      <c r="PV22" s="133"/>
+      <c r="PW22" s="133"/>
+      <c r="PX22" s="133"/>
+      <c r="PY22" s="133"/>
+      <c r="PZ22" s="133"/>
+      <c r="QA22" s="133"/>
+      <c r="QB22" s="133"/>
+      <c r="QC22" s="133"/>
+      <c r="QD22" s="133"/>
+      <c r="QE22" s="133"/>
+      <c r="QF22" s="133"/>
+      <c r="QG22" s="133"/>
+      <c r="QH22" s="133"/>
+      <c r="QI22" s="133"/>
+      <c r="QJ22" s="133"/>
+      <c r="QK22" s="133"/>
+      <c r="QL22" s="133"/>
+      <c r="QM22" s="133"/>
+      <c r="QN22" s="133"/>
+      <c r="QO22" s="133"/>
+      <c r="QP22" s="133"/>
+      <c r="QQ22" s="133"/>
+      <c r="QR22" s="133"/>
+      <c r="QS22" s="133"/>
+      <c r="QT22" s="133"/>
+      <c r="QU22" s="133"/>
+      <c r="QV22" s="133"/>
+      <c r="QW22" s="133"/>
+      <c r="QX22" s="133"/>
+      <c r="QY22" s="133"/>
+      <c r="QZ22" s="133"/>
+      <c r="RA22" s="133"/>
+      <c r="RB22" s="133"/>
+      <c r="RC22" s="133"/>
+      <c r="RD22" s="133"/>
+      <c r="RE22" s="133"/>
+      <c r="RF22" s="133"/>
+      <c r="RG22" s="133"/>
+      <c r="RH22" s="133"/>
+      <c r="RI22" s="133"/>
+      <c r="RJ22" s="133"/>
+      <c r="RK22" s="133"/>
+      <c r="RL22" s="133"/>
+      <c r="RM22" s="133"/>
+      <c r="RN22" s="133"/>
+      <c r="RO22" s="133"/>
+      <c r="RP22" s="133"/>
+      <c r="RQ22" s="133"/>
+      <c r="RR22" s="133"/>
+      <c r="RS22" s="133"/>
+      <c r="RT22" s="133"/>
+      <c r="RU22" s="133"/>
+      <c r="RV22" s="133"/>
+      <c r="RW22" s="133"/>
+      <c r="RX22" s="133"/>
+      <c r="RY22" s="133"/>
+      <c r="RZ22" s="133"/>
+      <c r="SA22" s="133"/>
+      <c r="SB22" s="133"/>
+      <c r="SC22" s="133"/>
+      <c r="SD22" s="133"/>
+      <c r="SE22" s="133"/>
+      <c r="SF22" s="133"/>
+      <c r="SG22" s="133"/>
+      <c r="SH22" s="133"/>
+      <c r="SI22" s="133"/>
+      <c r="SJ22" s="133"/>
+      <c r="SK22" s="133"/>
+      <c r="SL22" s="133"/>
+      <c r="SM22" s="133"/>
+      <c r="SN22" s="133"/>
+      <c r="SO22" s="133"/>
+      <c r="SP22" s="133"/>
+      <c r="SQ22" s="133"/>
+      <c r="SR22" s="133"/>
+      <c r="SS22" s="133"/>
+      <c r="ST22" s="133"/>
+      <c r="SU22" s="133"/>
+      <c r="SV22" s="133"/>
+      <c r="SW22" s="133"/>
+      <c r="SX22" s="133"/>
+      <c r="SY22" s="133"/>
+      <c r="SZ22" s="133"/>
+      <c r="TA22" s="133"/>
+      <c r="TB22" s="133"/>
+      <c r="TC22" s="133"/>
+      <c r="TD22" s="133"/>
+      <c r="TE22" s="133"/>
+      <c r="TF22" s="133"/>
+      <c r="TG22" s="133"/>
+      <c r="TH22" s="133"/>
+      <c r="TI22" s="133"/>
+      <c r="TJ22" s="133"/>
+      <c r="TK22" s="133"/>
+      <c r="TL22" s="133"/>
+      <c r="TM22" s="133"/>
+      <c r="TN22" s="133"/>
+      <c r="TO22" s="133"/>
+      <c r="TP22" s="133"/>
+      <c r="TQ22" s="133"/>
+      <c r="TR22" s="133"/>
+      <c r="TS22" s="133"/>
+      <c r="TT22" s="133"/>
+      <c r="TU22" s="133"/>
+      <c r="TV22" s="133"/>
+      <c r="TW22" s="133"/>
+      <c r="TX22" s="133"/>
+      <c r="TY22" s="133"/>
+      <c r="TZ22" s="133"/>
+      <c r="UA22" s="133"/>
+      <c r="UB22" s="133"/>
+      <c r="UC22" s="133"/>
+      <c r="UD22" s="133"/>
+      <c r="UE22" s="133"/>
+      <c r="UF22" s="133"/>
+      <c r="UG22" s="133"/>
+      <c r="UH22" s="133"/>
+      <c r="UI22" s="133"/>
+      <c r="UJ22" s="133"/>
+      <c r="UK22" s="133"/>
+      <c r="UL22" s="133"/>
+      <c r="UM22" s="133"/>
+      <c r="UN22" s="133"/>
+      <c r="UO22" s="133"/>
+      <c r="UP22" s="133"/>
+      <c r="UQ22" s="133"/>
+      <c r="UR22" s="133"/>
+      <c r="US22" s="133"/>
+      <c r="UT22" s="133"/>
+      <c r="UU22" s="133"/>
+      <c r="UV22" s="133"/>
+      <c r="UW22" s="133"/>
+      <c r="UX22" s="133"/>
+      <c r="UY22" s="133"/>
+      <c r="UZ22" s="133"/>
+      <c r="VA22" s="133"/>
+      <c r="VB22" s="133"/>
+      <c r="VC22" s="133"/>
+      <c r="VD22" s="133"/>
+      <c r="VE22" s="133"/>
+      <c r="VF22" s="133"/>
+      <c r="VG22" s="133"/>
+      <c r="VH22" s="133"/>
+      <c r="VI22" s="133"/>
+      <c r="VJ22" s="133"/>
+      <c r="VK22" s="133"/>
+      <c r="VL22" s="133"/>
+      <c r="VM22" s="133"/>
+      <c r="VN22" s="133"/>
+      <c r="VO22" s="133"/>
+      <c r="VP22" s="133"/>
+      <c r="VQ22" s="133"/>
+      <c r="VR22" s="133"/>
+      <c r="VS22" s="133"/>
+      <c r="VT22" s="133"/>
+      <c r="VU22" s="133"/>
+      <c r="VV22" s="133"/>
+      <c r="VW22" s="133"/>
+      <c r="VX22" s="133"/>
+      <c r="VY22" s="133"/>
+      <c r="VZ22" s="133"/>
+      <c r="WA22" s="133"/>
+      <c r="WB22" s="133"/>
+      <c r="WC22" s="133"/>
+      <c r="WD22" s="133"/>
+      <c r="WE22" s="133"/>
+      <c r="WF22" s="133"/>
+      <c r="WG22" s="133"/>
+      <c r="WH22" s="133"/>
+      <c r="WI22" s="133"/>
+      <c r="WJ22" s="133"/>
+      <c r="WK22" s="133"/>
+      <c r="WL22" s="133"/>
+      <c r="WM22" s="133"/>
+      <c r="WN22" s="133"/>
+      <c r="WO22" s="133"/>
+      <c r="WP22" s="133"/>
+      <c r="WQ22" s="133"/>
+      <c r="WR22" s="133"/>
+      <c r="WS22" s="133"/>
+      <c r="WT22" s="133"/>
+      <c r="WU22" s="133"/>
+      <c r="WV22" s="133"/>
+      <c r="WW22" s="133"/>
+      <c r="WX22" s="133"/>
+      <c r="WY22" s="133"/>
+      <c r="WZ22" s="133"/>
+      <c r="XA22" s="133"/>
+      <c r="XB22" s="133"/>
+      <c r="XC22" s="133"/>
+      <c r="XD22" s="133"/>
+      <c r="XE22" s="133"/>
+      <c r="XF22" s="133"/>
+      <c r="XG22" s="133"/>
+      <c r="XH22" s="133"/>
+      <c r="XI22" s="133"/>
+      <c r="XJ22" s="133"/>
+      <c r="XK22" s="133"/>
+      <c r="XL22" s="133"/>
+      <c r="XM22" s="133"/>
+      <c r="XN22" s="133"/>
+      <c r="XO22" s="133"/>
+      <c r="XP22" s="133"/>
+      <c r="XQ22" s="133"/>
+      <c r="XR22" s="133"/>
+      <c r="XS22" s="133"/>
+      <c r="XT22" s="133"/>
+      <c r="XU22" s="133"/>
+      <c r="XV22" s="133"/>
+      <c r="XW22" s="133"/>
+      <c r="XX22" s="133"/>
+      <c r="XY22" s="133"/>
+      <c r="XZ22" s="133"/>
+      <c r="YA22" s="133"/>
+      <c r="YB22" s="133"/>
+      <c r="YC22" s="133"/>
+      <c r="YD22" s="133"/>
+      <c r="YE22" s="133"/>
+      <c r="YF22" s="133"/>
+      <c r="YG22" s="133"/>
+      <c r="YH22" s="133"/>
+      <c r="YI22" s="133"/>
+      <c r="YJ22" s="133"/>
+      <c r="YK22" s="133"/>
+      <c r="YL22" s="133"/>
+      <c r="YM22" s="133"/>
+      <c r="YN22" s="133"/>
+      <c r="YO22" s="133"/>
+      <c r="YP22" s="133"/>
+      <c r="YQ22" s="133"/>
+      <c r="YR22" s="133"/>
+      <c r="YS22" s="133"/>
+      <c r="YT22" s="133"/>
+      <c r="YU22" s="133"/>
+      <c r="YV22" s="133"/>
+      <c r="YW22" s="133"/>
+      <c r="YX22" s="133"/>
+      <c r="YY22" s="133"/>
+      <c r="YZ22" s="133"/>
+      <c r="ZA22" s="133"/>
+      <c r="ZB22" s="133"/>
+      <c r="ZC22" s="133"/>
+      <c r="ZD22" s="133"/>
+      <c r="ZE22" s="133"/>
+      <c r="ZF22" s="133"/>
+      <c r="ZG22" s="133"/>
+      <c r="ZH22" s="133"/>
+      <c r="ZI22" s="133"/>
+      <c r="ZJ22" s="133"/>
+      <c r="ZK22" s="133"/>
+      <c r="ZL22" s="133"/>
+      <c r="ZM22" s="133"/>
+      <c r="ZN22" s="133"/>
+      <c r="ZO22" s="133"/>
+      <c r="ZP22" s="133"/>
+      <c r="ZQ22" s="133"/>
+      <c r="ZR22" s="133"/>
+      <c r="ZS22" s="133"/>
+      <c r="ZT22" s="133"/>
+      <c r="ZU22" s="133"/>
+      <c r="ZV22" s="133"/>
+      <c r="ZW22" s="133"/>
+      <c r="ZX22" s="133"/>
+      <c r="ZY22" s="133"/>
+      <c r="ZZ22" s="133"/>
+      <c r="AAA22" s="133"/>
+      <c r="AAB22" s="133"/>
+      <c r="AAC22" s="133"/>
+      <c r="AAD22" s="133"/>
+      <c r="AAE22" s="133"/>
+      <c r="AAF22" s="133"/>
+      <c r="AAG22" s="133"/>
+      <c r="AAH22" s="133"/>
+      <c r="AAI22" s="133"/>
+      <c r="AAJ22" s="133"/>
+      <c r="AAK22" s="133"/>
+      <c r="AAL22" s="133"/>
+      <c r="AAM22" s="133"/>
+      <c r="AAN22" s="133"/>
+      <c r="AAO22" s="133"/>
+      <c r="AAP22" s="133"/>
+      <c r="AAQ22" s="133"/>
+      <c r="AAR22" s="133"/>
+      <c r="AAS22" s="133"/>
+      <c r="AAT22" s="133"/>
+      <c r="AAU22" s="133"/>
+      <c r="AAV22" s="133"/>
+      <c r="AAW22" s="133"/>
+      <c r="AAX22" s="133"/>
+      <c r="AAY22" s="133"/>
+      <c r="AAZ22" s="133"/>
+      <c r="ABA22" s="133"/>
+      <c r="ABB22" s="133"/>
+      <c r="ABC22" s="133"/>
+      <c r="ABD22" s="133"/>
+      <c r="ABE22" s="133"/>
+      <c r="ABF22" s="133"/>
+      <c r="ABG22" s="133"/>
+      <c r="ABH22" s="133"/>
+      <c r="ABI22" s="133"/>
+      <c r="ABJ22" s="133"/>
+      <c r="ABK22" s="133"/>
+      <c r="ABL22" s="133"/>
+      <c r="ABM22" s="133"/>
+      <c r="ABN22" s="133"/>
+      <c r="ABO22" s="133"/>
+      <c r="ABP22" s="133"/>
+      <c r="ABQ22" s="133"/>
+      <c r="ABR22" s="133"/>
+      <c r="ABS22" s="133"/>
+      <c r="ABT22" s="133"/>
+      <c r="ABU22" s="133"/>
+      <c r="ABV22" s="133"/>
+      <c r="ABW22" s="133"/>
+      <c r="ABX22" s="133"/>
+      <c r="ABY22" s="133"/>
+      <c r="ABZ22" s="133"/>
+      <c r="ACA22" s="133"/>
+      <c r="ACB22" s="133"/>
+      <c r="ACC22" s="133"/>
+      <c r="ACD22" s="133"/>
+      <c r="ACE22" s="133"/>
+      <c r="ACF22" s="133"/>
+      <c r="ACG22" s="133"/>
+      <c r="ACH22" s="133"/>
+      <c r="ACI22" s="133"/>
+      <c r="ACJ22" s="133"/>
+      <c r="ACK22" s="133"/>
+      <c r="ACL22" s="133"/>
+      <c r="ACM22" s="133"/>
+      <c r="ACN22" s="133"/>
+      <c r="ACO22" s="133"/>
+      <c r="ACP22" s="133"/>
+      <c r="ACQ22" s="133"/>
+      <c r="ACR22" s="133"/>
+      <c r="ACS22" s="133"/>
+      <c r="ACT22" s="133"/>
+      <c r="ACU22" s="133"/>
+      <c r="ACV22" s="133"/>
+      <c r="ACW22" s="133"/>
+      <c r="ACX22" s="133"/>
+      <c r="ACY22" s="133"/>
+      <c r="ACZ22" s="133"/>
+      <c r="ADA22" s="133"/>
+      <c r="ADB22" s="133"/>
+      <c r="ADC22" s="133"/>
+      <c r="ADD22" s="133"/>
+      <c r="ADE22" s="133"/>
+      <c r="ADF22" s="133"/>
+      <c r="ADG22" s="133"/>
+      <c r="ADH22" s="133"/>
+      <c r="ADI22" s="133"/>
+      <c r="ADJ22" s="133"/>
+      <c r="ADK22" s="133"/>
+      <c r="ADL22" s="133"/>
+      <c r="ADM22" s="133"/>
+      <c r="ADN22" s="133"/>
+      <c r="ADO22" s="133"/>
+      <c r="ADP22" s="133"/>
+      <c r="ADQ22" s="133"/>
+      <c r="ADR22" s="133"/>
+      <c r="ADS22" s="133"/>
+      <c r="ADT22" s="133"/>
+      <c r="ADU22" s="133"/>
+      <c r="ADV22" s="133"/>
+      <c r="ADW22" s="133"/>
+      <c r="ADX22" s="133"/>
+      <c r="ADY22" s="133"/>
+      <c r="ADZ22" s="133"/>
+      <c r="AEA22" s="133"/>
+      <c r="AEB22" s="133"/>
+      <c r="AEC22" s="133"/>
+      <c r="AED22" s="133"/>
+      <c r="AEE22" s="133"/>
+      <c r="AEF22" s="133"/>
+      <c r="AEG22" s="133"/>
+      <c r="AEH22" s="133"/>
+      <c r="AEI22" s="133"/>
+      <c r="AEJ22" s="133"/>
+      <c r="AEK22" s="133"/>
+      <c r="AEL22" s="133"/>
+      <c r="AEM22" s="133"/>
+      <c r="AEN22" s="133"/>
+      <c r="AEO22" s="133"/>
+      <c r="AEP22" s="133"/>
+      <c r="AEQ22" s="133"/>
+      <c r="AER22" s="133"/>
+      <c r="AES22" s="133"/>
+      <c r="AET22" s="133"/>
+      <c r="AEU22" s="133"/>
+      <c r="AEV22" s="133"/>
+      <c r="AEW22" s="133"/>
+      <c r="AEX22" s="133"/>
+      <c r="AEY22" s="133"/>
+      <c r="AEZ22" s="133"/>
+      <c r="AFA22" s="133"/>
+      <c r="AFB22" s="133"/>
+      <c r="AFC22" s="133"/>
+      <c r="AFD22" s="133"/>
+      <c r="AFE22" s="133"/>
+      <c r="AFF22" s="133"/>
+      <c r="AFG22" s="133"/>
+      <c r="AFH22" s="133"/>
+      <c r="AFI22" s="133"/>
+      <c r="AFJ22" s="133"/>
+      <c r="AFK22" s="133"/>
+      <c r="AFL22" s="133"/>
+      <c r="AFM22" s="133"/>
+      <c r="AFN22" s="133"/>
+      <c r="AFO22" s="133"/>
+      <c r="AFP22" s="133"/>
+      <c r="AFQ22" s="133"/>
+      <c r="AFR22" s="133"/>
+      <c r="AFS22" s="133"/>
+      <c r="AFT22" s="133"/>
+      <c r="AFU22" s="133"/>
+      <c r="AFV22" s="133"/>
+      <c r="AFW22" s="133"/>
+      <c r="AFX22" s="133"/>
+      <c r="AFY22" s="133"/>
+      <c r="AFZ22" s="133"/>
+      <c r="AGA22" s="133"/>
+      <c r="AGB22" s="133"/>
+      <c r="AGC22" s="133"/>
+      <c r="AGD22" s="133"/>
+      <c r="AGE22" s="133"/>
+      <c r="AGF22" s="133"/>
+      <c r="AGG22" s="133"/>
+      <c r="AGH22" s="133"/>
+      <c r="AGI22" s="133"/>
+      <c r="AGJ22" s="133"/>
+      <c r="AGK22" s="133"/>
+      <c r="AGL22" s="133"/>
+      <c r="AGM22" s="133"/>
+      <c r="AGN22" s="133"/>
+      <c r="AGO22" s="133"/>
+      <c r="AGP22" s="133"/>
+      <c r="AGQ22" s="133"/>
+      <c r="AGR22" s="133"/>
+      <c r="AGS22" s="133"/>
+      <c r="AGT22" s="133"/>
+      <c r="AGU22" s="133"/>
+      <c r="AGV22" s="133"/>
+      <c r="AGW22" s="133"/>
+      <c r="AGX22" s="133"/>
+      <c r="AGY22" s="133"/>
+      <c r="AGZ22" s="133"/>
+      <c r="AHA22" s="133"/>
+      <c r="AHB22" s="133"/>
+      <c r="AHC22" s="133"/>
+      <c r="AHD22" s="133"/>
+      <c r="AHE22" s="133"/>
+      <c r="AHF22" s="133"/>
+      <c r="AHG22" s="133"/>
+      <c r="AHH22" s="133"/>
+      <c r="AHI22" s="133"/>
+      <c r="AHJ22" s="133"/>
+      <c r="AHK22" s="133"/>
+      <c r="AHL22" s="133"/>
+      <c r="AHM22" s="133"/>
+      <c r="AHN22" s="133"/>
+      <c r="AHO22" s="133"/>
+      <c r="AHP22" s="133"/>
+      <c r="AHQ22" s="133"/>
+      <c r="AHR22" s="133"/>
+      <c r="AHS22" s="133"/>
+      <c r="AHT22" s="133"/>
+      <c r="AHU22" s="133"/>
+      <c r="AHV22" s="133"/>
+      <c r="AHW22" s="133"/>
+      <c r="AHX22" s="133"/>
+      <c r="AHY22" s="133"/>
+      <c r="AHZ22" s="133"/>
+      <c r="AIA22" s="133"/>
+      <c r="AIB22" s="133"/>
+      <c r="AIC22" s="133"/>
+      <c r="AID22" s="133"/>
+      <c r="AIE22" s="133"/>
+      <c r="AIF22" s="133"/>
+      <c r="AIG22" s="133"/>
+      <c r="AIH22" s="133"/>
+      <c r="AII22" s="133"/>
+      <c r="AIJ22" s="133"/>
+      <c r="AIK22" s="133"/>
+      <c r="AIL22" s="133"/>
+      <c r="AIM22" s="133"/>
+      <c r="AIN22" s="133"/>
+      <c r="AIO22" s="133"/>
+      <c r="AIP22" s="133"/>
+      <c r="AIQ22" s="133"/>
+      <c r="AIR22" s="133"/>
+      <c r="AIS22" s="133"/>
+      <c r="AIT22" s="133"/>
+      <c r="AIU22" s="133"/>
+      <c r="AIV22" s="133"/>
+      <c r="AIW22" s="133"/>
+      <c r="AIX22" s="133"/>
+      <c r="AIY22" s="133"/>
+      <c r="AIZ22" s="133"/>
+      <c r="AJA22" s="133"/>
+      <c r="AJB22" s="133"/>
+      <c r="AJC22" s="133"/>
+      <c r="AJD22" s="133"/>
+      <c r="AJE22" s="133"/>
+      <c r="AJF22" s="133"/>
+      <c r="AJG22" s="133"/>
+      <c r="AJH22" s="133"/>
+      <c r="AJI22" s="133"/>
+      <c r="AJJ22" s="133"/>
+      <c r="AJK22" s="133"/>
+      <c r="AJL22" s="133"/>
+      <c r="AJM22" s="133"/>
+      <c r="AJN22" s="133"/>
+      <c r="AJO22" s="133"/>
+      <c r="AJP22" s="133"/>
+      <c r="AJQ22" s="133"/>
+      <c r="AJR22" s="133"/>
+      <c r="AJS22" s="133"/>
+      <c r="AJT22" s="133"/>
+      <c r="AJU22" s="133"/>
+      <c r="AJV22" s="133"/>
+      <c r="AJW22" s="133"/>
+      <c r="AJX22" s="133"/>
+      <c r="AJY22" s="133"/>
+      <c r="AJZ22" s="133"/>
+      <c r="AKA22" s="133"/>
+      <c r="AKB22" s="133"/>
+      <c r="AKC22" s="133"/>
+      <c r="AKD22" s="133"/>
+      <c r="AKE22" s="133"/>
+      <c r="AKF22" s="133"/>
+      <c r="AKG22" s="133"/>
+      <c r="AKH22" s="133"/>
+      <c r="AKI22" s="133"/>
+      <c r="AKJ22" s="133"/>
+      <c r="AKK22" s="133"/>
+      <c r="AKL22" s="133"/>
+      <c r="AKM22" s="133"/>
+      <c r="AKN22" s="133"/>
+      <c r="AKO22" s="133"/>
+      <c r="AKP22" s="133"/>
+      <c r="AKQ22" s="133"/>
+      <c r="AKR22" s="133"/>
+      <c r="AKS22" s="133"/>
+      <c r="AKT22" s="133"/>
+      <c r="AKU22" s="133"/>
+      <c r="AKV22" s="133"/>
+      <c r="AKW22" s="133"/>
+      <c r="AKX22" s="133"/>
+      <c r="AKY22" s="133"/>
+      <c r="AKZ22" s="133"/>
+      <c r="ALA22" s="133"/>
+      <c r="ALB22" s="133"/>
+      <c r="ALC22" s="133"/>
+      <c r="ALD22" s="133"/>
+      <c r="ALE22" s="133"/>
+      <c r="ALF22" s="133"/>
+      <c r="ALG22" s="133"/>
+      <c r="ALH22" s="133"/>
+      <c r="ALI22" s="133"/>
+      <c r="ALJ22" s="133"/>
+      <c r="ALK22" s="133"/>
+      <c r="ALL22" s="133"/>
+      <c r="ALM22" s="133"/>
+      <c r="ALN22" s="133"/>
+      <c r="ALO22" s="133"/>
+      <c r="ALP22" s="133"/>
+      <c r="ALQ22" s="133"/>
+      <c r="ALR22" s="133"/>
+      <c r="ALS22" s="133"/>
+      <c r="ALT22" s="133"/>
+      <c r="ALU22" s="133"/>
+      <c r="ALV22" s="133"/>
+      <c r="ALW22" s="133"/>
+      <c r="ALX22" s="133"/>
+      <c r="ALY22" s="133"/>
+      <c r="ALZ22" s="133"/>
+      <c r="AMA22" s="133"/>
+      <c r="AMB22" s="133"/>
+      <c r="AMC22" s="133"/>
+      <c r="AMD22" s="133"/>
+      <c r="AME22" s="133"/>
+      <c r="AMF22" s="133"/>
+      <c r="AMG22" s="133"/>
+      <c r="AMH22" s="133"/>
+      <c r="AMI22" s="133"/>
+      <c r="AMJ22" s="133"/>
+      <c r="AMK22" s="133"/>
+    </row>
+    <row r="23" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="110" t="s">
         <v>215</v>
       </c>
@@ -14139,1031 +14139,1031 @@
       <c r="C23" s="126">
         <v>2</v>
       </c>
-      <c r="D23" s="159" t="str">
+      <c r="D23" s="131" t="str">
         <f t="shared" si="0"/>
         <v>Simples</v>
       </c>
-      <c r="E23" s="160" t="s">
+      <c r="E23" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="161"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="161"/>
-      <c r="AF23" s="161"/>
-      <c r="AG23" s="161"/>
-      <c r="AH23" s="161"/>
-      <c r="AI23" s="161"/>
-      <c r="AJ23" s="161"/>
-      <c r="AK23" s="161"/>
-      <c r="AL23" s="161"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="161"/>
-      <c r="AO23" s="161"/>
-      <c r="AP23" s="161"/>
-      <c r="AQ23" s="161"/>
-      <c r="AR23" s="161"/>
-      <c r="AS23" s="161"/>
-      <c r="AT23" s="161"/>
-      <c r="AU23" s="161"/>
-      <c r="AV23" s="161"/>
-      <c r="AW23" s="161"/>
-      <c r="AX23" s="161"/>
-      <c r="AY23" s="161"/>
-      <c r="AZ23" s="161"/>
-      <c r="BA23" s="161"/>
-      <c r="BB23" s="161"/>
-      <c r="BC23" s="161"/>
-      <c r="BD23" s="161"/>
-      <c r="BE23" s="161"/>
-      <c r="BF23" s="161"/>
-      <c r="BG23" s="161"/>
-      <c r="BH23" s="161"/>
-      <c r="BI23" s="161"/>
-      <c r="BJ23" s="161"/>
-      <c r="BK23" s="161"/>
-      <c r="BL23" s="161"/>
-      <c r="BM23" s="161"/>
-      <c r="BN23" s="161"/>
-      <c r="BO23" s="161"/>
-      <c r="BP23" s="161"/>
-      <c r="BQ23" s="161"/>
-      <c r="BR23" s="161"/>
-      <c r="BS23" s="161"/>
-      <c r="BT23" s="161"/>
-      <c r="BU23" s="161"/>
-      <c r="BV23" s="161"/>
-      <c r="BW23" s="161"/>
-      <c r="BX23" s="161"/>
-      <c r="BY23" s="161"/>
-      <c r="BZ23" s="161"/>
-      <c r="CA23" s="161"/>
-      <c r="CB23" s="161"/>
-      <c r="CC23" s="161"/>
-      <c r="CD23" s="161"/>
-      <c r="CE23" s="161"/>
-      <c r="CF23" s="161"/>
-      <c r="CG23" s="161"/>
-      <c r="CH23" s="161"/>
-      <c r="CI23" s="161"/>
-      <c r="CJ23" s="161"/>
-      <c r="CK23" s="161"/>
-      <c r="CL23" s="161"/>
-      <c r="CM23" s="161"/>
-      <c r="CN23" s="161"/>
-      <c r="CO23" s="161"/>
-      <c r="CP23" s="161"/>
-      <c r="CQ23" s="161"/>
-      <c r="CR23" s="161"/>
-      <c r="CS23" s="161"/>
-      <c r="CT23" s="161"/>
-      <c r="CU23" s="161"/>
-      <c r="CV23" s="161"/>
-      <c r="CW23" s="161"/>
-      <c r="CX23" s="161"/>
-      <c r="CY23" s="161"/>
-      <c r="CZ23" s="161"/>
-      <c r="DA23" s="161"/>
-      <c r="DB23" s="161"/>
-      <c r="DC23" s="161"/>
-      <c r="DD23" s="161"/>
-      <c r="DE23" s="161"/>
-      <c r="DF23" s="161"/>
-      <c r="DG23" s="161"/>
-      <c r="DH23" s="161"/>
-      <c r="DI23" s="161"/>
-      <c r="DJ23" s="161"/>
-      <c r="DK23" s="161"/>
-      <c r="DL23" s="161"/>
-      <c r="DM23" s="161"/>
-      <c r="DN23" s="161"/>
-      <c r="DO23" s="161"/>
-      <c r="DP23" s="161"/>
-      <c r="DQ23" s="161"/>
-      <c r="DR23" s="161"/>
-      <c r="DS23" s="161"/>
-      <c r="DT23" s="161"/>
-      <c r="DU23" s="161"/>
-      <c r="DV23" s="161"/>
-      <c r="DW23" s="161"/>
-      <c r="DX23" s="161"/>
-      <c r="DY23" s="161"/>
-      <c r="DZ23" s="161"/>
-      <c r="EA23" s="161"/>
-      <c r="EB23" s="161"/>
-      <c r="EC23" s="161"/>
-      <c r="ED23" s="161"/>
-      <c r="EE23" s="161"/>
-      <c r="EF23" s="161"/>
-      <c r="EG23" s="161"/>
-      <c r="EH23" s="161"/>
-      <c r="EI23" s="161"/>
-      <c r="EJ23" s="161"/>
-      <c r="EK23" s="161"/>
-      <c r="EL23" s="161"/>
-      <c r="EM23" s="161"/>
-      <c r="EN23" s="161"/>
-      <c r="EO23" s="161"/>
-      <c r="EP23" s="161"/>
-      <c r="EQ23" s="161"/>
-      <c r="ER23" s="161"/>
-      <c r="ES23" s="161"/>
-      <c r="ET23" s="161"/>
-      <c r="EU23" s="161"/>
-      <c r="EV23" s="161"/>
-      <c r="EW23" s="161"/>
-      <c r="EX23" s="161"/>
-      <c r="EY23" s="161"/>
-      <c r="EZ23" s="161"/>
-      <c r="FA23" s="161"/>
-      <c r="FB23" s="161"/>
-      <c r="FC23" s="161"/>
-      <c r="FD23" s="161"/>
-      <c r="FE23" s="161"/>
-      <c r="FF23" s="161"/>
-      <c r="FG23" s="161"/>
-      <c r="FH23" s="161"/>
-      <c r="FI23" s="161"/>
-      <c r="FJ23" s="161"/>
-      <c r="FK23" s="161"/>
-      <c r="FL23" s="161"/>
-      <c r="FM23" s="161"/>
-      <c r="FN23" s="161"/>
-      <c r="FO23" s="161"/>
-      <c r="FP23" s="161"/>
-      <c r="FQ23" s="161"/>
-      <c r="FR23" s="161"/>
-      <c r="FS23" s="161"/>
-      <c r="FT23" s="161"/>
-      <c r="FU23" s="161"/>
-      <c r="FV23" s="161"/>
-      <c r="FW23" s="161"/>
-      <c r="FX23" s="161"/>
-      <c r="FY23" s="161"/>
-      <c r="FZ23" s="161"/>
-      <c r="GA23" s="161"/>
-      <c r="GB23" s="161"/>
-      <c r="GC23" s="161"/>
-      <c r="GD23" s="161"/>
-      <c r="GE23" s="161"/>
-      <c r="GF23" s="161"/>
-      <c r="GG23" s="161"/>
-      <c r="GH23" s="161"/>
-      <c r="GI23" s="161"/>
-      <c r="GJ23" s="161"/>
-      <c r="GK23" s="161"/>
-      <c r="GL23" s="161"/>
-      <c r="GM23" s="161"/>
-      <c r="GN23" s="161"/>
-      <c r="GO23" s="161"/>
-      <c r="GP23" s="161"/>
-      <c r="GQ23" s="161"/>
-      <c r="GR23" s="161"/>
-      <c r="GS23" s="161"/>
-      <c r="GT23" s="161"/>
-      <c r="GU23" s="161"/>
-      <c r="GV23" s="161"/>
-      <c r="GW23" s="161"/>
-      <c r="GX23" s="161"/>
-      <c r="GY23" s="161"/>
-      <c r="GZ23" s="161"/>
-      <c r="HA23" s="161"/>
-      <c r="HB23" s="161"/>
-      <c r="HC23" s="161"/>
-      <c r="HD23" s="161"/>
-      <c r="HE23" s="161"/>
-      <c r="HF23" s="161"/>
-      <c r="HG23" s="161"/>
-      <c r="HH23" s="161"/>
-      <c r="HI23" s="161"/>
-      <c r="HJ23" s="161"/>
-      <c r="HK23" s="161"/>
-      <c r="HL23" s="161"/>
-      <c r="HM23" s="161"/>
-      <c r="HN23" s="161"/>
-      <c r="HO23" s="161"/>
-      <c r="HP23" s="161"/>
-      <c r="HQ23" s="161"/>
-      <c r="HR23" s="161"/>
-      <c r="HS23" s="161"/>
-      <c r="HT23" s="161"/>
-      <c r="HU23" s="161"/>
-      <c r="HV23" s="161"/>
-      <c r="HW23" s="161"/>
-      <c r="HX23" s="161"/>
-      <c r="HY23" s="161"/>
-      <c r="HZ23" s="161"/>
-      <c r="IA23" s="161"/>
-      <c r="IB23" s="161"/>
-      <c r="IC23" s="161"/>
-      <c r="ID23" s="161"/>
-      <c r="IE23" s="161"/>
-      <c r="IF23" s="161"/>
-      <c r="IG23" s="161"/>
-      <c r="IH23" s="161"/>
-      <c r="II23" s="161"/>
-      <c r="IJ23" s="161"/>
-      <c r="IK23" s="161"/>
-      <c r="IL23" s="161"/>
-      <c r="IM23" s="161"/>
-      <c r="IN23" s="161"/>
-      <c r="IO23" s="161"/>
-      <c r="IP23" s="161"/>
-      <c r="IQ23" s="161"/>
-      <c r="IR23" s="161"/>
-      <c r="IS23" s="161"/>
-      <c r="IT23" s="161"/>
-      <c r="IU23" s="161"/>
-      <c r="IV23" s="161"/>
-      <c r="IW23" s="161"/>
-      <c r="IX23" s="161"/>
-      <c r="IY23" s="161"/>
-      <c r="IZ23" s="161"/>
-      <c r="JA23" s="161"/>
-      <c r="JB23" s="161"/>
-      <c r="JC23" s="161"/>
-      <c r="JD23" s="161"/>
-      <c r="JE23" s="161"/>
-      <c r="JF23" s="161"/>
-      <c r="JG23" s="161"/>
-      <c r="JH23" s="161"/>
-      <c r="JI23" s="161"/>
-      <c r="JJ23" s="161"/>
-      <c r="JK23" s="161"/>
-      <c r="JL23" s="161"/>
-      <c r="JM23" s="161"/>
-      <c r="JN23" s="161"/>
-      <c r="JO23" s="161"/>
-      <c r="JP23" s="161"/>
-      <c r="JQ23" s="161"/>
-      <c r="JR23" s="161"/>
-      <c r="JS23" s="161"/>
-      <c r="JT23" s="161"/>
-      <c r="JU23" s="161"/>
-      <c r="JV23" s="161"/>
-      <c r="JW23" s="161"/>
-      <c r="JX23" s="161"/>
-      <c r="JY23" s="161"/>
-      <c r="JZ23" s="161"/>
-      <c r="KA23" s="161"/>
-      <c r="KB23" s="161"/>
-      <c r="KC23" s="161"/>
-      <c r="KD23" s="161"/>
-      <c r="KE23" s="161"/>
-      <c r="KF23" s="161"/>
-      <c r="KG23" s="161"/>
-      <c r="KH23" s="161"/>
-      <c r="KI23" s="161"/>
-      <c r="KJ23" s="161"/>
-      <c r="KK23" s="161"/>
-      <c r="KL23" s="161"/>
-      <c r="KM23" s="161"/>
-      <c r="KN23" s="161"/>
-      <c r="KO23" s="161"/>
-      <c r="KP23" s="161"/>
-      <c r="KQ23" s="161"/>
-      <c r="KR23" s="161"/>
-      <c r="KS23" s="161"/>
-      <c r="KT23" s="161"/>
-      <c r="KU23" s="161"/>
-      <c r="KV23" s="161"/>
-      <c r="KW23" s="161"/>
-      <c r="KX23" s="161"/>
-      <c r="KY23" s="161"/>
-      <c r="KZ23" s="161"/>
-      <c r="LA23" s="161"/>
-      <c r="LB23" s="161"/>
-      <c r="LC23" s="161"/>
-      <c r="LD23" s="161"/>
-      <c r="LE23" s="161"/>
-      <c r="LF23" s="161"/>
-      <c r="LG23" s="161"/>
-      <c r="LH23" s="161"/>
-      <c r="LI23" s="161"/>
-      <c r="LJ23" s="161"/>
-      <c r="LK23" s="161"/>
-      <c r="LL23" s="161"/>
-      <c r="LM23" s="161"/>
-      <c r="LN23" s="161"/>
-      <c r="LO23" s="161"/>
-      <c r="LP23" s="161"/>
-      <c r="LQ23" s="161"/>
-      <c r="LR23" s="161"/>
-      <c r="LS23" s="161"/>
-      <c r="LT23" s="161"/>
-      <c r="LU23" s="161"/>
-      <c r="LV23" s="161"/>
-      <c r="LW23" s="161"/>
-      <c r="LX23" s="161"/>
-      <c r="LY23" s="161"/>
-      <c r="LZ23" s="161"/>
-      <c r="MA23" s="161"/>
-      <c r="MB23" s="161"/>
-      <c r="MC23" s="161"/>
-      <c r="MD23" s="161"/>
-      <c r="ME23" s="161"/>
-      <c r="MF23" s="161"/>
-      <c r="MG23" s="161"/>
-      <c r="MH23" s="161"/>
-      <c r="MI23" s="161"/>
-      <c r="MJ23" s="161"/>
-      <c r="MK23" s="161"/>
-      <c r="ML23" s="161"/>
-      <c r="MM23" s="161"/>
-      <c r="MN23" s="161"/>
-      <c r="MO23" s="161"/>
-      <c r="MP23" s="161"/>
-      <c r="MQ23" s="161"/>
-      <c r="MR23" s="161"/>
-      <c r="MS23" s="161"/>
-      <c r="MT23" s="161"/>
-      <c r="MU23" s="161"/>
-      <c r="MV23" s="161"/>
-      <c r="MW23" s="161"/>
-      <c r="MX23" s="161"/>
-      <c r="MY23" s="161"/>
-      <c r="MZ23" s="161"/>
-      <c r="NA23" s="161"/>
-      <c r="NB23" s="161"/>
-      <c r="NC23" s="161"/>
-      <c r="ND23" s="161"/>
-      <c r="NE23" s="161"/>
-      <c r="NF23" s="161"/>
-      <c r="NG23" s="161"/>
-      <c r="NH23" s="161"/>
-      <c r="NI23" s="161"/>
-      <c r="NJ23" s="161"/>
-      <c r="NK23" s="161"/>
-      <c r="NL23" s="161"/>
-      <c r="NM23" s="161"/>
-      <c r="NN23" s="161"/>
-      <c r="NO23" s="161"/>
-      <c r="NP23" s="161"/>
-      <c r="NQ23" s="161"/>
-      <c r="NR23" s="161"/>
-      <c r="NS23" s="161"/>
-      <c r="NT23" s="161"/>
-      <c r="NU23" s="161"/>
-      <c r="NV23" s="161"/>
-      <c r="NW23" s="161"/>
-      <c r="NX23" s="161"/>
-      <c r="NY23" s="161"/>
-      <c r="NZ23" s="161"/>
-      <c r="OA23" s="161"/>
-      <c r="OB23" s="161"/>
-      <c r="OC23" s="161"/>
-      <c r="OD23" s="161"/>
-      <c r="OE23" s="161"/>
-      <c r="OF23" s="161"/>
-      <c r="OG23" s="161"/>
-      <c r="OH23" s="161"/>
-      <c r="OI23" s="161"/>
-      <c r="OJ23" s="161"/>
-      <c r="OK23" s="161"/>
-      <c r="OL23" s="161"/>
-      <c r="OM23" s="161"/>
-      <c r="ON23" s="161"/>
-      <c r="OO23" s="161"/>
-      <c r="OP23" s="161"/>
-      <c r="OQ23" s="161"/>
-      <c r="OR23" s="161"/>
-      <c r="OS23" s="161"/>
-      <c r="OT23" s="161"/>
-      <c r="OU23" s="161"/>
-      <c r="OV23" s="161"/>
-      <c r="OW23" s="161"/>
-      <c r="OX23" s="161"/>
-      <c r="OY23" s="161"/>
-      <c r="OZ23" s="161"/>
-      <c r="PA23" s="161"/>
-      <c r="PB23" s="161"/>
-      <c r="PC23" s="161"/>
-      <c r="PD23" s="161"/>
-      <c r="PE23" s="161"/>
-      <c r="PF23" s="161"/>
-      <c r="PG23" s="161"/>
-      <c r="PH23" s="161"/>
-      <c r="PI23" s="161"/>
-      <c r="PJ23" s="161"/>
-      <c r="PK23" s="161"/>
-      <c r="PL23" s="161"/>
-      <c r="PM23" s="161"/>
-      <c r="PN23" s="161"/>
-      <c r="PO23" s="161"/>
-      <c r="PP23" s="161"/>
-      <c r="PQ23" s="161"/>
-      <c r="PR23" s="161"/>
-      <c r="PS23" s="161"/>
-      <c r="PT23" s="161"/>
-      <c r="PU23" s="161"/>
-      <c r="PV23" s="161"/>
-      <c r="PW23" s="161"/>
-      <c r="PX23" s="161"/>
-      <c r="PY23" s="161"/>
-      <c r="PZ23" s="161"/>
-      <c r="QA23" s="161"/>
-      <c r="QB23" s="161"/>
-      <c r="QC23" s="161"/>
-      <c r="QD23" s="161"/>
-      <c r="QE23" s="161"/>
-      <c r="QF23" s="161"/>
-      <c r="QG23" s="161"/>
-      <c r="QH23" s="161"/>
-      <c r="QI23" s="161"/>
-      <c r="QJ23" s="161"/>
-      <c r="QK23" s="161"/>
-      <c r="QL23" s="161"/>
-      <c r="QM23" s="161"/>
-      <c r="QN23" s="161"/>
-      <c r="QO23" s="161"/>
-      <c r="QP23" s="161"/>
-      <c r="QQ23" s="161"/>
-      <c r="QR23" s="161"/>
-      <c r="QS23" s="161"/>
-      <c r="QT23" s="161"/>
-      <c r="QU23" s="161"/>
-      <c r="QV23" s="161"/>
-      <c r="QW23" s="161"/>
-      <c r="QX23" s="161"/>
-      <c r="QY23" s="161"/>
-      <c r="QZ23" s="161"/>
-      <c r="RA23" s="161"/>
-      <c r="RB23" s="161"/>
-      <c r="RC23" s="161"/>
-      <c r="RD23" s="161"/>
-      <c r="RE23" s="161"/>
-      <c r="RF23" s="161"/>
-      <c r="RG23" s="161"/>
-      <c r="RH23" s="161"/>
-      <c r="RI23" s="161"/>
-      <c r="RJ23" s="161"/>
-      <c r="RK23" s="161"/>
-      <c r="RL23" s="161"/>
-      <c r="RM23" s="161"/>
-      <c r="RN23" s="161"/>
-      <c r="RO23" s="161"/>
-      <c r="RP23" s="161"/>
-      <c r="RQ23" s="161"/>
-      <c r="RR23" s="161"/>
-      <c r="RS23" s="161"/>
-      <c r="RT23" s="161"/>
-      <c r="RU23" s="161"/>
-      <c r="RV23" s="161"/>
-      <c r="RW23" s="161"/>
-      <c r="RX23" s="161"/>
-      <c r="RY23" s="161"/>
-      <c r="RZ23" s="161"/>
-      <c r="SA23" s="161"/>
-      <c r="SB23" s="161"/>
-      <c r="SC23" s="161"/>
-      <c r="SD23" s="161"/>
-      <c r="SE23" s="161"/>
-      <c r="SF23" s="161"/>
-      <c r="SG23" s="161"/>
-      <c r="SH23" s="161"/>
-      <c r="SI23" s="161"/>
-      <c r="SJ23" s="161"/>
-      <c r="SK23" s="161"/>
-      <c r="SL23" s="161"/>
-      <c r="SM23" s="161"/>
-      <c r="SN23" s="161"/>
-      <c r="SO23" s="161"/>
-      <c r="SP23" s="161"/>
-      <c r="SQ23" s="161"/>
-      <c r="SR23" s="161"/>
-      <c r="SS23" s="161"/>
-      <c r="ST23" s="161"/>
-      <c r="SU23" s="161"/>
-      <c r="SV23" s="161"/>
-      <c r="SW23" s="161"/>
-      <c r="SX23" s="161"/>
-      <c r="SY23" s="161"/>
-      <c r="SZ23" s="161"/>
-      <c r="TA23" s="161"/>
-      <c r="TB23" s="161"/>
-      <c r="TC23" s="161"/>
-      <c r="TD23" s="161"/>
-      <c r="TE23" s="161"/>
-      <c r="TF23" s="161"/>
-      <c r="TG23" s="161"/>
-      <c r="TH23" s="161"/>
-      <c r="TI23" s="161"/>
-      <c r="TJ23" s="161"/>
-      <c r="TK23" s="161"/>
-      <c r="TL23" s="161"/>
-      <c r="TM23" s="161"/>
-      <c r="TN23" s="161"/>
-      <c r="TO23" s="161"/>
-      <c r="TP23" s="161"/>
-      <c r="TQ23" s="161"/>
-      <c r="TR23" s="161"/>
-      <c r="TS23" s="161"/>
-      <c r="TT23" s="161"/>
-      <c r="TU23" s="161"/>
-      <c r="TV23" s="161"/>
-      <c r="TW23" s="161"/>
-      <c r="TX23" s="161"/>
-      <c r="TY23" s="161"/>
-      <c r="TZ23" s="161"/>
-      <c r="UA23" s="161"/>
-      <c r="UB23" s="161"/>
-      <c r="UC23" s="161"/>
-      <c r="UD23" s="161"/>
-      <c r="UE23" s="161"/>
-      <c r="UF23" s="161"/>
-      <c r="UG23" s="161"/>
-      <c r="UH23" s="161"/>
-      <c r="UI23" s="161"/>
-      <c r="UJ23" s="161"/>
-      <c r="UK23" s="161"/>
-      <c r="UL23" s="161"/>
-      <c r="UM23" s="161"/>
-      <c r="UN23" s="161"/>
-      <c r="UO23" s="161"/>
-      <c r="UP23" s="161"/>
-      <c r="UQ23" s="161"/>
-      <c r="UR23" s="161"/>
-      <c r="US23" s="161"/>
-      <c r="UT23" s="161"/>
-      <c r="UU23" s="161"/>
-      <c r="UV23" s="161"/>
-      <c r="UW23" s="161"/>
-      <c r="UX23" s="161"/>
-      <c r="UY23" s="161"/>
-      <c r="UZ23" s="161"/>
-      <c r="VA23" s="161"/>
-      <c r="VB23" s="161"/>
-      <c r="VC23" s="161"/>
-      <c r="VD23" s="161"/>
-      <c r="VE23" s="161"/>
-      <c r="VF23" s="161"/>
-      <c r="VG23" s="161"/>
-      <c r="VH23" s="161"/>
-      <c r="VI23" s="161"/>
-      <c r="VJ23" s="161"/>
-      <c r="VK23" s="161"/>
-      <c r="VL23" s="161"/>
-      <c r="VM23" s="161"/>
-      <c r="VN23" s="161"/>
-      <c r="VO23" s="161"/>
-      <c r="VP23" s="161"/>
-      <c r="VQ23" s="161"/>
-      <c r="VR23" s="161"/>
-      <c r="VS23" s="161"/>
-      <c r="VT23" s="161"/>
-      <c r="VU23" s="161"/>
-      <c r="VV23" s="161"/>
-      <c r="VW23" s="161"/>
-      <c r="VX23" s="161"/>
-      <c r="VY23" s="161"/>
-      <c r="VZ23" s="161"/>
-      <c r="WA23" s="161"/>
-      <c r="WB23" s="161"/>
-      <c r="WC23" s="161"/>
-      <c r="WD23" s="161"/>
-      <c r="WE23" s="161"/>
-      <c r="WF23" s="161"/>
-      <c r="WG23" s="161"/>
-      <c r="WH23" s="161"/>
-      <c r="WI23" s="161"/>
-      <c r="WJ23" s="161"/>
-      <c r="WK23" s="161"/>
-      <c r="WL23" s="161"/>
-      <c r="WM23" s="161"/>
-      <c r="WN23" s="161"/>
-      <c r="WO23" s="161"/>
-      <c r="WP23" s="161"/>
-      <c r="WQ23" s="161"/>
-      <c r="WR23" s="161"/>
-      <c r="WS23" s="161"/>
-      <c r="WT23" s="161"/>
-      <c r="WU23" s="161"/>
-      <c r="WV23" s="161"/>
-      <c r="WW23" s="161"/>
-      <c r="WX23" s="161"/>
-      <c r="WY23" s="161"/>
-      <c r="WZ23" s="161"/>
-      <c r="XA23" s="161"/>
-      <c r="XB23" s="161"/>
-      <c r="XC23" s="161"/>
-      <c r="XD23" s="161"/>
-      <c r="XE23" s="161"/>
-      <c r="XF23" s="161"/>
-      <c r="XG23" s="161"/>
-      <c r="XH23" s="161"/>
-      <c r="XI23" s="161"/>
-      <c r="XJ23" s="161"/>
-      <c r="XK23" s="161"/>
-      <c r="XL23" s="161"/>
-      <c r="XM23" s="161"/>
-      <c r="XN23" s="161"/>
-      <c r="XO23" s="161"/>
-      <c r="XP23" s="161"/>
-      <c r="XQ23" s="161"/>
-      <c r="XR23" s="161"/>
-      <c r="XS23" s="161"/>
-      <c r="XT23" s="161"/>
-      <c r="XU23" s="161"/>
-      <c r="XV23" s="161"/>
-      <c r="XW23" s="161"/>
-      <c r="XX23" s="161"/>
-      <c r="XY23" s="161"/>
-      <c r="XZ23" s="161"/>
-      <c r="YA23" s="161"/>
-      <c r="YB23" s="161"/>
-      <c r="YC23" s="161"/>
-      <c r="YD23" s="161"/>
-      <c r="YE23" s="161"/>
-      <c r="YF23" s="161"/>
-      <c r="YG23" s="161"/>
-      <c r="YH23" s="161"/>
-      <c r="YI23" s="161"/>
-      <c r="YJ23" s="161"/>
-      <c r="YK23" s="161"/>
-      <c r="YL23" s="161"/>
-      <c r="YM23" s="161"/>
-      <c r="YN23" s="161"/>
-      <c r="YO23" s="161"/>
-      <c r="YP23" s="161"/>
-      <c r="YQ23" s="161"/>
-      <c r="YR23" s="161"/>
-      <c r="YS23" s="161"/>
-      <c r="YT23" s="161"/>
-      <c r="YU23" s="161"/>
-      <c r="YV23" s="161"/>
-      <c r="YW23" s="161"/>
-      <c r="YX23" s="161"/>
-      <c r="YY23" s="161"/>
-      <c r="YZ23" s="161"/>
-      <c r="ZA23" s="161"/>
-      <c r="ZB23" s="161"/>
-      <c r="ZC23" s="161"/>
-      <c r="ZD23" s="161"/>
-      <c r="ZE23" s="161"/>
-      <c r="ZF23" s="161"/>
-      <c r="ZG23" s="161"/>
-      <c r="ZH23" s="161"/>
-      <c r="ZI23" s="161"/>
-      <c r="ZJ23" s="161"/>
-      <c r="ZK23" s="161"/>
-      <c r="ZL23" s="161"/>
-      <c r="ZM23" s="161"/>
-      <c r="ZN23" s="161"/>
-      <c r="ZO23" s="161"/>
-      <c r="ZP23" s="161"/>
-      <c r="ZQ23" s="161"/>
-      <c r="ZR23" s="161"/>
-      <c r="ZS23" s="161"/>
-      <c r="ZT23" s="161"/>
-      <c r="ZU23" s="161"/>
-      <c r="ZV23" s="161"/>
-      <c r="ZW23" s="161"/>
-      <c r="ZX23" s="161"/>
-      <c r="ZY23" s="161"/>
-      <c r="ZZ23" s="161"/>
-      <c r="AAA23" s="161"/>
-      <c r="AAB23" s="161"/>
-      <c r="AAC23" s="161"/>
-      <c r="AAD23" s="161"/>
-      <c r="AAE23" s="161"/>
-      <c r="AAF23" s="161"/>
-      <c r="AAG23" s="161"/>
-      <c r="AAH23" s="161"/>
-      <c r="AAI23" s="161"/>
-      <c r="AAJ23" s="161"/>
-      <c r="AAK23" s="161"/>
-      <c r="AAL23" s="161"/>
-      <c r="AAM23" s="161"/>
-      <c r="AAN23" s="161"/>
-      <c r="AAO23" s="161"/>
-      <c r="AAP23" s="161"/>
-      <c r="AAQ23" s="161"/>
-      <c r="AAR23" s="161"/>
-      <c r="AAS23" s="161"/>
-      <c r="AAT23" s="161"/>
-      <c r="AAU23" s="161"/>
-      <c r="AAV23" s="161"/>
-      <c r="AAW23" s="161"/>
-      <c r="AAX23" s="161"/>
-      <c r="AAY23" s="161"/>
-      <c r="AAZ23" s="161"/>
-      <c r="ABA23" s="161"/>
-      <c r="ABB23" s="161"/>
-      <c r="ABC23" s="161"/>
-      <c r="ABD23" s="161"/>
-      <c r="ABE23" s="161"/>
-      <c r="ABF23" s="161"/>
-      <c r="ABG23" s="161"/>
-      <c r="ABH23" s="161"/>
-      <c r="ABI23" s="161"/>
-      <c r="ABJ23" s="161"/>
-      <c r="ABK23" s="161"/>
-      <c r="ABL23" s="161"/>
-      <c r="ABM23" s="161"/>
-      <c r="ABN23" s="161"/>
-      <c r="ABO23" s="161"/>
-      <c r="ABP23" s="161"/>
-      <c r="ABQ23" s="161"/>
-      <c r="ABR23" s="161"/>
-      <c r="ABS23" s="161"/>
-      <c r="ABT23" s="161"/>
-      <c r="ABU23" s="161"/>
-      <c r="ABV23" s="161"/>
-      <c r="ABW23" s="161"/>
-      <c r="ABX23" s="161"/>
-      <c r="ABY23" s="161"/>
-      <c r="ABZ23" s="161"/>
-      <c r="ACA23" s="161"/>
-      <c r="ACB23" s="161"/>
-      <c r="ACC23" s="161"/>
-      <c r="ACD23" s="161"/>
-      <c r="ACE23" s="161"/>
-      <c r="ACF23" s="161"/>
-      <c r="ACG23" s="161"/>
-      <c r="ACH23" s="161"/>
-      <c r="ACI23" s="161"/>
-      <c r="ACJ23" s="161"/>
-      <c r="ACK23" s="161"/>
-      <c r="ACL23" s="161"/>
-      <c r="ACM23" s="161"/>
-      <c r="ACN23" s="161"/>
-      <c r="ACO23" s="161"/>
-      <c r="ACP23" s="161"/>
-      <c r="ACQ23" s="161"/>
-      <c r="ACR23" s="161"/>
-      <c r="ACS23" s="161"/>
-      <c r="ACT23" s="161"/>
-      <c r="ACU23" s="161"/>
-      <c r="ACV23" s="161"/>
-      <c r="ACW23" s="161"/>
-      <c r="ACX23" s="161"/>
-      <c r="ACY23" s="161"/>
-      <c r="ACZ23" s="161"/>
-      <c r="ADA23" s="161"/>
-      <c r="ADB23" s="161"/>
-      <c r="ADC23" s="161"/>
-      <c r="ADD23" s="161"/>
-      <c r="ADE23" s="161"/>
-      <c r="ADF23" s="161"/>
-      <c r="ADG23" s="161"/>
-      <c r="ADH23" s="161"/>
-      <c r="ADI23" s="161"/>
-      <c r="ADJ23" s="161"/>
-      <c r="ADK23" s="161"/>
-      <c r="ADL23" s="161"/>
-      <c r="ADM23" s="161"/>
-      <c r="ADN23" s="161"/>
-      <c r="ADO23" s="161"/>
-      <c r="ADP23" s="161"/>
-      <c r="ADQ23" s="161"/>
-      <c r="ADR23" s="161"/>
-      <c r="ADS23" s="161"/>
-      <c r="ADT23" s="161"/>
-      <c r="ADU23" s="161"/>
-      <c r="ADV23" s="161"/>
-      <c r="ADW23" s="161"/>
-      <c r="ADX23" s="161"/>
-      <c r="ADY23" s="161"/>
-      <c r="ADZ23" s="161"/>
-      <c r="AEA23" s="161"/>
-      <c r="AEB23" s="161"/>
-      <c r="AEC23" s="161"/>
-      <c r="AED23" s="161"/>
-      <c r="AEE23" s="161"/>
-      <c r="AEF23" s="161"/>
-      <c r="AEG23" s="161"/>
-      <c r="AEH23" s="161"/>
-      <c r="AEI23" s="161"/>
-      <c r="AEJ23" s="161"/>
-      <c r="AEK23" s="161"/>
-      <c r="AEL23" s="161"/>
-      <c r="AEM23" s="161"/>
-      <c r="AEN23" s="161"/>
-      <c r="AEO23" s="161"/>
-      <c r="AEP23" s="161"/>
-      <c r="AEQ23" s="161"/>
-      <c r="AER23" s="161"/>
-      <c r="AES23" s="161"/>
-      <c r="AET23" s="161"/>
-      <c r="AEU23" s="161"/>
-      <c r="AEV23" s="161"/>
-      <c r="AEW23" s="161"/>
-      <c r="AEX23" s="161"/>
-      <c r="AEY23" s="161"/>
-      <c r="AEZ23" s="161"/>
-      <c r="AFA23" s="161"/>
-      <c r="AFB23" s="161"/>
-      <c r="AFC23" s="161"/>
-      <c r="AFD23" s="161"/>
-      <c r="AFE23" s="161"/>
-      <c r="AFF23" s="161"/>
-      <c r="AFG23" s="161"/>
-      <c r="AFH23" s="161"/>
-      <c r="AFI23" s="161"/>
-      <c r="AFJ23" s="161"/>
-      <c r="AFK23" s="161"/>
-      <c r="AFL23" s="161"/>
-      <c r="AFM23" s="161"/>
-      <c r="AFN23" s="161"/>
-      <c r="AFO23" s="161"/>
-      <c r="AFP23" s="161"/>
-      <c r="AFQ23" s="161"/>
-      <c r="AFR23" s="161"/>
-      <c r="AFS23" s="161"/>
-      <c r="AFT23" s="161"/>
-      <c r="AFU23" s="161"/>
-      <c r="AFV23" s="161"/>
-      <c r="AFW23" s="161"/>
-      <c r="AFX23" s="161"/>
-      <c r="AFY23" s="161"/>
-      <c r="AFZ23" s="161"/>
-      <c r="AGA23" s="161"/>
-      <c r="AGB23" s="161"/>
-      <c r="AGC23" s="161"/>
-      <c r="AGD23" s="161"/>
-      <c r="AGE23" s="161"/>
-      <c r="AGF23" s="161"/>
-      <c r="AGG23" s="161"/>
-      <c r="AGH23" s="161"/>
-      <c r="AGI23" s="161"/>
-      <c r="AGJ23" s="161"/>
-      <c r="AGK23" s="161"/>
-      <c r="AGL23" s="161"/>
-      <c r="AGM23" s="161"/>
-      <c r="AGN23" s="161"/>
-      <c r="AGO23" s="161"/>
-      <c r="AGP23" s="161"/>
-      <c r="AGQ23" s="161"/>
-      <c r="AGR23" s="161"/>
-      <c r="AGS23" s="161"/>
-      <c r="AGT23" s="161"/>
-      <c r="AGU23" s="161"/>
-      <c r="AGV23" s="161"/>
-      <c r="AGW23" s="161"/>
-      <c r="AGX23" s="161"/>
-      <c r="AGY23" s="161"/>
-      <c r="AGZ23" s="161"/>
-      <c r="AHA23" s="161"/>
-      <c r="AHB23" s="161"/>
-      <c r="AHC23" s="161"/>
-      <c r="AHD23" s="161"/>
-      <c r="AHE23" s="161"/>
-      <c r="AHF23" s="161"/>
-      <c r="AHG23" s="161"/>
-      <c r="AHH23" s="161"/>
-      <c r="AHI23" s="161"/>
-      <c r="AHJ23" s="161"/>
-      <c r="AHK23" s="161"/>
-      <c r="AHL23" s="161"/>
-      <c r="AHM23" s="161"/>
-      <c r="AHN23" s="161"/>
-      <c r="AHO23" s="161"/>
-      <c r="AHP23" s="161"/>
-      <c r="AHQ23" s="161"/>
-      <c r="AHR23" s="161"/>
-      <c r="AHS23" s="161"/>
-      <c r="AHT23" s="161"/>
-      <c r="AHU23" s="161"/>
-      <c r="AHV23" s="161"/>
-      <c r="AHW23" s="161"/>
-      <c r="AHX23" s="161"/>
-      <c r="AHY23" s="161"/>
-      <c r="AHZ23" s="161"/>
-      <c r="AIA23" s="161"/>
-      <c r="AIB23" s="161"/>
-      <c r="AIC23" s="161"/>
-      <c r="AID23" s="161"/>
-      <c r="AIE23" s="161"/>
-      <c r="AIF23" s="161"/>
-      <c r="AIG23" s="161"/>
-      <c r="AIH23" s="161"/>
-      <c r="AII23" s="161"/>
-      <c r="AIJ23" s="161"/>
-      <c r="AIK23" s="161"/>
-      <c r="AIL23" s="161"/>
-      <c r="AIM23" s="161"/>
-      <c r="AIN23" s="161"/>
-      <c r="AIO23" s="161"/>
-      <c r="AIP23" s="161"/>
-      <c r="AIQ23" s="161"/>
-      <c r="AIR23" s="161"/>
-      <c r="AIS23" s="161"/>
-      <c r="AIT23" s="161"/>
-      <c r="AIU23" s="161"/>
-      <c r="AIV23" s="161"/>
-      <c r="AIW23" s="161"/>
-      <c r="AIX23" s="161"/>
-      <c r="AIY23" s="161"/>
-      <c r="AIZ23" s="161"/>
-      <c r="AJA23" s="161"/>
-      <c r="AJB23" s="161"/>
-      <c r="AJC23" s="161"/>
-      <c r="AJD23" s="161"/>
-      <c r="AJE23" s="161"/>
-      <c r="AJF23" s="161"/>
-      <c r="AJG23" s="161"/>
-      <c r="AJH23" s="161"/>
-      <c r="AJI23" s="161"/>
-      <c r="AJJ23" s="161"/>
-      <c r="AJK23" s="161"/>
-      <c r="AJL23" s="161"/>
-      <c r="AJM23" s="161"/>
-      <c r="AJN23" s="161"/>
-      <c r="AJO23" s="161"/>
-      <c r="AJP23" s="161"/>
-      <c r="AJQ23" s="161"/>
-      <c r="AJR23" s="161"/>
-      <c r="AJS23" s="161"/>
-      <c r="AJT23" s="161"/>
-      <c r="AJU23" s="161"/>
-      <c r="AJV23" s="161"/>
-      <c r="AJW23" s="161"/>
-      <c r="AJX23" s="161"/>
-      <c r="AJY23" s="161"/>
-      <c r="AJZ23" s="161"/>
-      <c r="AKA23" s="161"/>
-      <c r="AKB23" s="161"/>
-      <c r="AKC23" s="161"/>
-      <c r="AKD23" s="161"/>
-      <c r="AKE23" s="161"/>
-      <c r="AKF23" s="161"/>
-      <c r="AKG23" s="161"/>
-      <c r="AKH23" s="161"/>
-      <c r="AKI23" s="161"/>
-      <c r="AKJ23" s="161"/>
-      <c r="AKK23" s="161"/>
-      <c r="AKL23" s="161"/>
-      <c r="AKM23" s="161"/>
-      <c r="AKN23" s="161"/>
-      <c r="AKO23" s="161"/>
-      <c r="AKP23" s="161"/>
-      <c r="AKQ23" s="161"/>
-      <c r="AKR23" s="161"/>
-      <c r="AKS23" s="161"/>
-      <c r="AKT23" s="161"/>
-      <c r="AKU23" s="161"/>
-      <c r="AKV23" s="161"/>
-      <c r="AKW23" s="161"/>
-      <c r="AKX23" s="161"/>
-      <c r="AKY23" s="161"/>
-      <c r="AKZ23" s="161"/>
-      <c r="ALA23" s="161"/>
-      <c r="ALB23" s="161"/>
-      <c r="ALC23" s="161"/>
-      <c r="ALD23" s="161"/>
-      <c r="ALE23" s="161"/>
-      <c r="ALF23" s="161"/>
-      <c r="ALG23" s="161"/>
-      <c r="ALH23" s="161"/>
-      <c r="ALI23" s="161"/>
-      <c r="ALJ23" s="161"/>
-      <c r="ALK23" s="161"/>
-      <c r="ALL23" s="161"/>
-      <c r="ALM23" s="161"/>
-      <c r="ALN23" s="161"/>
-      <c r="ALO23" s="161"/>
-      <c r="ALP23" s="161"/>
-      <c r="ALQ23" s="161"/>
-      <c r="ALR23" s="161"/>
-      <c r="ALS23" s="161"/>
-      <c r="ALT23" s="161"/>
-      <c r="ALU23" s="161"/>
-      <c r="ALV23" s="161"/>
-      <c r="ALW23" s="161"/>
-      <c r="ALX23" s="161"/>
-      <c r="ALY23" s="161"/>
-      <c r="ALZ23" s="161"/>
-      <c r="AMA23" s="161"/>
-      <c r="AMB23" s="161"/>
-      <c r="AMC23" s="161"/>
-      <c r="AMD23" s="161"/>
-      <c r="AME23" s="161"/>
-      <c r="AMF23" s="161"/>
-      <c r="AMG23" s="161"/>
-      <c r="AMH23" s="161"/>
-      <c r="AMI23" s="161"/>
-      <c r="AMJ23" s="161"/>
-      <c r="AMK23" s="161"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="133"/>
+      <c r="AD23" s="133"/>
+      <c r="AE23" s="133"/>
+      <c r="AF23" s="133"/>
+      <c r="AG23" s="133"/>
+      <c r="AH23" s="133"/>
+      <c r="AI23" s="133"/>
+      <c r="AJ23" s="133"/>
+      <c r="AK23" s="133"/>
+      <c r="AL23" s="133"/>
+      <c r="AM23" s="133"/>
+      <c r="AN23" s="133"/>
+      <c r="AO23" s="133"/>
+      <c r="AP23" s="133"/>
+      <c r="AQ23" s="133"/>
+      <c r="AR23" s="133"/>
+      <c r="AS23" s="133"/>
+      <c r="AT23" s="133"/>
+      <c r="AU23" s="133"/>
+      <c r="AV23" s="133"/>
+      <c r="AW23" s="133"/>
+      <c r="AX23" s="133"/>
+      <c r="AY23" s="133"/>
+      <c r="AZ23" s="133"/>
+      <c r="BA23" s="133"/>
+      <c r="BB23" s="133"/>
+      <c r="BC23" s="133"/>
+      <c r="BD23" s="133"/>
+      <c r="BE23" s="133"/>
+      <c r="BF23" s="133"/>
+      <c r="BG23" s="133"/>
+      <c r="BH23" s="133"/>
+      <c r="BI23" s="133"/>
+      <c r="BJ23" s="133"/>
+      <c r="BK23" s="133"/>
+      <c r="BL23" s="133"/>
+      <c r="BM23" s="133"/>
+      <c r="BN23" s="133"/>
+      <c r="BO23" s="133"/>
+      <c r="BP23" s="133"/>
+      <c r="BQ23" s="133"/>
+      <c r="BR23" s="133"/>
+      <c r="BS23" s="133"/>
+      <c r="BT23" s="133"/>
+      <c r="BU23" s="133"/>
+      <c r="BV23" s="133"/>
+      <c r="BW23" s="133"/>
+      <c r="BX23" s="133"/>
+      <c r="BY23" s="133"/>
+      <c r="BZ23" s="133"/>
+      <c r="CA23" s="133"/>
+      <c r="CB23" s="133"/>
+      <c r="CC23" s="133"/>
+      <c r="CD23" s="133"/>
+      <c r="CE23" s="133"/>
+      <c r="CF23" s="133"/>
+      <c r="CG23" s="133"/>
+      <c r="CH23" s="133"/>
+      <c r="CI23" s="133"/>
+      <c r="CJ23" s="133"/>
+      <c r="CK23" s="133"/>
+      <c r="CL23" s="133"/>
+      <c r="CM23" s="133"/>
+      <c r="CN23" s="133"/>
+      <c r="CO23" s="133"/>
+      <c r="CP23" s="133"/>
+      <c r="CQ23" s="133"/>
+      <c r="CR23" s="133"/>
+      <c r="CS23" s="133"/>
+      <c r="CT23" s="133"/>
+      <c r="CU23" s="133"/>
+      <c r="CV23" s="133"/>
+      <c r="CW23" s="133"/>
+      <c r="CX23" s="133"/>
+      <c r="CY23" s="133"/>
+      <c r="CZ23" s="133"/>
+      <c r="DA23" s="133"/>
+      <c r="DB23" s="133"/>
+      <c r="DC23" s="133"/>
+      <c r="DD23" s="133"/>
+      <c r="DE23" s="133"/>
+      <c r="DF23" s="133"/>
+      <c r="DG23" s="133"/>
+      <c r="DH23" s="133"/>
+      <c r="DI23" s="133"/>
+      <c r="DJ23" s="133"/>
+      <c r="DK23" s="133"/>
+      <c r="DL23" s="133"/>
+      <c r="DM23" s="133"/>
+      <c r="DN23" s="133"/>
+      <c r="DO23" s="133"/>
+      <c r="DP23" s="133"/>
+      <c r="DQ23" s="133"/>
+      <c r="DR23" s="133"/>
+      <c r="DS23" s="133"/>
+      <c r="DT23" s="133"/>
+      <c r="DU23" s="133"/>
+      <c r="DV23" s="133"/>
+      <c r="DW23" s="133"/>
+      <c r="DX23" s="133"/>
+      <c r="DY23" s="133"/>
+      <c r="DZ23" s="133"/>
+      <c r="EA23" s="133"/>
+      <c r="EB23" s="133"/>
+      <c r="EC23" s="133"/>
+      <c r="ED23" s="133"/>
+      <c r="EE23" s="133"/>
+      <c r="EF23" s="133"/>
+      <c r="EG23" s="133"/>
+      <c r="EH23" s="133"/>
+      <c r="EI23" s="133"/>
+      <c r="EJ23" s="133"/>
+      <c r="EK23" s="133"/>
+      <c r="EL23" s="133"/>
+      <c r="EM23" s="133"/>
+      <c r="EN23" s="133"/>
+      <c r="EO23" s="133"/>
+      <c r="EP23" s="133"/>
+      <c r="EQ23" s="133"/>
+      <c r="ER23" s="133"/>
+      <c r="ES23" s="133"/>
+      <c r="ET23" s="133"/>
+      <c r="EU23" s="133"/>
+      <c r="EV23" s="133"/>
+      <c r="EW23" s="133"/>
+      <c r="EX23" s="133"/>
+      <c r="EY23" s="133"/>
+      <c r="EZ23" s="133"/>
+      <c r="FA23" s="133"/>
+      <c r="FB23" s="133"/>
+      <c r="FC23" s="133"/>
+      <c r="FD23" s="133"/>
+      <c r="FE23" s="133"/>
+      <c r="FF23" s="133"/>
+      <c r="FG23" s="133"/>
+      <c r="FH23" s="133"/>
+      <c r="FI23" s="133"/>
+      <c r="FJ23" s="133"/>
+      <c r="FK23" s="133"/>
+      <c r="FL23" s="133"/>
+      <c r="FM23" s="133"/>
+      <c r="FN23" s="133"/>
+      <c r="FO23" s="133"/>
+      <c r="FP23" s="133"/>
+      <c r="FQ23" s="133"/>
+      <c r="FR23" s="133"/>
+      <c r="FS23" s="133"/>
+      <c r="FT23" s="133"/>
+      <c r="FU23" s="133"/>
+      <c r="FV23" s="133"/>
+      <c r="FW23" s="133"/>
+      <c r="FX23" s="133"/>
+      <c r="FY23" s="133"/>
+      <c r="FZ23" s="133"/>
+      <c r="GA23" s="133"/>
+      <c r="GB23" s="133"/>
+      <c r="GC23" s="133"/>
+      <c r="GD23" s="133"/>
+      <c r="GE23" s="133"/>
+      <c r="GF23" s="133"/>
+      <c r="GG23" s="133"/>
+      <c r="GH23" s="133"/>
+      <c r="GI23" s="133"/>
+      <c r="GJ23" s="133"/>
+      <c r="GK23" s="133"/>
+      <c r="GL23" s="133"/>
+      <c r="GM23" s="133"/>
+      <c r="GN23" s="133"/>
+      <c r="GO23" s="133"/>
+      <c r="GP23" s="133"/>
+      <c r="GQ23" s="133"/>
+      <c r="GR23" s="133"/>
+      <c r="GS23" s="133"/>
+      <c r="GT23" s="133"/>
+      <c r="GU23" s="133"/>
+      <c r="GV23" s="133"/>
+      <c r="GW23" s="133"/>
+      <c r="GX23" s="133"/>
+      <c r="GY23" s="133"/>
+      <c r="GZ23" s="133"/>
+      <c r="HA23" s="133"/>
+      <c r="HB23" s="133"/>
+      <c r="HC23" s="133"/>
+      <c r="HD23" s="133"/>
+      <c r="HE23" s="133"/>
+      <c r="HF23" s="133"/>
+      <c r="HG23" s="133"/>
+      <c r="HH23" s="133"/>
+      <c r="HI23" s="133"/>
+      <c r="HJ23" s="133"/>
+      <c r="HK23" s="133"/>
+      <c r="HL23" s="133"/>
+      <c r="HM23" s="133"/>
+      <c r="HN23" s="133"/>
+      <c r="HO23" s="133"/>
+      <c r="HP23" s="133"/>
+      <c r="HQ23" s="133"/>
+      <c r="HR23" s="133"/>
+      <c r="HS23" s="133"/>
+      <c r="HT23" s="133"/>
+      <c r="HU23" s="133"/>
+      <c r="HV23" s="133"/>
+      <c r="HW23" s="133"/>
+      <c r="HX23" s="133"/>
+      <c r="HY23" s="133"/>
+      <c r="HZ23" s="133"/>
+      <c r="IA23" s="133"/>
+      <c r="IB23" s="133"/>
+      <c r="IC23" s="133"/>
+      <c r="ID23" s="133"/>
+      <c r="IE23" s="133"/>
+      <c r="IF23" s="133"/>
+      <c r="IG23" s="133"/>
+      <c r="IH23" s="133"/>
+      <c r="II23" s="133"/>
+      <c r="IJ23" s="133"/>
+      <c r="IK23" s="133"/>
+      <c r="IL23" s="133"/>
+      <c r="IM23" s="133"/>
+      <c r="IN23" s="133"/>
+      <c r="IO23" s="133"/>
+      <c r="IP23" s="133"/>
+      <c r="IQ23" s="133"/>
+      <c r="IR23" s="133"/>
+      <c r="IS23" s="133"/>
+      <c r="IT23" s="133"/>
+      <c r="IU23" s="133"/>
+      <c r="IV23" s="133"/>
+      <c r="IW23" s="133"/>
+      <c r="IX23" s="133"/>
+      <c r="IY23" s="133"/>
+      <c r="IZ23" s="133"/>
+      <c r="JA23" s="133"/>
+      <c r="JB23" s="133"/>
+      <c r="JC23" s="133"/>
+      <c r="JD23" s="133"/>
+      <c r="JE23" s="133"/>
+      <c r="JF23" s="133"/>
+      <c r="JG23" s="133"/>
+      <c r="JH23" s="133"/>
+      <c r="JI23" s="133"/>
+      <c r="JJ23" s="133"/>
+      <c r="JK23" s="133"/>
+      <c r="JL23" s="133"/>
+      <c r="JM23" s="133"/>
+      <c r="JN23" s="133"/>
+      <c r="JO23" s="133"/>
+      <c r="JP23" s="133"/>
+      <c r="JQ23" s="133"/>
+      <c r="JR23" s="133"/>
+      <c r="JS23" s="133"/>
+      <c r="JT23" s="133"/>
+      <c r="JU23" s="133"/>
+      <c r="JV23" s="133"/>
+      <c r="JW23" s="133"/>
+      <c r="JX23" s="133"/>
+      <c r="JY23" s="133"/>
+      <c r="JZ23" s="133"/>
+      <c r="KA23" s="133"/>
+      <c r="KB23" s="133"/>
+      <c r="KC23" s="133"/>
+      <c r="KD23" s="133"/>
+      <c r="KE23" s="133"/>
+      <c r="KF23" s="133"/>
+      <c r="KG23" s="133"/>
+      <c r="KH23" s="133"/>
+      <c r="KI23" s="133"/>
+      <c r="KJ23" s="133"/>
+      <c r="KK23" s="133"/>
+      <c r="KL23" s="133"/>
+      <c r="KM23" s="133"/>
+      <c r="KN23" s="133"/>
+      <c r="KO23" s="133"/>
+      <c r="KP23" s="133"/>
+      <c r="KQ23" s="133"/>
+      <c r="KR23" s="133"/>
+      <c r="KS23" s="133"/>
+      <c r="KT23" s="133"/>
+      <c r="KU23" s="133"/>
+      <c r="KV23" s="133"/>
+      <c r="KW23" s="133"/>
+      <c r="KX23" s="133"/>
+      <c r="KY23" s="133"/>
+      <c r="KZ23" s="133"/>
+      <c r="LA23" s="133"/>
+      <c r="LB23" s="133"/>
+      <c r="LC23" s="133"/>
+      <c r="LD23" s="133"/>
+      <c r="LE23" s="133"/>
+      <c r="LF23" s="133"/>
+      <c r="LG23" s="133"/>
+      <c r="LH23" s="133"/>
+      <c r="LI23" s="133"/>
+      <c r="LJ23" s="133"/>
+      <c r="LK23" s="133"/>
+      <c r="LL23" s="133"/>
+      <c r="LM23" s="133"/>
+      <c r="LN23" s="133"/>
+      <c r="LO23" s="133"/>
+      <c r="LP23" s="133"/>
+      <c r="LQ23" s="133"/>
+      <c r="LR23" s="133"/>
+      <c r="LS23" s="133"/>
+      <c r="LT23" s="133"/>
+      <c r="LU23" s="133"/>
+      <c r="LV23" s="133"/>
+      <c r="LW23" s="133"/>
+      <c r="LX23" s="133"/>
+      <c r="LY23" s="133"/>
+      <c r="LZ23" s="133"/>
+      <c r="MA23" s="133"/>
+      <c r="MB23" s="133"/>
+      <c r="MC23" s="133"/>
+      <c r="MD23" s="133"/>
+      <c r="ME23" s="133"/>
+      <c r="MF23" s="133"/>
+      <c r="MG23" s="133"/>
+      <c r="MH23" s="133"/>
+      <c r="MI23" s="133"/>
+      <c r="MJ23" s="133"/>
+      <c r="MK23" s="133"/>
+      <c r="ML23" s="133"/>
+      <c r="MM23" s="133"/>
+      <c r="MN23" s="133"/>
+      <c r="MO23" s="133"/>
+      <c r="MP23" s="133"/>
+      <c r="MQ23" s="133"/>
+      <c r="MR23" s="133"/>
+      <c r="MS23" s="133"/>
+      <c r="MT23" s="133"/>
+      <c r="MU23" s="133"/>
+      <c r="MV23" s="133"/>
+      <c r="MW23" s="133"/>
+      <c r="MX23" s="133"/>
+      <c r="MY23" s="133"/>
+      <c r="MZ23" s="133"/>
+      <c r="NA23" s="133"/>
+      <c r="NB23" s="133"/>
+      <c r="NC23" s="133"/>
+      <c r="ND23" s="133"/>
+      <c r="NE23" s="133"/>
+      <c r="NF23" s="133"/>
+      <c r="NG23" s="133"/>
+      <c r="NH23" s="133"/>
+      <c r="NI23" s="133"/>
+      <c r="NJ23" s="133"/>
+      <c r="NK23" s="133"/>
+      <c r="NL23" s="133"/>
+      <c r="NM23" s="133"/>
+      <c r="NN23" s="133"/>
+      <c r="NO23" s="133"/>
+      <c r="NP23" s="133"/>
+      <c r="NQ23" s="133"/>
+      <c r="NR23" s="133"/>
+      <c r="NS23" s="133"/>
+      <c r="NT23" s="133"/>
+      <c r="NU23" s="133"/>
+      <c r="NV23" s="133"/>
+      <c r="NW23" s="133"/>
+      <c r="NX23" s="133"/>
+      <c r="NY23" s="133"/>
+      <c r="NZ23" s="133"/>
+      <c r="OA23" s="133"/>
+      <c r="OB23" s="133"/>
+      <c r="OC23" s="133"/>
+      <c r="OD23" s="133"/>
+      <c r="OE23" s="133"/>
+      <c r="OF23" s="133"/>
+      <c r="OG23" s="133"/>
+      <c r="OH23" s="133"/>
+      <c r="OI23" s="133"/>
+      <c r="OJ23" s="133"/>
+      <c r="OK23" s="133"/>
+      <c r="OL23" s="133"/>
+      <c r="OM23" s="133"/>
+      <c r="ON23" s="133"/>
+      <c r="OO23" s="133"/>
+      <c r="OP23" s="133"/>
+      <c r="OQ23" s="133"/>
+      <c r="OR23" s="133"/>
+      <c r="OS23" s="133"/>
+      <c r="OT23" s="133"/>
+      <c r="OU23" s="133"/>
+      <c r="OV23" s="133"/>
+      <c r="OW23" s="133"/>
+      <c r="OX23" s="133"/>
+      <c r="OY23" s="133"/>
+      <c r="OZ23" s="133"/>
+      <c r="PA23" s="133"/>
+      <c r="PB23" s="133"/>
+      <c r="PC23" s="133"/>
+      <c r="PD23" s="133"/>
+      <c r="PE23" s="133"/>
+      <c r="PF23" s="133"/>
+      <c r="PG23" s="133"/>
+      <c r="PH23" s="133"/>
+      <c r="PI23" s="133"/>
+      <c r="PJ23" s="133"/>
+      <c r="PK23" s="133"/>
+      <c r="PL23" s="133"/>
+      <c r="PM23" s="133"/>
+      <c r="PN23" s="133"/>
+      <c r="PO23" s="133"/>
+      <c r="PP23" s="133"/>
+      <c r="PQ23" s="133"/>
+      <c r="PR23" s="133"/>
+      <c r="PS23" s="133"/>
+      <c r="PT23" s="133"/>
+      <c r="PU23" s="133"/>
+      <c r="PV23" s="133"/>
+      <c r="PW23" s="133"/>
+      <c r="PX23" s="133"/>
+      <c r="PY23" s="133"/>
+      <c r="PZ23" s="133"/>
+      <c r="QA23" s="133"/>
+      <c r="QB23" s="133"/>
+      <c r="QC23" s="133"/>
+      <c r="QD23" s="133"/>
+      <c r="QE23" s="133"/>
+      <c r="QF23" s="133"/>
+      <c r="QG23" s="133"/>
+      <c r="QH23" s="133"/>
+      <c r="QI23" s="133"/>
+      <c r="QJ23" s="133"/>
+      <c r="QK23" s="133"/>
+      <c r="QL23" s="133"/>
+      <c r="QM23" s="133"/>
+      <c r="QN23" s="133"/>
+      <c r="QO23" s="133"/>
+      <c r="QP23" s="133"/>
+      <c r="QQ23" s="133"/>
+      <c r="QR23" s="133"/>
+      <c r="QS23" s="133"/>
+      <c r="QT23" s="133"/>
+      <c r="QU23" s="133"/>
+      <c r="QV23" s="133"/>
+      <c r="QW23" s="133"/>
+      <c r="QX23" s="133"/>
+      <c r="QY23" s="133"/>
+      <c r="QZ23" s="133"/>
+      <c r="RA23" s="133"/>
+      <c r="RB23" s="133"/>
+      <c r="RC23" s="133"/>
+      <c r="RD23" s="133"/>
+      <c r="RE23" s="133"/>
+      <c r="RF23" s="133"/>
+      <c r="RG23" s="133"/>
+      <c r="RH23" s="133"/>
+      <c r="RI23" s="133"/>
+      <c r="RJ23" s="133"/>
+      <c r="RK23" s="133"/>
+      <c r="RL23" s="133"/>
+      <c r="RM23" s="133"/>
+      <c r="RN23" s="133"/>
+      <c r="RO23" s="133"/>
+      <c r="RP23" s="133"/>
+      <c r="RQ23" s="133"/>
+      <c r="RR23" s="133"/>
+      <c r="RS23" s="133"/>
+      <c r="RT23" s="133"/>
+      <c r="RU23" s="133"/>
+      <c r="RV23" s="133"/>
+      <c r="RW23" s="133"/>
+      <c r="RX23" s="133"/>
+      <c r="RY23" s="133"/>
+      <c r="RZ23" s="133"/>
+      <c r="SA23" s="133"/>
+      <c r="SB23" s="133"/>
+      <c r="SC23" s="133"/>
+      <c r="SD23" s="133"/>
+      <c r="SE23" s="133"/>
+      <c r="SF23" s="133"/>
+      <c r="SG23" s="133"/>
+      <c r="SH23" s="133"/>
+      <c r="SI23" s="133"/>
+      <c r="SJ23" s="133"/>
+      <c r="SK23" s="133"/>
+      <c r="SL23" s="133"/>
+      <c r="SM23" s="133"/>
+      <c r="SN23" s="133"/>
+      <c r="SO23" s="133"/>
+      <c r="SP23" s="133"/>
+      <c r="SQ23" s="133"/>
+      <c r="SR23" s="133"/>
+      <c r="SS23" s="133"/>
+      <c r="ST23" s="133"/>
+      <c r="SU23" s="133"/>
+      <c r="SV23" s="133"/>
+      <c r="SW23" s="133"/>
+      <c r="SX23" s="133"/>
+      <c r="SY23" s="133"/>
+      <c r="SZ23" s="133"/>
+      <c r="TA23" s="133"/>
+      <c r="TB23" s="133"/>
+      <c r="TC23" s="133"/>
+      <c r="TD23" s="133"/>
+      <c r="TE23" s="133"/>
+      <c r="TF23" s="133"/>
+      <c r="TG23" s="133"/>
+      <c r="TH23" s="133"/>
+      <c r="TI23" s="133"/>
+      <c r="TJ23" s="133"/>
+      <c r="TK23" s="133"/>
+      <c r="TL23" s="133"/>
+      <c r="TM23" s="133"/>
+      <c r="TN23" s="133"/>
+      <c r="TO23" s="133"/>
+      <c r="TP23" s="133"/>
+      <c r="TQ23" s="133"/>
+      <c r="TR23" s="133"/>
+      <c r="TS23" s="133"/>
+      <c r="TT23" s="133"/>
+      <c r="TU23" s="133"/>
+      <c r="TV23" s="133"/>
+      <c r="TW23" s="133"/>
+      <c r="TX23" s="133"/>
+      <c r="TY23" s="133"/>
+      <c r="TZ23" s="133"/>
+      <c r="UA23" s="133"/>
+      <c r="UB23" s="133"/>
+      <c r="UC23" s="133"/>
+      <c r="UD23" s="133"/>
+      <c r="UE23" s="133"/>
+      <c r="UF23" s="133"/>
+      <c r="UG23" s="133"/>
+      <c r="UH23" s="133"/>
+      <c r="UI23" s="133"/>
+      <c r="UJ23" s="133"/>
+      <c r="UK23" s="133"/>
+      <c r="UL23" s="133"/>
+      <c r="UM23" s="133"/>
+      <c r="UN23" s="133"/>
+      <c r="UO23" s="133"/>
+      <c r="UP23" s="133"/>
+      <c r="UQ23" s="133"/>
+      <c r="UR23" s="133"/>
+      <c r="US23" s="133"/>
+      <c r="UT23" s="133"/>
+      <c r="UU23" s="133"/>
+      <c r="UV23" s="133"/>
+      <c r="UW23" s="133"/>
+      <c r="UX23" s="133"/>
+      <c r="UY23" s="133"/>
+      <c r="UZ23" s="133"/>
+      <c r="VA23" s="133"/>
+      <c r="VB23" s="133"/>
+      <c r="VC23" s="133"/>
+      <c r="VD23" s="133"/>
+      <c r="VE23" s="133"/>
+      <c r="VF23" s="133"/>
+      <c r="VG23" s="133"/>
+      <c r="VH23" s="133"/>
+      <c r="VI23" s="133"/>
+      <c r="VJ23" s="133"/>
+      <c r="VK23" s="133"/>
+      <c r="VL23" s="133"/>
+      <c r="VM23" s="133"/>
+      <c r="VN23" s="133"/>
+      <c r="VO23" s="133"/>
+      <c r="VP23" s="133"/>
+      <c r="VQ23" s="133"/>
+      <c r="VR23" s="133"/>
+      <c r="VS23" s="133"/>
+      <c r="VT23" s="133"/>
+      <c r="VU23" s="133"/>
+      <c r="VV23" s="133"/>
+      <c r="VW23" s="133"/>
+      <c r="VX23" s="133"/>
+      <c r="VY23" s="133"/>
+      <c r="VZ23" s="133"/>
+      <c r="WA23" s="133"/>
+      <c r="WB23" s="133"/>
+      <c r="WC23" s="133"/>
+      <c r="WD23" s="133"/>
+      <c r="WE23" s="133"/>
+      <c r="WF23" s="133"/>
+      <c r="WG23" s="133"/>
+      <c r="WH23" s="133"/>
+      <c r="WI23" s="133"/>
+      <c r="WJ23" s="133"/>
+      <c r="WK23" s="133"/>
+      <c r="WL23" s="133"/>
+      <c r="WM23" s="133"/>
+      <c r="WN23" s="133"/>
+      <c r="WO23" s="133"/>
+      <c r="WP23" s="133"/>
+      <c r="WQ23" s="133"/>
+      <c r="WR23" s="133"/>
+      <c r="WS23" s="133"/>
+      <c r="WT23" s="133"/>
+      <c r="WU23" s="133"/>
+      <c r="WV23" s="133"/>
+      <c r="WW23" s="133"/>
+      <c r="WX23" s="133"/>
+      <c r="WY23" s="133"/>
+      <c r="WZ23" s="133"/>
+      <c r="XA23" s="133"/>
+      <c r="XB23" s="133"/>
+      <c r="XC23" s="133"/>
+      <c r="XD23" s="133"/>
+      <c r="XE23" s="133"/>
+      <c r="XF23" s="133"/>
+      <c r="XG23" s="133"/>
+      <c r="XH23" s="133"/>
+      <c r="XI23" s="133"/>
+      <c r="XJ23" s="133"/>
+      <c r="XK23" s="133"/>
+      <c r="XL23" s="133"/>
+      <c r="XM23" s="133"/>
+      <c r="XN23" s="133"/>
+      <c r="XO23" s="133"/>
+      <c r="XP23" s="133"/>
+      <c r="XQ23" s="133"/>
+      <c r="XR23" s="133"/>
+      <c r="XS23" s="133"/>
+      <c r="XT23" s="133"/>
+      <c r="XU23" s="133"/>
+      <c r="XV23" s="133"/>
+      <c r="XW23" s="133"/>
+      <c r="XX23" s="133"/>
+      <c r="XY23" s="133"/>
+      <c r="XZ23" s="133"/>
+      <c r="YA23" s="133"/>
+      <c r="YB23" s="133"/>
+      <c r="YC23" s="133"/>
+      <c r="YD23" s="133"/>
+      <c r="YE23" s="133"/>
+      <c r="YF23" s="133"/>
+      <c r="YG23" s="133"/>
+      <c r="YH23" s="133"/>
+      <c r="YI23" s="133"/>
+      <c r="YJ23" s="133"/>
+      <c r="YK23" s="133"/>
+      <c r="YL23" s="133"/>
+      <c r="YM23" s="133"/>
+      <c r="YN23" s="133"/>
+      <c r="YO23" s="133"/>
+      <c r="YP23" s="133"/>
+      <c r="YQ23" s="133"/>
+      <c r="YR23" s="133"/>
+      <c r="YS23" s="133"/>
+      <c r="YT23" s="133"/>
+      <c r="YU23" s="133"/>
+      <c r="YV23" s="133"/>
+      <c r="YW23" s="133"/>
+      <c r="YX23" s="133"/>
+      <c r="YY23" s="133"/>
+      <c r="YZ23" s="133"/>
+      <c r="ZA23" s="133"/>
+      <c r="ZB23" s="133"/>
+      <c r="ZC23" s="133"/>
+      <c r="ZD23" s="133"/>
+      <c r="ZE23" s="133"/>
+      <c r="ZF23" s="133"/>
+      <c r="ZG23" s="133"/>
+      <c r="ZH23" s="133"/>
+      <c r="ZI23" s="133"/>
+      <c r="ZJ23" s="133"/>
+      <c r="ZK23" s="133"/>
+      <c r="ZL23" s="133"/>
+      <c r="ZM23" s="133"/>
+      <c r="ZN23" s="133"/>
+      <c r="ZO23" s="133"/>
+      <c r="ZP23" s="133"/>
+      <c r="ZQ23" s="133"/>
+      <c r="ZR23" s="133"/>
+      <c r="ZS23" s="133"/>
+      <c r="ZT23" s="133"/>
+      <c r="ZU23" s="133"/>
+      <c r="ZV23" s="133"/>
+      <c r="ZW23" s="133"/>
+      <c r="ZX23" s="133"/>
+      <c r="ZY23" s="133"/>
+      <c r="ZZ23" s="133"/>
+      <c r="AAA23" s="133"/>
+      <c r="AAB23" s="133"/>
+      <c r="AAC23" s="133"/>
+      <c r="AAD23" s="133"/>
+      <c r="AAE23" s="133"/>
+      <c r="AAF23" s="133"/>
+      <c r="AAG23" s="133"/>
+      <c r="AAH23" s="133"/>
+      <c r="AAI23" s="133"/>
+      <c r="AAJ23" s="133"/>
+      <c r="AAK23" s="133"/>
+      <c r="AAL23" s="133"/>
+      <c r="AAM23" s="133"/>
+      <c r="AAN23" s="133"/>
+      <c r="AAO23" s="133"/>
+      <c r="AAP23" s="133"/>
+      <c r="AAQ23" s="133"/>
+      <c r="AAR23" s="133"/>
+      <c r="AAS23" s="133"/>
+      <c r="AAT23" s="133"/>
+      <c r="AAU23" s="133"/>
+      <c r="AAV23" s="133"/>
+      <c r="AAW23" s="133"/>
+      <c r="AAX23" s="133"/>
+      <c r="AAY23" s="133"/>
+      <c r="AAZ23" s="133"/>
+      <c r="ABA23" s="133"/>
+      <c r="ABB23" s="133"/>
+      <c r="ABC23" s="133"/>
+      <c r="ABD23" s="133"/>
+      <c r="ABE23" s="133"/>
+      <c r="ABF23" s="133"/>
+      <c r="ABG23" s="133"/>
+      <c r="ABH23" s="133"/>
+      <c r="ABI23" s="133"/>
+      <c r="ABJ23" s="133"/>
+      <c r="ABK23" s="133"/>
+      <c r="ABL23" s="133"/>
+      <c r="ABM23" s="133"/>
+      <c r="ABN23" s="133"/>
+      <c r="ABO23" s="133"/>
+      <c r="ABP23" s="133"/>
+      <c r="ABQ23" s="133"/>
+      <c r="ABR23" s="133"/>
+      <c r="ABS23" s="133"/>
+      <c r="ABT23" s="133"/>
+      <c r="ABU23" s="133"/>
+      <c r="ABV23" s="133"/>
+      <c r="ABW23" s="133"/>
+      <c r="ABX23" s="133"/>
+      <c r="ABY23" s="133"/>
+      <c r="ABZ23" s="133"/>
+      <c r="ACA23" s="133"/>
+      <c r="ACB23" s="133"/>
+      <c r="ACC23" s="133"/>
+      <c r="ACD23" s="133"/>
+      <c r="ACE23" s="133"/>
+      <c r="ACF23" s="133"/>
+      <c r="ACG23" s="133"/>
+      <c r="ACH23" s="133"/>
+      <c r="ACI23" s="133"/>
+      <c r="ACJ23" s="133"/>
+      <c r="ACK23" s="133"/>
+      <c r="ACL23" s="133"/>
+      <c r="ACM23" s="133"/>
+      <c r="ACN23" s="133"/>
+      <c r="ACO23" s="133"/>
+      <c r="ACP23" s="133"/>
+      <c r="ACQ23" s="133"/>
+      <c r="ACR23" s="133"/>
+      <c r="ACS23" s="133"/>
+      <c r="ACT23" s="133"/>
+      <c r="ACU23" s="133"/>
+      <c r="ACV23" s="133"/>
+      <c r="ACW23" s="133"/>
+      <c r="ACX23" s="133"/>
+      <c r="ACY23" s="133"/>
+      <c r="ACZ23" s="133"/>
+      <c r="ADA23" s="133"/>
+      <c r="ADB23" s="133"/>
+      <c r="ADC23" s="133"/>
+      <c r="ADD23" s="133"/>
+      <c r="ADE23" s="133"/>
+      <c r="ADF23" s="133"/>
+      <c r="ADG23" s="133"/>
+      <c r="ADH23" s="133"/>
+      <c r="ADI23" s="133"/>
+      <c r="ADJ23" s="133"/>
+      <c r="ADK23" s="133"/>
+      <c r="ADL23" s="133"/>
+      <c r="ADM23" s="133"/>
+      <c r="ADN23" s="133"/>
+      <c r="ADO23" s="133"/>
+      <c r="ADP23" s="133"/>
+      <c r="ADQ23" s="133"/>
+      <c r="ADR23" s="133"/>
+      <c r="ADS23" s="133"/>
+      <c r="ADT23" s="133"/>
+      <c r="ADU23" s="133"/>
+      <c r="ADV23" s="133"/>
+      <c r="ADW23" s="133"/>
+      <c r="ADX23" s="133"/>
+      <c r="ADY23" s="133"/>
+      <c r="ADZ23" s="133"/>
+      <c r="AEA23" s="133"/>
+      <c r="AEB23" s="133"/>
+      <c r="AEC23" s="133"/>
+      <c r="AED23" s="133"/>
+      <c r="AEE23" s="133"/>
+      <c r="AEF23" s="133"/>
+      <c r="AEG23" s="133"/>
+      <c r="AEH23" s="133"/>
+      <c r="AEI23" s="133"/>
+      <c r="AEJ23" s="133"/>
+      <c r="AEK23" s="133"/>
+      <c r="AEL23" s="133"/>
+      <c r="AEM23" s="133"/>
+      <c r="AEN23" s="133"/>
+      <c r="AEO23" s="133"/>
+      <c r="AEP23" s="133"/>
+      <c r="AEQ23" s="133"/>
+      <c r="AER23" s="133"/>
+      <c r="AES23" s="133"/>
+      <c r="AET23" s="133"/>
+      <c r="AEU23" s="133"/>
+      <c r="AEV23" s="133"/>
+      <c r="AEW23" s="133"/>
+      <c r="AEX23" s="133"/>
+      <c r="AEY23" s="133"/>
+      <c r="AEZ23" s="133"/>
+      <c r="AFA23" s="133"/>
+      <c r="AFB23" s="133"/>
+      <c r="AFC23" s="133"/>
+      <c r="AFD23" s="133"/>
+      <c r="AFE23" s="133"/>
+      <c r="AFF23" s="133"/>
+      <c r="AFG23" s="133"/>
+      <c r="AFH23" s="133"/>
+      <c r="AFI23" s="133"/>
+      <c r="AFJ23" s="133"/>
+      <c r="AFK23" s="133"/>
+      <c r="AFL23" s="133"/>
+      <c r="AFM23" s="133"/>
+      <c r="AFN23" s="133"/>
+      <c r="AFO23" s="133"/>
+      <c r="AFP23" s="133"/>
+      <c r="AFQ23" s="133"/>
+      <c r="AFR23" s="133"/>
+      <c r="AFS23" s="133"/>
+      <c r="AFT23" s="133"/>
+      <c r="AFU23" s="133"/>
+      <c r="AFV23" s="133"/>
+      <c r="AFW23" s="133"/>
+      <c r="AFX23" s="133"/>
+      <c r="AFY23" s="133"/>
+      <c r="AFZ23" s="133"/>
+      <c r="AGA23" s="133"/>
+      <c r="AGB23" s="133"/>
+      <c r="AGC23" s="133"/>
+      <c r="AGD23" s="133"/>
+      <c r="AGE23" s="133"/>
+      <c r="AGF23" s="133"/>
+      <c r="AGG23" s="133"/>
+      <c r="AGH23" s="133"/>
+      <c r="AGI23" s="133"/>
+      <c r="AGJ23" s="133"/>
+      <c r="AGK23" s="133"/>
+      <c r="AGL23" s="133"/>
+      <c r="AGM23" s="133"/>
+      <c r="AGN23" s="133"/>
+      <c r="AGO23" s="133"/>
+      <c r="AGP23" s="133"/>
+      <c r="AGQ23" s="133"/>
+      <c r="AGR23" s="133"/>
+      <c r="AGS23" s="133"/>
+      <c r="AGT23" s="133"/>
+      <c r="AGU23" s="133"/>
+      <c r="AGV23" s="133"/>
+      <c r="AGW23" s="133"/>
+      <c r="AGX23" s="133"/>
+      <c r="AGY23" s="133"/>
+      <c r="AGZ23" s="133"/>
+      <c r="AHA23" s="133"/>
+      <c r="AHB23" s="133"/>
+      <c r="AHC23" s="133"/>
+      <c r="AHD23" s="133"/>
+      <c r="AHE23" s="133"/>
+      <c r="AHF23" s="133"/>
+      <c r="AHG23" s="133"/>
+      <c r="AHH23" s="133"/>
+      <c r="AHI23" s="133"/>
+      <c r="AHJ23" s="133"/>
+      <c r="AHK23" s="133"/>
+      <c r="AHL23" s="133"/>
+      <c r="AHM23" s="133"/>
+      <c r="AHN23" s="133"/>
+      <c r="AHO23" s="133"/>
+      <c r="AHP23" s="133"/>
+      <c r="AHQ23" s="133"/>
+      <c r="AHR23" s="133"/>
+      <c r="AHS23" s="133"/>
+      <c r="AHT23" s="133"/>
+      <c r="AHU23" s="133"/>
+      <c r="AHV23" s="133"/>
+      <c r="AHW23" s="133"/>
+      <c r="AHX23" s="133"/>
+      <c r="AHY23" s="133"/>
+      <c r="AHZ23" s="133"/>
+      <c r="AIA23" s="133"/>
+      <c r="AIB23" s="133"/>
+      <c r="AIC23" s="133"/>
+      <c r="AID23" s="133"/>
+      <c r="AIE23" s="133"/>
+      <c r="AIF23" s="133"/>
+      <c r="AIG23" s="133"/>
+      <c r="AIH23" s="133"/>
+      <c r="AII23" s="133"/>
+      <c r="AIJ23" s="133"/>
+      <c r="AIK23" s="133"/>
+      <c r="AIL23" s="133"/>
+      <c r="AIM23" s="133"/>
+      <c r="AIN23" s="133"/>
+      <c r="AIO23" s="133"/>
+      <c r="AIP23" s="133"/>
+      <c r="AIQ23" s="133"/>
+      <c r="AIR23" s="133"/>
+      <c r="AIS23" s="133"/>
+      <c r="AIT23" s="133"/>
+      <c r="AIU23" s="133"/>
+      <c r="AIV23" s="133"/>
+      <c r="AIW23" s="133"/>
+      <c r="AIX23" s="133"/>
+      <c r="AIY23" s="133"/>
+      <c r="AIZ23" s="133"/>
+      <c r="AJA23" s="133"/>
+      <c r="AJB23" s="133"/>
+      <c r="AJC23" s="133"/>
+      <c r="AJD23" s="133"/>
+      <c r="AJE23" s="133"/>
+      <c r="AJF23" s="133"/>
+      <c r="AJG23" s="133"/>
+      <c r="AJH23" s="133"/>
+      <c r="AJI23" s="133"/>
+      <c r="AJJ23" s="133"/>
+      <c r="AJK23" s="133"/>
+      <c r="AJL23" s="133"/>
+      <c r="AJM23" s="133"/>
+      <c r="AJN23" s="133"/>
+      <c r="AJO23" s="133"/>
+      <c r="AJP23" s="133"/>
+      <c r="AJQ23" s="133"/>
+      <c r="AJR23" s="133"/>
+      <c r="AJS23" s="133"/>
+      <c r="AJT23" s="133"/>
+      <c r="AJU23" s="133"/>
+      <c r="AJV23" s="133"/>
+      <c r="AJW23" s="133"/>
+      <c r="AJX23" s="133"/>
+      <c r="AJY23" s="133"/>
+      <c r="AJZ23" s="133"/>
+      <c r="AKA23" s="133"/>
+      <c r="AKB23" s="133"/>
+      <c r="AKC23" s="133"/>
+      <c r="AKD23" s="133"/>
+      <c r="AKE23" s="133"/>
+      <c r="AKF23" s="133"/>
+      <c r="AKG23" s="133"/>
+      <c r="AKH23" s="133"/>
+      <c r="AKI23" s="133"/>
+      <c r="AKJ23" s="133"/>
+      <c r="AKK23" s="133"/>
+      <c r="AKL23" s="133"/>
+      <c r="AKM23" s="133"/>
+      <c r="AKN23" s="133"/>
+      <c r="AKO23" s="133"/>
+      <c r="AKP23" s="133"/>
+      <c r="AKQ23" s="133"/>
+      <c r="AKR23" s="133"/>
+      <c r="AKS23" s="133"/>
+      <c r="AKT23" s="133"/>
+      <c r="AKU23" s="133"/>
+      <c r="AKV23" s="133"/>
+      <c r="AKW23" s="133"/>
+      <c r="AKX23" s="133"/>
+      <c r="AKY23" s="133"/>
+      <c r="AKZ23" s="133"/>
+      <c r="ALA23" s="133"/>
+      <c r="ALB23" s="133"/>
+      <c r="ALC23" s="133"/>
+      <c r="ALD23" s="133"/>
+      <c r="ALE23" s="133"/>
+      <c r="ALF23" s="133"/>
+      <c r="ALG23" s="133"/>
+      <c r="ALH23" s="133"/>
+      <c r="ALI23" s="133"/>
+      <c r="ALJ23" s="133"/>
+      <c r="ALK23" s="133"/>
+      <c r="ALL23" s="133"/>
+      <c r="ALM23" s="133"/>
+      <c r="ALN23" s="133"/>
+      <c r="ALO23" s="133"/>
+      <c r="ALP23" s="133"/>
+      <c r="ALQ23" s="133"/>
+      <c r="ALR23" s="133"/>
+      <c r="ALS23" s="133"/>
+      <c r="ALT23" s="133"/>
+      <c r="ALU23" s="133"/>
+      <c r="ALV23" s="133"/>
+      <c r="ALW23" s="133"/>
+      <c r="ALX23" s="133"/>
+      <c r="ALY23" s="133"/>
+      <c r="ALZ23" s="133"/>
+      <c r="AMA23" s="133"/>
+      <c r="AMB23" s="133"/>
+      <c r="AMC23" s="133"/>
+      <c r="AMD23" s="133"/>
+      <c r="AME23" s="133"/>
+      <c r="AMF23" s="133"/>
+      <c r="AMG23" s="133"/>
+      <c r="AMH23" s="133"/>
+      <c r="AMI23" s="133"/>
+      <c r="AMJ23" s="133"/>
+      <c r="AMK23" s="133"/>
     </row>
     <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A24" s="102" t="s">
@@ -17821,7 +17821,7 @@
       <c r="D54" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="160" t="s">
+      <c r="E54" s="132" t="s">
         <v>200</v>
       </c>
       <c r="F54" s="104"/>
@@ -18858,7 +18858,7 @@
       <c r="D55" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="160" t="s">
+      <c r="E55" s="132" t="s">
         <v>219</v>
       </c>
       <c r="F55" s="104"/>
@@ -19895,7 +19895,7 @@
       <c r="D56" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="160" t="s">
+      <c r="E56" s="132" t="s">
         <v>220</v>
       </c>
       <c r="F56" s="104"/>
@@ -26901,12 +26901,12 @@
       <c r="M3"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -26945,12 +26945,12 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="12"/>
@@ -27269,11 +27269,11 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="65">
         <f>0.6+(0.01*SUM(D9*E9,D10*E10,D11*E11,D12*E12,D13*E13,D14*E14,D15*E15,D16*E16,D17*E17,D18*E18,D19*E19,D20*E20,D21*E21))</f>
         <v>0.79</v>
@@ -27320,12 +27320,12 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
       <c r="F26" s="66"/>
       <c r="G26" s="67"/>
       <c r="I26"/>
@@ -27334,11 +27334,11 @@
       <c r="B27" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
       <c r="F27" s="68" t="s">
         <v>34</v>
       </c>
@@ -27351,11 +27351,11 @@
       <c r="B28" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="30">
         <v>1.5</v>
       </c>
@@ -27368,11 +27368,11 @@
       <c r="B29" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="152" t="s">
+      <c r="C29" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="30">
         <v>0.5</v>
       </c>
@@ -27385,11 +27385,11 @@
       <c r="B30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
       <c r="F30" s="30">
         <v>1</v>
       </c>
@@ -27402,11 +27402,11 @@
       <c r="B31" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="152" t="s">
+      <c r="C31" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
       <c r="F31" s="30">
         <v>0.5</v>
       </c>
@@ -27419,11 +27419,11 @@
       <c r="B32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
       <c r="F32" s="30">
         <v>1</v>
       </c>
@@ -27436,11 +27436,11 @@
       <c r="B33" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="152" t="s">
+      <c r="C33" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
       <c r="F33" s="30">
         <v>2</v>
       </c>
@@ -27453,11 +27453,11 @@
       <c r="B34" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="152" t="s">
+      <c r="C34" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
       <c r="F34" s="30">
         <v>-1</v>
       </c>
@@ -27470,11 +27470,11 @@
       <c r="B35" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
       <c r="F35" s="30">
         <v>-1</v>
       </c>
@@ -27484,13 +27484,13 @@
       <c r="I35" s="64"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
       <c r="G36" s="69">
         <f>1.4+(-0.03*SUM(F28*G28,F29*G29,F30*G30,F31*G31,F32*G32,F33*G33,F34*G34,F35*G35))</f>
         <v>1.0999999999999999</v>
@@ -27500,11 +27500,6 @@
   </sheetData>
   <sheetProtection password="C6D5" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -27514,6 +27509,11 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -27554,19 +27554,19 @@
   <sheetData>
     <row r="1" spans="1:55" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="70"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
       <c r="M1" s="71"/>
       <c r="N1" s="70"/>
       <c r="O1" s="70"/>
@@ -29361,10 +29361,10 @@
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
       <c r="I30" s="70"/>
-      <c r="J30" s="158" t="s">
+      <c r="J30" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="158"/>
+      <c r="K30" s="162"/>
       <c r="L30" s="92">
         <v>8</v>
       </c>

--- a/documentos/Estimativa de Tamanho.xlsx
+++ b/documentos/Estimativa de Tamanho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB637741-1971-44C6-BB9E-026FE0680E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6E1950-27B8-4849-A638-63208A706C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="6300" windowWidth="21600" windowHeight="11385" tabRatio="439" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="439" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="221">
   <si>
     <t>Estimativa de Esforço de Projeto baseado em                                                                Pontos de Caso de Uso (vs 1.1)</t>
   </si>
@@ -668,9 +668,6 @@
     <t>Alterar Funcionário</t>
   </si>
   <si>
-    <t>Cadastrar Cliente</t>
-  </si>
-  <si>
     <t>Consultar Cliente</t>
   </si>
   <si>
@@ -711,12 +708,6 @@
   </si>
   <si>
     <t>Alterar Pagamento</t>
-  </si>
-  <si>
-    <t>Excluir Pagamento</t>
-  </si>
-  <si>
-    <t>[RFS16]</t>
   </si>
   <si>
     <t xml:space="preserve">Cadastrar Tipo de Imóvel </t>
@@ -1995,50 +1986,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2051,6 +1998,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2062,19 +2053,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2265,7 +2256,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2314,7 +2305,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2363,7 +2354,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2412,7 +2403,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2756,8 +2747,8 @@
   </sheetPr>
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2803,32 +2794,32 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
       <c r="K3" s="2"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="2"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2848,54 +2839,54 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="137" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139" t="s">
+      <c r="C7" s="145"/>
+      <c r="D7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="140"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="138"/>
+      <c r="G8" s="145"/>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2908,14 +2899,14 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="6"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -2950,18 +2941,18 @@
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12"/>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2972,21 +2963,21 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="9">
         <f>(Atores!D10+'RFS ou RFC'!D10)*Fatores!E22*Fatores!G36</f>
         <v>112.101</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
       <c r="J13" s="10">
         <f t="shared" ref="J13:J20" si="0">$E$13*$E$14*K13</f>
         <v>15.694140000000001</v>
@@ -2999,20 +2990,20 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
       <c r="E14" s="13">
         <v>3</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="146" t="s">
+      <c r="G14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
         <v>55.303159999999998</v>
@@ -3025,16 +3016,16 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="146" t="s">
+      <c r="G15" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>13.82579</v>
@@ -3047,16 +3038,16 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" s="146" t="s">
+      <c r="G16" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
         <v>22.420200000000001</v>
@@ -3074,11 +3065,11 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17" s="149" t="s">
+      <c r="G17" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
         <v>186.83500000000001</v>
@@ -3096,11 +3087,11 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18" s="149" t="s">
+      <c r="G18" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
       <c r="J18" s="14">
         <f t="shared" si="0"/>
         <v>7.4733999999999998</v>
@@ -3117,11 +3108,11 @@
       <c r="D19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="149" t="s">
+      <c r="G19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="14">
         <f>$E$13*$E$14*K19</f>
         <v>22.793870000000002</v>
@@ -3140,11 +3131,11 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="149" t="s">
+      <c r="G20" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
         <v>11.95744</v>
@@ -3161,11 +3152,11 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21" s="150" t="s">
+      <c r="G21" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
       <c r="J21" s="18">
         <f>SUM(J13:J20)</f>
         <v>336.30300000000011</v>
@@ -3177,31 +3168,31 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -3259,47 +3250,47 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
     </row>
     <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3594,10 +3585,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AMK1027"/>
+  <dimension ref="A1:AMK1026"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3771,10 +3762,10 @@
     </row>
     <row r="13" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" s="126">
         <v>1</v>
@@ -4807,10 +4798,10 @@
     </row>
     <row r="14" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="110" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="126">
         <v>1</v>
@@ -4820,7 +4811,7 @@
         <v>Simples</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="112"/>
       <c r="G14" s="112"/>
@@ -5843,10 +5834,10 @@
     </row>
     <row r="15" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="110" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15" s="110" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="126">
         <v>2</v>
@@ -5856,7 +5847,7 @@
         <v>Simples</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F15" s="112"/>
       <c r="G15" s="112"/>
@@ -6879,10 +6870,10 @@
     </row>
     <row r="16" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="126">
         <v>2</v>
@@ -6892,7 +6883,7 @@
         <v>Simples</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112"/>
@@ -7915,10 +7906,10 @@
     </row>
     <row r="17" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="126">
         <v>4</v>
@@ -7928,7 +7919,7 @@
         <v>Médio</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F17" s="112"/>
       <c r="G17" s="112"/>
@@ -8951,10 +8942,10 @@
     </row>
     <row r="18" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" s="126">
         <v>4</v>
@@ -8964,7 +8955,7 @@
         <v>Médio</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="112"/>
@@ -9987,10 +9978,10 @@
     </row>
     <row r="19" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="110" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" s="126">
         <v>1</v>
@@ -10000,7 +9991,7 @@
         <v>Simples</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="112"/>
@@ -11023,10 +11014,10 @@
     </row>
     <row r="20" spans="1:1025" s="113" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" s="126">
         <v>4</v>
@@ -11036,7 +11027,7 @@
         <v>Médio</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" s="112"/>
       <c r="G20" s="112"/>
@@ -12059,10 +12050,10 @@
     </row>
     <row r="21" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="110" t="s">
         <v>213</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>216</v>
       </c>
       <c r="C21" s="126">
         <v>1</v>
@@ -12072,7 +12063,7 @@
         <v>Simples</v>
       </c>
       <c r="E21" s="132" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
@@ -13095,10 +13086,10 @@
     </row>
     <row r="22" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="110" t="s">
         <v>214</v>
-      </c>
-      <c r="B22" s="110" t="s">
-        <v>217</v>
       </c>
       <c r="C22" s="126">
         <v>4</v>
@@ -13108,7 +13099,7 @@
         <v>Médio</v>
       </c>
       <c r="E22" s="132" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
@@ -14131,10 +14122,10 @@
     </row>
     <row r="23" spans="1:1025" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="110" t="s">
         <v>215</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>218</v>
       </c>
       <c r="C23" s="126">
         <v>2</v>
@@ -14144,7 +14135,7 @@
         <v>Simples</v>
       </c>
       <c r="E23" s="132" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
@@ -15255,7 +15246,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="C28" s="119">
         <v>1</v>
@@ -15264,7 +15255,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H28"/>
       <c r="O28" s="58">
@@ -15276,7 +15267,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="119">
         <v>1</v>
@@ -15285,7 +15276,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H29" s="44"/>
       <c r="O29" s="58">
@@ -15297,7 +15288,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="119">
         <v>1</v>
@@ -15306,7 +15297,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="44"/>
       <c r="O30" s="58">
@@ -15318,7 +15309,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="119">
         <v>1</v>
@@ -15327,7 +15318,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H31" s="44"/>
       <c r="O31" s="58">
@@ -15339,7 +15330,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="119">
         <v>3</v>
@@ -15348,7 +15339,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H32" s="44"/>
       <c r="O32" s="58">
@@ -15360,7 +15351,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="119">
         <v>1</v>
@@ -15369,7 +15360,7 @@
         <v>36</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H33" s="44"/>
       <c r="O33" s="58">
@@ -15381,7 +15372,7 @@
         <v>63</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="119">
         <v>1</v>
@@ -15390,7 +15381,7 @@
         <v>36</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O34" s="58">
         <v>11</v>
@@ -15398,10 +15389,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="119">
         <v>1</v>
@@ -15410,7 +15401,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O35" s="58">
         <v>12</v>
@@ -15418,10 +15409,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="119">
         <v>2</v>
@@ -15430,7 +15421,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O36" s="58">
         <v>13</v>
@@ -15438,10 +15429,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="119">
         <v>2</v>
@@ -15450,7 +15441,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O37" s="58">
         <v>14</v>
@@ -15458,10 +15449,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="119">
         <v>2</v>
@@ -15470,7 +15461,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O38" s="58">
         <v>15</v>
@@ -15478,19 +15469,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="57" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O39" s="58">
         <v>16</v>
@@ -15498,10 +15489,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="119">
         <v>1</v>
@@ -15510,7 +15501,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O40" s="58">
         <v>17</v>
@@ -15518,10 +15509,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" s="119">
         <v>1</v>
@@ -15530,7 +15521,7 @@
         <v>36</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O41" s="58">
         <v>18</v>
@@ -15538,10 +15529,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C42" s="119">
         <v>1</v>
@@ -15550,7 +15541,7 @@
         <v>36</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O42" s="58">
         <v>19</v>
@@ -15558,19 +15549,19 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O43" s="58">
         <v>21</v>
@@ -15578,19 +15569,19 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44" s="119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O44" s="58">
         <v>22</v>
@@ -15598,19 +15589,19 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" s="119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>36</v>
       </c>
       <c r="E45" s="56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O45" s="58">
         <v>23</v>
@@ -15618,19 +15609,19 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="55" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O46" s="58">
         <v>24</v>
@@ -15638,19 +15629,19 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="55" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O47" s="58">
         <v>25</v>
@@ -15658,19 +15649,19 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="55" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="57" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O48" s="58">
         <v>26</v>
@@ -15678,68 +15669,68 @@
     </row>
     <row r="49" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A49" s="55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O49" s="58">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="119">
-        <v>4</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>210</v>
+      <c r="A50" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="120">
+        <v>1</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="98" t="s">
+        <v>208</v>
       </c>
       <c r="O50" s="58">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A51" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="120">
+      <c r="A51" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="121">
         <v>1</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="98" t="s">
-        <v>211</v>
+      <c r="E51" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="O51" s="58"/>
     </row>
     <row r="52" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C52" s="121">
         <v>1</v>
@@ -15748,7 +15739,7 @@
         <v>36</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" s="104"/>
       <c r="G52" s="104"/>
@@ -16773,10 +16764,10 @@
     </row>
     <row r="53" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>169</v>
+        <v>218</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>213</v>
       </c>
       <c r="C53" s="121">
         <v>1</v>
@@ -16784,8 +16775,8 @@
       <c r="D53" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>212</v>
+      <c r="E53" s="132" t="s">
+        <v>197</v>
       </c>
       <c r="F53" s="104"/>
       <c r="G53" s="104"/>
@@ -17810,19 +17801,19 @@
     </row>
     <row r="54" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B54" s="110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C54" s="121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" s="103" t="s">
         <v>36</v>
       </c>
       <c r="E54" s="132" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F54" s="104"/>
       <c r="G54" s="104"/>
@@ -18847,19 +18838,19 @@
     </row>
     <row r="55" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" s="110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C55" s="121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" s="103" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="132" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F55" s="104"/>
       <c r="G55" s="104"/>
@@ -19883,21 +19874,19 @@
       <c r="AMK55" s="104"/>
     </row>
     <row r="56" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="110" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="121">
-        <v>2</v>
-      </c>
-      <c r="D56" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="132" t="s">
-        <v>220</v>
-      </c>
+      <c r="A56" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="37">
+        <f>SUBTOTAL(103,B13:B55)</f>
+        <v>43</v>
+      </c>
+      <c r="C56" s="122">
+        <f>SUBTOTAL(109,C13:C55)</f>
+        <v>82</v>
+      </c>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
       <c r="F56" s="104"/>
       <c r="G56" s="104"/>
       <c r="H56" s="104"/>
@@ -19907,7 +19896,9 @@
       <c r="L56" s="104"/>
       <c r="M56" s="104"/>
       <c r="N56" s="104"/>
-      <c r="O56" s="105"/>
+      <c r="O56" s="105">
+        <v>29</v>
+      </c>
       <c r="P56" s="104"/>
       <c r="Q56" s="104"/>
       <c r="R56" s="104"/>
@@ -20919,5890 +20910,4853 @@
       <c r="AMJ56" s="104"/>
       <c r="AMK56" s="104"/>
     </row>
-    <row r="57" spans="1:1025" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="37">
-        <f>SUBTOTAL(103,B13:B53)</f>
-        <v>41</v>
-      </c>
-      <c r="C57" s="122">
-        <f>SUBTOTAL(109,C13:C56)</f>
-        <v>84</v>
-      </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
-      <c r="O57" s="105">
-        <v>29</v>
-      </c>
-      <c r="P57" s="104"/>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="104"/>
-      <c r="S57" s="104"/>
-      <c r="T57" s="104"/>
-      <c r="U57" s="104"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="104"/>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="104"/>
-      <c r="AB57" s="104"/>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="104"/>
-      <c r="AF57" s="104"/>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="104"/>
-      <c r="AI57" s="104"/>
-      <c r="AJ57" s="104"/>
-      <c r="AK57" s="104"/>
-      <c r="AL57" s="104"/>
-      <c r="AM57" s="104"/>
-      <c r="AN57" s="104"/>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="104"/>
-      <c r="AQ57" s="104"/>
-      <c r="AR57" s="104"/>
-      <c r="AS57" s="104"/>
-      <c r="AT57" s="104"/>
-      <c r="AU57" s="104"/>
-      <c r="AV57" s="104"/>
-      <c r="AW57" s="104"/>
-      <c r="AX57" s="104"/>
-      <c r="AY57" s="104"/>
-      <c r="AZ57" s="104"/>
-      <c r="BA57" s="104"/>
-      <c r="BB57" s="104"/>
-      <c r="BC57" s="104"/>
-      <c r="BD57" s="104"/>
-      <c r="BE57" s="104"/>
-      <c r="BF57" s="104"/>
-      <c r="BG57" s="104"/>
-      <c r="BH57" s="104"/>
-      <c r="BI57" s="104"/>
-      <c r="BJ57" s="104"/>
-      <c r="BK57" s="104"/>
-      <c r="BL57" s="104"/>
-      <c r="BM57" s="104"/>
-      <c r="BN57" s="104"/>
-      <c r="BO57" s="104"/>
-      <c r="BP57" s="104"/>
-      <c r="BQ57" s="104"/>
-      <c r="BR57" s="104"/>
-      <c r="BS57" s="104"/>
-      <c r="BT57" s="104"/>
-      <c r="BU57" s="104"/>
-      <c r="BV57" s="104"/>
-      <c r="BW57" s="104"/>
-      <c r="BX57" s="104"/>
-      <c r="BY57" s="104"/>
-      <c r="BZ57" s="104"/>
-      <c r="CA57" s="104"/>
-      <c r="CB57" s="104"/>
-      <c r="CC57" s="104"/>
-      <c r="CD57" s="104"/>
-      <c r="CE57" s="104"/>
-      <c r="CF57" s="104"/>
-      <c r="CG57" s="104"/>
-      <c r="CH57" s="104"/>
-      <c r="CI57" s="104"/>
-      <c r="CJ57" s="104"/>
-      <c r="CK57" s="104"/>
-      <c r="CL57" s="104"/>
-      <c r="CM57" s="104"/>
-      <c r="CN57" s="104"/>
-      <c r="CO57" s="104"/>
-      <c r="CP57" s="104"/>
-      <c r="CQ57" s="104"/>
-      <c r="CR57" s="104"/>
-      <c r="CS57" s="104"/>
-      <c r="CT57" s="104"/>
-      <c r="CU57" s="104"/>
-      <c r="CV57" s="104"/>
-      <c r="CW57" s="104"/>
-      <c r="CX57" s="104"/>
-      <c r="CY57" s="104"/>
-      <c r="CZ57" s="104"/>
-      <c r="DA57" s="104"/>
-      <c r="DB57" s="104"/>
-      <c r="DC57" s="104"/>
-      <c r="DD57" s="104"/>
-      <c r="DE57" s="104"/>
-      <c r="DF57" s="104"/>
-      <c r="DG57" s="104"/>
-      <c r="DH57" s="104"/>
-      <c r="DI57" s="104"/>
-      <c r="DJ57" s="104"/>
-      <c r="DK57" s="104"/>
-      <c r="DL57" s="104"/>
-      <c r="DM57" s="104"/>
-      <c r="DN57" s="104"/>
-      <c r="DO57" s="104"/>
-      <c r="DP57" s="104"/>
-      <c r="DQ57" s="104"/>
-      <c r="DR57" s="104"/>
-      <c r="DS57" s="104"/>
-      <c r="DT57" s="104"/>
-      <c r="DU57" s="104"/>
-      <c r="DV57" s="104"/>
-      <c r="DW57" s="104"/>
-      <c r="DX57" s="104"/>
-      <c r="DY57" s="104"/>
-      <c r="DZ57" s="104"/>
-      <c r="EA57" s="104"/>
-      <c r="EB57" s="104"/>
-      <c r="EC57" s="104"/>
-      <c r="ED57" s="104"/>
-      <c r="EE57" s="104"/>
-      <c r="EF57" s="104"/>
-      <c r="EG57" s="104"/>
-      <c r="EH57" s="104"/>
-      <c r="EI57" s="104"/>
-      <c r="EJ57" s="104"/>
-      <c r="EK57" s="104"/>
-      <c r="EL57" s="104"/>
-      <c r="EM57" s="104"/>
-      <c r="EN57" s="104"/>
-      <c r="EO57" s="104"/>
-      <c r="EP57" s="104"/>
-      <c r="EQ57" s="104"/>
-      <c r="ER57" s="104"/>
-      <c r="ES57" s="104"/>
-      <c r="ET57" s="104"/>
-      <c r="EU57" s="104"/>
-      <c r="EV57" s="104"/>
-      <c r="EW57" s="104"/>
-      <c r="EX57" s="104"/>
-      <c r="EY57" s="104"/>
-      <c r="EZ57" s="104"/>
-      <c r="FA57" s="104"/>
-      <c r="FB57" s="104"/>
-      <c r="FC57" s="104"/>
-      <c r="FD57" s="104"/>
-      <c r="FE57" s="104"/>
-      <c r="FF57" s="104"/>
-      <c r="FG57" s="104"/>
-      <c r="FH57" s="104"/>
-      <c r="FI57" s="104"/>
-      <c r="FJ57" s="104"/>
-      <c r="FK57" s="104"/>
-      <c r="FL57" s="104"/>
-      <c r="FM57" s="104"/>
-      <c r="FN57" s="104"/>
-      <c r="FO57" s="104"/>
-      <c r="FP57" s="104"/>
-      <c r="FQ57" s="104"/>
-      <c r="FR57" s="104"/>
-      <c r="FS57" s="104"/>
-      <c r="FT57" s="104"/>
-      <c r="FU57" s="104"/>
-      <c r="FV57" s="104"/>
-      <c r="FW57" s="104"/>
-      <c r="FX57" s="104"/>
-      <c r="FY57" s="104"/>
-      <c r="FZ57" s="104"/>
-      <c r="GA57" s="104"/>
-      <c r="GB57" s="104"/>
-      <c r="GC57" s="104"/>
-      <c r="GD57" s="104"/>
-      <c r="GE57" s="104"/>
-      <c r="GF57" s="104"/>
-      <c r="GG57" s="104"/>
-      <c r="GH57" s="104"/>
-      <c r="GI57" s="104"/>
-      <c r="GJ57" s="104"/>
-      <c r="GK57" s="104"/>
-      <c r="GL57" s="104"/>
-      <c r="GM57" s="104"/>
-      <c r="GN57" s="104"/>
-      <c r="GO57" s="104"/>
-      <c r="GP57" s="104"/>
-      <c r="GQ57" s="104"/>
-      <c r="GR57" s="104"/>
-      <c r="GS57" s="104"/>
-      <c r="GT57" s="104"/>
-      <c r="GU57" s="104"/>
-      <c r="GV57" s="104"/>
-      <c r="GW57" s="104"/>
-      <c r="GX57" s="104"/>
-      <c r="GY57" s="104"/>
-      <c r="GZ57" s="104"/>
-      <c r="HA57" s="104"/>
-      <c r="HB57" s="104"/>
-      <c r="HC57" s="104"/>
-      <c r="HD57" s="104"/>
-      <c r="HE57" s="104"/>
-      <c r="HF57" s="104"/>
-      <c r="HG57" s="104"/>
-      <c r="HH57" s="104"/>
-      <c r="HI57" s="104"/>
-      <c r="HJ57" s="104"/>
-      <c r="HK57" s="104"/>
-      <c r="HL57" s="104"/>
-      <c r="HM57" s="104"/>
-      <c r="HN57" s="104"/>
-      <c r="HO57" s="104"/>
-      <c r="HP57" s="104"/>
-      <c r="HQ57" s="104"/>
-      <c r="HR57" s="104"/>
-      <c r="HS57" s="104"/>
-      <c r="HT57" s="104"/>
-      <c r="HU57" s="104"/>
-      <c r="HV57" s="104"/>
-      <c r="HW57" s="104"/>
-      <c r="HX57" s="104"/>
-      <c r="HY57" s="104"/>
-      <c r="HZ57" s="104"/>
-      <c r="IA57" s="104"/>
-      <c r="IB57" s="104"/>
-      <c r="IC57" s="104"/>
-      <c r="ID57" s="104"/>
-      <c r="IE57" s="104"/>
-      <c r="IF57" s="104"/>
-      <c r="IG57" s="104"/>
-      <c r="IH57" s="104"/>
-      <c r="II57" s="104"/>
-      <c r="IJ57" s="104"/>
-      <c r="IK57" s="104"/>
-      <c r="IL57" s="104"/>
-      <c r="IM57" s="104"/>
-      <c r="IN57" s="104"/>
-      <c r="IO57" s="104"/>
-      <c r="IP57" s="104"/>
-      <c r="IQ57" s="104"/>
-      <c r="IR57" s="104"/>
-      <c r="IS57" s="104"/>
-      <c r="IT57" s="104"/>
-      <c r="IU57" s="104"/>
-      <c r="IV57" s="104"/>
-      <c r="IW57" s="104"/>
-      <c r="IX57" s="104"/>
-      <c r="IY57" s="104"/>
-      <c r="IZ57" s="104"/>
-      <c r="JA57" s="104"/>
-      <c r="JB57" s="104"/>
-      <c r="JC57" s="104"/>
-      <c r="JD57" s="104"/>
-      <c r="JE57" s="104"/>
-      <c r="JF57" s="104"/>
-      <c r="JG57" s="104"/>
-      <c r="JH57" s="104"/>
-      <c r="JI57" s="104"/>
-      <c r="JJ57" s="104"/>
-      <c r="JK57" s="104"/>
-      <c r="JL57" s="104"/>
-      <c r="JM57" s="104"/>
-      <c r="JN57" s="104"/>
-      <c r="JO57" s="104"/>
-      <c r="JP57" s="104"/>
-      <c r="JQ57" s="104"/>
-      <c r="JR57" s="104"/>
-      <c r="JS57" s="104"/>
-      <c r="JT57" s="104"/>
-      <c r="JU57" s="104"/>
-      <c r="JV57" s="104"/>
-      <c r="JW57" s="104"/>
-      <c r="JX57" s="104"/>
-      <c r="JY57" s="104"/>
-      <c r="JZ57" s="104"/>
-      <c r="KA57" s="104"/>
-      <c r="KB57" s="104"/>
-      <c r="KC57" s="104"/>
-      <c r="KD57" s="104"/>
-      <c r="KE57" s="104"/>
-      <c r="KF57" s="104"/>
-      <c r="KG57" s="104"/>
-      <c r="KH57" s="104"/>
-      <c r="KI57" s="104"/>
-      <c r="KJ57" s="104"/>
-      <c r="KK57" s="104"/>
-      <c r="KL57" s="104"/>
-      <c r="KM57" s="104"/>
-      <c r="KN57" s="104"/>
-      <c r="KO57" s="104"/>
-      <c r="KP57" s="104"/>
-      <c r="KQ57" s="104"/>
-      <c r="KR57" s="104"/>
-      <c r="KS57" s="104"/>
-      <c r="KT57" s="104"/>
-      <c r="KU57" s="104"/>
-      <c r="KV57" s="104"/>
-      <c r="KW57" s="104"/>
-      <c r="KX57" s="104"/>
-      <c r="KY57" s="104"/>
-      <c r="KZ57" s="104"/>
-      <c r="LA57" s="104"/>
-      <c r="LB57" s="104"/>
-      <c r="LC57" s="104"/>
-      <c r="LD57" s="104"/>
-      <c r="LE57" s="104"/>
-      <c r="LF57" s="104"/>
-      <c r="LG57" s="104"/>
-      <c r="LH57" s="104"/>
-      <c r="LI57" s="104"/>
-      <c r="LJ57" s="104"/>
-      <c r="LK57" s="104"/>
-      <c r="LL57" s="104"/>
-      <c r="LM57" s="104"/>
-      <c r="LN57" s="104"/>
-      <c r="LO57" s="104"/>
-      <c r="LP57" s="104"/>
-      <c r="LQ57" s="104"/>
-      <c r="LR57" s="104"/>
-      <c r="LS57" s="104"/>
-      <c r="LT57" s="104"/>
-      <c r="LU57" s="104"/>
-      <c r="LV57" s="104"/>
-      <c r="LW57" s="104"/>
-      <c r="LX57" s="104"/>
-      <c r="LY57" s="104"/>
-      <c r="LZ57" s="104"/>
-      <c r="MA57" s="104"/>
-      <c r="MB57" s="104"/>
-      <c r="MC57" s="104"/>
-      <c r="MD57" s="104"/>
-      <c r="ME57" s="104"/>
-      <c r="MF57" s="104"/>
-      <c r="MG57" s="104"/>
-      <c r="MH57" s="104"/>
-      <c r="MI57" s="104"/>
-      <c r="MJ57" s="104"/>
-      <c r="MK57" s="104"/>
-      <c r="ML57" s="104"/>
-      <c r="MM57" s="104"/>
-      <c r="MN57" s="104"/>
-      <c r="MO57" s="104"/>
-      <c r="MP57" s="104"/>
-      <c r="MQ57" s="104"/>
-      <c r="MR57" s="104"/>
-      <c r="MS57" s="104"/>
-      <c r="MT57" s="104"/>
-      <c r="MU57" s="104"/>
-      <c r="MV57" s="104"/>
-      <c r="MW57" s="104"/>
-      <c r="MX57" s="104"/>
-      <c r="MY57" s="104"/>
-      <c r="MZ57" s="104"/>
-      <c r="NA57" s="104"/>
-      <c r="NB57" s="104"/>
-      <c r="NC57" s="104"/>
-      <c r="ND57" s="104"/>
-      <c r="NE57" s="104"/>
-      <c r="NF57" s="104"/>
-      <c r="NG57" s="104"/>
-      <c r="NH57" s="104"/>
-      <c r="NI57" s="104"/>
-      <c r="NJ57" s="104"/>
-      <c r="NK57" s="104"/>
-      <c r="NL57" s="104"/>
-      <c r="NM57" s="104"/>
-      <c r="NN57" s="104"/>
-      <c r="NO57" s="104"/>
-      <c r="NP57" s="104"/>
-      <c r="NQ57" s="104"/>
-      <c r="NR57" s="104"/>
-      <c r="NS57" s="104"/>
-      <c r="NT57" s="104"/>
-      <c r="NU57" s="104"/>
-      <c r="NV57" s="104"/>
-      <c r="NW57" s="104"/>
-      <c r="NX57" s="104"/>
-      <c r="NY57" s="104"/>
-      <c r="NZ57" s="104"/>
-      <c r="OA57" s="104"/>
-      <c r="OB57" s="104"/>
-      <c r="OC57" s="104"/>
-      <c r="OD57" s="104"/>
-      <c r="OE57" s="104"/>
-      <c r="OF57" s="104"/>
-      <c r="OG57" s="104"/>
-      <c r="OH57" s="104"/>
-      <c r="OI57" s="104"/>
-      <c r="OJ57" s="104"/>
-      <c r="OK57" s="104"/>
-      <c r="OL57" s="104"/>
-      <c r="OM57" s="104"/>
-      <c r="ON57" s="104"/>
-      <c r="OO57" s="104"/>
-      <c r="OP57" s="104"/>
-      <c r="OQ57" s="104"/>
-      <c r="OR57" s="104"/>
-      <c r="OS57" s="104"/>
-      <c r="OT57" s="104"/>
-      <c r="OU57" s="104"/>
-      <c r="OV57" s="104"/>
-      <c r="OW57" s="104"/>
-      <c r="OX57" s="104"/>
-      <c r="OY57" s="104"/>
-      <c r="OZ57" s="104"/>
-      <c r="PA57" s="104"/>
-      <c r="PB57" s="104"/>
-      <c r="PC57" s="104"/>
-      <c r="PD57" s="104"/>
-      <c r="PE57" s="104"/>
-      <c r="PF57" s="104"/>
-      <c r="PG57" s="104"/>
-      <c r="PH57" s="104"/>
-      <c r="PI57" s="104"/>
-      <c r="PJ57" s="104"/>
-      <c r="PK57" s="104"/>
-      <c r="PL57" s="104"/>
-      <c r="PM57" s="104"/>
-      <c r="PN57" s="104"/>
-      <c r="PO57" s="104"/>
-      <c r="PP57" s="104"/>
-      <c r="PQ57" s="104"/>
-      <c r="PR57" s="104"/>
-      <c r="PS57" s="104"/>
-      <c r="PT57" s="104"/>
-      <c r="PU57" s="104"/>
-      <c r="PV57" s="104"/>
-      <c r="PW57" s="104"/>
-      <c r="PX57" s="104"/>
-      <c r="PY57" s="104"/>
-      <c r="PZ57" s="104"/>
-      <c r="QA57" s="104"/>
-      <c r="QB57" s="104"/>
-      <c r="QC57" s="104"/>
-      <c r="QD57" s="104"/>
-      <c r="QE57" s="104"/>
-      <c r="QF57" s="104"/>
-      <c r="QG57" s="104"/>
-      <c r="QH57" s="104"/>
-      <c r="QI57" s="104"/>
-      <c r="QJ57" s="104"/>
-      <c r="QK57" s="104"/>
-      <c r="QL57" s="104"/>
-      <c r="QM57" s="104"/>
-      <c r="QN57" s="104"/>
-      <c r="QO57" s="104"/>
-      <c r="QP57" s="104"/>
-      <c r="QQ57" s="104"/>
-      <c r="QR57" s="104"/>
-      <c r="QS57" s="104"/>
-      <c r="QT57" s="104"/>
-      <c r="QU57" s="104"/>
-      <c r="QV57" s="104"/>
-      <c r="QW57" s="104"/>
-      <c r="QX57" s="104"/>
-      <c r="QY57" s="104"/>
-      <c r="QZ57" s="104"/>
-      <c r="RA57" s="104"/>
-      <c r="RB57" s="104"/>
-      <c r="RC57" s="104"/>
-      <c r="RD57" s="104"/>
-      <c r="RE57" s="104"/>
-      <c r="RF57" s="104"/>
-      <c r="RG57" s="104"/>
-      <c r="RH57" s="104"/>
-      <c r="RI57" s="104"/>
-      <c r="RJ57" s="104"/>
-      <c r="RK57" s="104"/>
-      <c r="RL57" s="104"/>
-      <c r="RM57" s="104"/>
-      <c r="RN57" s="104"/>
-      <c r="RO57" s="104"/>
-      <c r="RP57" s="104"/>
-      <c r="RQ57" s="104"/>
-      <c r="RR57" s="104"/>
-      <c r="RS57" s="104"/>
-      <c r="RT57" s="104"/>
-      <c r="RU57" s="104"/>
-      <c r="RV57" s="104"/>
-      <c r="RW57" s="104"/>
-      <c r="RX57" s="104"/>
-      <c r="RY57" s="104"/>
-      <c r="RZ57" s="104"/>
-      <c r="SA57" s="104"/>
-      <c r="SB57" s="104"/>
-      <c r="SC57" s="104"/>
-      <c r="SD57" s="104"/>
-      <c r="SE57" s="104"/>
-      <c r="SF57" s="104"/>
-      <c r="SG57" s="104"/>
-      <c r="SH57" s="104"/>
-      <c r="SI57" s="104"/>
-      <c r="SJ57" s="104"/>
-      <c r="SK57" s="104"/>
-      <c r="SL57" s="104"/>
-      <c r="SM57" s="104"/>
-      <c r="SN57" s="104"/>
-      <c r="SO57" s="104"/>
-      <c r="SP57" s="104"/>
-      <c r="SQ57" s="104"/>
-      <c r="SR57" s="104"/>
-      <c r="SS57" s="104"/>
-      <c r="ST57" s="104"/>
-      <c r="SU57" s="104"/>
-      <c r="SV57" s="104"/>
-      <c r="SW57" s="104"/>
-      <c r="SX57" s="104"/>
-      <c r="SY57" s="104"/>
-      <c r="SZ57" s="104"/>
-      <c r="TA57" s="104"/>
-      <c r="TB57" s="104"/>
-      <c r="TC57" s="104"/>
-      <c r="TD57" s="104"/>
-      <c r="TE57" s="104"/>
-      <c r="TF57" s="104"/>
-      <c r="TG57" s="104"/>
-      <c r="TH57" s="104"/>
-      <c r="TI57" s="104"/>
-      <c r="TJ57" s="104"/>
-      <c r="TK57" s="104"/>
-      <c r="TL57" s="104"/>
-      <c r="TM57" s="104"/>
-      <c r="TN57" s="104"/>
-      <c r="TO57" s="104"/>
-      <c r="TP57" s="104"/>
-      <c r="TQ57" s="104"/>
-      <c r="TR57" s="104"/>
-      <c r="TS57" s="104"/>
-      <c r="TT57" s="104"/>
-      <c r="TU57" s="104"/>
-      <c r="TV57" s="104"/>
-      <c r="TW57" s="104"/>
-      <c r="TX57" s="104"/>
-      <c r="TY57" s="104"/>
-      <c r="TZ57" s="104"/>
-      <c r="UA57" s="104"/>
-      <c r="UB57" s="104"/>
-      <c r="UC57" s="104"/>
-      <c r="UD57" s="104"/>
-      <c r="UE57" s="104"/>
-      <c r="UF57" s="104"/>
-      <c r="UG57" s="104"/>
-      <c r="UH57" s="104"/>
-      <c r="UI57" s="104"/>
-      <c r="UJ57" s="104"/>
-      <c r="UK57" s="104"/>
-      <c r="UL57" s="104"/>
-      <c r="UM57" s="104"/>
-      <c r="UN57" s="104"/>
-      <c r="UO57" s="104"/>
-      <c r="UP57" s="104"/>
-      <c r="UQ57" s="104"/>
-      <c r="UR57" s="104"/>
-      <c r="US57" s="104"/>
-      <c r="UT57" s="104"/>
-      <c r="UU57" s="104"/>
-      <c r="UV57" s="104"/>
-      <c r="UW57" s="104"/>
-      <c r="UX57" s="104"/>
-      <c r="UY57" s="104"/>
-      <c r="UZ57" s="104"/>
-      <c r="VA57" s="104"/>
-      <c r="VB57" s="104"/>
-      <c r="VC57" s="104"/>
-      <c r="VD57" s="104"/>
-      <c r="VE57" s="104"/>
-      <c r="VF57" s="104"/>
-      <c r="VG57" s="104"/>
-      <c r="VH57" s="104"/>
-      <c r="VI57" s="104"/>
-      <c r="VJ57" s="104"/>
-      <c r="VK57" s="104"/>
-      <c r="VL57" s="104"/>
-      <c r="VM57" s="104"/>
-      <c r="VN57" s="104"/>
-      <c r="VO57" s="104"/>
-      <c r="VP57" s="104"/>
-      <c r="VQ57" s="104"/>
-      <c r="VR57" s="104"/>
-      <c r="VS57" s="104"/>
-      <c r="VT57" s="104"/>
-      <c r="VU57" s="104"/>
-      <c r="VV57" s="104"/>
-      <c r="VW57" s="104"/>
-      <c r="VX57" s="104"/>
-      <c r="VY57" s="104"/>
-      <c r="VZ57" s="104"/>
-      <c r="WA57" s="104"/>
-      <c r="WB57" s="104"/>
-      <c r="WC57" s="104"/>
-      <c r="WD57" s="104"/>
-      <c r="WE57" s="104"/>
-      <c r="WF57" s="104"/>
-      <c r="WG57" s="104"/>
-      <c r="WH57" s="104"/>
-      <c r="WI57" s="104"/>
-      <c r="WJ57" s="104"/>
-      <c r="WK57" s="104"/>
-      <c r="WL57" s="104"/>
-      <c r="WM57" s="104"/>
-      <c r="WN57" s="104"/>
-      <c r="WO57" s="104"/>
-      <c r="WP57" s="104"/>
-      <c r="WQ57" s="104"/>
-      <c r="WR57" s="104"/>
-      <c r="WS57" s="104"/>
-      <c r="WT57" s="104"/>
-      <c r="WU57" s="104"/>
-      <c r="WV57" s="104"/>
-      <c r="WW57" s="104"/>
-      <c r="WX57" s="104"/>
-      <c r="WY57" s="104"/>
-      <c r="WZ57" s="104"/>
-      <c r="XA57" s="104"/>
-      <c r="XB57" s="104"/>
-      <c r="XC57" s="104"/>
-      <c r="XD57" s="104"/>
-      <c r="XE57" s="104"/>
-      <c r="XF57" s="104"/>
-      <c r="XG57" s="104"/>
-      <c r="XH57" s="104"/>
-      <c r="XI57" s="104"/>
-      <c r="XJ57" s="104"/>
-      <c r="XK57" s="104"/>
-      <c r="XL57" s="104"/>
-      <c r="XM57" s="104"/>
-      <c r="XN57" s="104"/>
-      <c r="XO57" s="104"/>
-      <c r="XP57" s="104"/>
-      <c r="XQ57" s="104"/>
-      <c r="XR57" s="104"/>
-      <c r="XS57" s="104"/>
-      <c r="XT57" s="104"/>
-      <c r="XU57" s="104"/>
-      <c r="XV57" s="104"/>
-      <c r="XW57" s="104"/>
-      <c r="XX57" s="104"/>
-      <c r="XY57" s="104"/>
-      <c r="XZ57" s="104"/>
-      <c r="YA57" s="104"/>
-      <c r="YB57" s="104"/>
-      <c r="YC57" s="104"/>
-      <c r="YD57" s="104"/>
-      <c r="YE57" s="104"/>
-      <c r="YF57" s="104"/>
-      <c r="YG57" s="104"/>
-      <c r="YH57" s="104"/>
-      <c r="YI57" s="104"/>
-      <c r="YJ57" s="104"/>
-      <c r="YK57" s="104"/>
-      <c r="YL57" s="104"/>
-      <c r="YM57" s="104"/>
-      <c r="YN57" s="104"/>
-      <c r="YO57" s="104"/>
-      <c r="YP57" s="104"/>
-      <c r="YQ57" s="104"/>
-      <c r="YR57" s="104"/>
-      <c r="YS57" s="104"/>
-      <c r="YT57" s="104"/>
-      <c r="YU57" s="104"/>
-      <c r="YV57" s="104"/>
-      <c r="YW57" s="104"/>
-      <c r="YX57" s="104"/>
-      <c r="YY57" s="104"/>
-      <c r="YZ57" s="104"/>
-      <c r="ZA57" s="104"/>
-      <c r="ZB57" s="104"/>
-      <c r="ZC57" s="104"/>
-      <c r="ZD57" s="104"/>
-      <c r="ZE57" s="104"/>
-      <c r="ZF57" s="104"/>
-      <c r="ZG57" s="104"/>
-      <c r="ZH57" s="104"/>
-      <c r="ZI57" s="104"/>
-      <c r="ZJ57" s="104"/>
-      <c r="ZK57" s="104"/>
-      <c r="ZL57" s="104"/>
-      <c r="ZM57" s="104"/>
-      <c r="ZN57" s="104"/>
-      <c r="ZO57" s="104"/>
-      <c r="ZP57" s="104"/>
-      <c r="ZQ57" s="104"/>
-      <c r="ZR57" s="104"/>
-      <c r="ZS57" s="104"/>
-      <c r="ZT57" s="104"/>
-      <c r="ZU57" s="104"/>
-      <c r="ZV57" s="104"/>
-      <c r="ZW57" s="104"/>
-      <c r="ZX57" s="104"/>
-      <c r="ZY57" s="104"/>
-      <c r="ZZ57" s="104"/>
-      <c r="AAA57" s="104"/>
-      <c r="AAB57" s="104"/>
-      <c r="AAC57" s="104"/>
-      <c r="AAD57" s="104"/>
-      <c r="AAE57" s="104"/>
-      <c r="AAF57" s="104"/>
-      <c r="AAG57" s="104"/>
-      <c r="AAH57" s="104"/>
-      <c r="AAI57" s="104"/>
-      <c r="AAJ57" s="104"/>
-      <c r="AAK57" s="104"/>
-      <c r="AAL57" s="104"/>
-      <c r="AAM57" s="104"/>
-      <c r="AAN57" s="104"/>
-      <c r="AAO57" s="104"/>
-      <c r="AAP57" s="104"/>
-      <c r="AAQ57" s="104"/>
-      <c r="AAR57" s="104"/>
-      <c r="AAS57" s="104"/>
-      <c r="AAT57" s="104"/>
-      <c r="AAU57" s="104"/>
-      <c r="AAV57" s="104"/>
-      <c r="AAW57" s="104"/>
-      <c r="AAX57" s="104"/>
-      <c r="AAY57" s="104"/>
-      <c r="AAZ57" s="104"/>
-      <c r="ABA57" s="104"/>
-      <c r="ABB57" s="104"/>
-      <c r="ABC57" s="104"/>
-      <c r="ABD57" s="104"/>
-      <c r="ABE57" s="104"/>
-      <c r="ABF57" s="104"/>
-      <c r="ABG57" s="104"/>
-      <c r="ABH57" s="104"/>
-      <c r="ABI57" s="104"/>
-      <c r="ABJ57" s="104"/>
-      <c r="ABK57" s="104"/>
-      <c r="ABL57" s="104"/>
-      <c r="ABM57" s="104"/>
-      <c r="ABN57" s="104"/>
-      <c r="ABO57" s="104"/>
-      <c r="ABP57" s="104"/>
-      <c r="ABQ57" s="104"/>
-      <c r="ABR57" s="104"/>
-      <c r="ABS57" s="104"/>
-      <c r="ABT57" s="104"/>
-      <c r="ABU57" s="104"/>
-      <c r="ABV57" s="104"/>
-      <c r="ABW57" s="104"/>
-      <c r="ABX57" s="104"/>
-      <c r="ABY57" s="104"/>
-      <c r="ABZ57" s="104"/>
-      <c r="ACA57" s="104"/>
-      <c r="ACB57" s="104"/>
-      <c r="ACC57" s="104"/>
-      <c r="ACD57" s="104"/>
-      <c r="ACE57" s="104"/>
-      <c r="ACF57" s="104"/>
-      <c r="ACG57" s="104"/>
-      <c r="ACH57" s="104"/>
-      <c r="ACI57" s="104"/>
-      <c r="ACJ57" s="104"/>
-      <c r="ACK57" s="104"/>
-      <c r="ACL57" s="104"/>
-      <c r="ACM57" s="104"/>
-      <c r="ACN57" s="104"/>
-      <c r="ACO57" s="104"/>
-      <c r="ACP57" s="104"/>
-      <c r="ACQ57" s="104"/>
-      <c r="ACR57" s="104"/>
-      <c r="ACS57" s="104"/>
-      <c r="ACT57" s="104"/>
-      <c r="ACU57" s="104"/>
-      <c r="ACV57" s="104"/>
-      <c r="ACW57" s="104"/>
-      <c r="ACX57" s="104"/>
-      <c r="ACY57" s="104"/>
-      <c r="ACZ57" s="104"/>
-      <c r="ADA57" s="104"/>
-      <c r="ADB57" s="104"/>
-      <c r="ADC57" s="104"/>
-      <c r="ADD57" s="104"/>
-      <c r="ADE57" s="104"/>
-      <c r="ADF57" s="104"/>
-      <c r="ADG57" s="104"/>
-      <c r="ADH57" s="104"/>
-      <c r="ADI57" s="104"/>
-      <c r="ADJ57" s="104"/>
-      <c r="ADK57" s="104"/>
-      <c r="ADL57" s="104"/>
-      <c r="ADM57" s="104"/>
-      <c r="ADN57" s="104"/>
-      <c r="ADO57" s="104"/>
-      <c r="ADP57" s="104"/>
-      <c r="ADQ57" s="104"/>
-      <c r="ADR57" s="104"/>
-      <c r="ADS57" s="104"/>
-      <c r="ADT57" s="104"/>
-      <c r="ADU57" s="104"/>
-      <c r="ADV57" s="104"/>
-      <c r="ADW57" s="104"/>
-      <c r="ADX57" s="104"/>
-      <c r="ADY57" s="104"/>
-      <c r="ADZ57" s="104"/>
-      <c r="AEA57" s="104"/>
-      <c r="AEB57" s="104"/>
-      <c r="AEC57" s="104"/>
-      <c r="AED57" s="104"/>
-      <c r="AEE57" s="104"/>
-      <c r="AEF57" s="104"/>
-      <c r="AEG57" s="104"/>
-      <c r="AEH57" s="104"/>
-      <c r="AEI57" s="104"/>
-      <c r="AEJ57" s="104"/>
-      <c r="AEK57" s="104"/>
-      <c r="AEL57" s="104"/>
-      <c r="AEM57" s="104"/>
-      <c r="AEN57" s="104"/>
-      <c r="AEO57" s="104"/>
-      <c r="AEP57" s="104"/>
-      <c r="AEQ57" s="104"/>
-      <c r="AER57" s="104"/>
-      <c r="AES57" s="104"/>
-      <c r="AET57" s="104"/>
-      <c r="AEU57" s="104"/>
-      <c r="AEV57" s="104"/>
-      <c r="AEW57" s="104"/>
-      <c r="AEX57" s="104"/>
-      <c r="AEY57" s="104"/>
-      <c r="AEZ57" s="104"/>
-      <c r="AFA57" s="104"/>
-      <c r="AFB57" s="104"/>
-      <c r="AFC57" s="104"/>
-      <c r="AFD57" s="104"/>
-      <c r="AFE57" s="104"/>
-      <c r="AFF57" s="104"/>
-      <c r="AFG57" s="104"/>
-      <c r="AFH57" s="104"/>
-      <c r="AFI57" s="104"/>
-      <c r="AFJ57" s="104"/>
-      <c r="AFK57" s="104"/>
-      <c r="AFL57" s="104"/>
-      <c r="AFM57" s="104"/>
-      <c r="AFN57" s="104"/>
-      <c r="AFO57" s="104"/>
-      <c r="AFP57" s="104"/>
-      <c r="AFQ57" s="104"/>
-      <c r="AFR57" s="104"/>
-      <c r="AFS57" s="104"/>
-      <c r="AFT57" s="104"/>
-      <c r="AFU57" s="104"/>
-      <c r="AFV57" s="104"/>
-      <c r="AFW57" s="104"/>
-      <c r="AFX57" s="104"/>
-      <c r="AFY57" s="104"/>
-      <c r="AFZ57" s="104"/>
-      <c r="AGA57" s="104"/>
-      <c r="AGB57" s="104"/>
-      <c r="AGC57" s="104"/>
-      <c r="AGD57" s="104"/>
-      <c r="AGE57" s="104"/>
-      <c r="AGF57" s="104"/>
-      <c r="AGG57" s="104"/>
-      <c r="AGH57" s="104"/>
-      <c r="AGI57" s="104"/>
-      <c r="AGJ57" s="104"/>
-      <c r="AGK57" s="104"/>
-      <c r="AGL57" s="104"/>
-      <c r="AGM57" s="104"/>
-      <c r="AGN57" s="104"/>
-      <c r="AGO57" s="104"/>
-      <c r="AGP57" s="104"/>
-      <c r="AGQ57" s="104"/>
-      <c r="AGR57" s="104"/>
-      <c r="AGS57" s="104"/>
-      <c r="AGT57" s="104"/>
-      <c r="AGU57" s="104"/>
-      <c r="AGV57" s="104"/>
-      <c r="AGW57" s="104"/>
-      <c r="AGX57" s="104"/>
-      <c r="AGY57" s="104"/>
-      <c r="AGZ57" s="104"/>
-      <c r="AHA57" s="104"/>
-      <c r="AHB57" s="104"/>
-      <c r="AHC57" s="104"/>
-      <c r="AHD57" s="104"/>
-      <c r="AHE57" s="104"/>
-      <c r="AHF57" s="104"/>
-      <c r="AHG57" s="104"/>
-      <c r="AHH57" s="104"/>
-      <c r="AHI57" s="104"/>
-      <c r="AHJ57" s="104"/>
-      <c r="AHK57" s="104"/>
-      <c r="AHL57" s="104"/>
-      <c r="AHM57" s="104"/>
-      <c r="AHN57" s="104"/>
-      <c r="AHO57" s="104"/>
-      <c r="AHP57" s="104"/>
-      <c r="AHQ57" s="104"/>
-      <c r="AHR57" s="104"/>
-      <c r="AHS57" s="104"/>
-      <c r="AHT57" s="104"/>
-      <c r="AHU57" s="104"/>
-      <c r="AHV57" s="104"/>
-      <c r="AHW57" s="104"/>
-      <c r="AHX57" s="104"/>
-      <c r="AHY57" s="104"/>
-      <c r="AHZ57" s="104"/>
-      <c r="AIA57" s="104"/>
-      <c r="AIB57" s="104"/>
-      <c r="AIC57" s="104"/>
-      <c r="AID57" s="104"/>
-      <c r="AIE57" s="104"/>
-      <c r="AIF57" s="104"/>
-      <c r="AIG57" s="104"/>
-      <c r="AIH57" s="104"/>
-      <c r="AII57" s="104"/>
-      <c r="AIJ57" s="104"/>
-      <c r="AIK57" s="104"/>
-      <c r="AIL57" s="104"/>
-      <c r="AIM57" s="104"/>
-      <c r="AIN57" s="104"/>
-      <c r="AIO57" s="104"/>
-      <c r="AIP57" s="104"/>
-      <c r="AIQ57" s="104"/>
-      <c r="AIR57" s="104"/>
-      <c r="AIS57" s="104"/>
-      <c r="AIT57" s="104"/>
-      <c r="AIU57" s="104"/>
-      <c r="AIV57" s="104"/>
-      <c r="AIW57" s="104"/>
-      <c r="AIX57" s="104"/>
-      <c r="AIY57" s="104"/>
-      <c r="AIZ57" s="104"/>
-      <c r="AJA57" s="104"/>
-      <c r="AJB57" s="104"/>
-      <c r="AJC57" s="104"/>
-      <c r="AJD57" s="104"/>
-      <c r="AJE57" s="104"/>
-      <c r="AJF57" s="104"/>
-      <c r="AJG57" s="104"/>
-      <c r="AJH57" s="104"/>
-      <c r="AJI57" s="104"/>
-      <c r="AJJ57" s="104"/>
-      <c r="AJK57" s="104"/>
-      <c r="AJL57" s="104"/>
-      <c r="AJM57" s="104"/>
-      <c r="AJN57" s="104"/>
-      <c r="AJO57" s="104"/>
-      <c r="AJP57" s="104"/>
-      <c r="AJQ57" s="104"/>
-      <c r="AJR57" s="104"/>
-      <c r="AJS57" s="104"/>
-      <c r="AJT57" s="104"/>
-      <c r="AJU57" s="104"/>
-      <c r="AJV57" s="104"/>
-      <c r="AJW57" s="104"/>
-      <c r="AJX57" s="104"/>
-      <c r="AJY57" s="104"/>
-      <c r="AJZ57" s="104"/>
-      <c r="AKA57" s="104"/>
-      <c r="AKB57" s="104"/>
-      <c r="AKC57" s="104"/>
-      <c r="AKD57" s="104"/>
-      <c r="AKE57" s="104"/>
-      <c r="AKF57" s="104"/>
-      <c r="AKG57" s="104"/>
-      <c r="AKH57" s="104"/>
-      <c r="AKI57" s="104"/>
-      <c r="AKJ57" s="104"/>
-      <c r="AKK57" s="104"/>
-      <c r="AKL57" s="104"/>
-      <c r="AKM57" s="104"/>
-      <c r="AKN57" s="104"/>
-      <c r="AKO57" s="104"/>
-      <c r="AKP57" s="104"/>
-      <c r="AKQ57" s="104"/>
-      <c r="AKR57" s="104"/>
-      <c r="AKS57" s="104"/>
-      <c r="AKT57" s="104"/>
-      <c r="AKU57" s="104"/>
-      <c r="AKV57" s="104"/>
-      <c r="AKW57" s="104"/>
-      <c r="AKX57" s="104"/>
-      <c r="AKY57" s="104"/>
-      <c r="AKZ57" s="104"/>
-      <c r="ALA57" s="104"/>
-      <c r="ALB57" s="104"/>
-      <c r="ALC57" s="104"/>
-      <c r="ALD57" s="104"/>
-      <c r="ALE57" s="104"/>
-      <c r="ALF57" s="104"/>
-      <c r="ALG57" s="104"/>
-      <c r="ALH57" s="104"/>
-      <c r="ALI57" s="104"/>
-      <c r="ALJ57" s="104"/>
-      <c r="ALK57" s="104"/>
-      <c r="ALL57" s="104"/>
-      <c r="ALM57" s="104"/>
-      <c r="ALN57" s="104"/>
-      <c r="ALO57" s="104"/>
-      <c r="ALP57" s="104"/>
-      <c r="ALQ57" s="104"/>
-      <c r="ALR57" s="104"/>
-      <c r="ALS57" s="104"/>
-      <c r="ALT57" s="104"/>
-      <c r="ALU57" s="104"/>
-      <c r="ALV57" s="104"/>
-      <c r="ALW57" s="104"/>
-      <c r="ALX57" s="104"/>
-      <c r="ALY57" s="104"/>
-      <c r="ALZ57" s="104"/>
-      <c r="AMA57" s="104"/>
-      <c r="AMB57" s="104"/>
-      <c r="AMC57" s="104"/>
-      <c r="AMD57" s="104"/>
-      <c r="AME57" s="104"/>
-      <c r="AMF57" s="104"/>
-      <c r="AMG57" s="104"/>
-      <c r="AMH57" s="104"/>
-      <c r="AMI57" s="104"/>
-      <c r="AMJ57" s="104"/>
-      <c r="AMK57" s="104"/>
+    <row r="57" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="O57" s="58">
+        <v>30</v>
+      </c>
     </row>
     <row r="58" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O58" s="58">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O59" s="58">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O60" s="58">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O61" s="58">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O62" s="58">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O63" s="58">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="O64" s="58">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O65" s="58">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O66" s="58">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O67" s="58">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O68" s="58">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O69" s="58">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O70" s="58">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O71" s="58">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O72" s="58">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O73" s="58">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O74" s="58">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O75" s="58">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O76" s="58">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O77" s="58">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O78" s="58">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O79" s="58">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O80" s="58">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O81" s="58">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O82" s="58">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O83" s="58">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O84" s="58">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O85" s="58">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O86" s="58">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O87" s="58">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O88" s="58">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O89" s="58">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O90" s="58">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O91" s="58">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O92" s="58">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O93" s="58">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O94" s="58">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O95" s="58">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O96" s="58">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O97" s="58">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O98" s="58">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O99" s="58">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O100" s="58">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O101" s="58">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O102" s="58">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O103" s="58">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O104" s="58">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O105" s="58">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O106" s="58">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O107" s="58">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O108" s="58">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O109" s="58">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O110" s="58">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O111" s="58">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O112" s="58">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O113" s="58">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O114" s="58">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O115" s="58">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O116" s="58">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O117" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O118" s="58">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O119" s="58">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O120" s="58">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O121" s="58">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O122" s="58">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O123" s="58">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O124" s="58">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O125" s="58">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O126" s="58">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O127" s="58">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O128" s="58">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O129" s="58">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O130" s="58">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O131" s="58">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O132" s="58">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O133" s="58">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O134" s="58">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O135" s="58">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O136" s="58">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O137" s="58">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O138" s="58">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O139" s="58">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O140" s="58">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O141" s="58">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O142" s="58">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O143" s="58">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O144" s="58">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O145" s="58">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O146" s="58">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O147" s="58">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O148" s="58">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O149" s="58">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O150" s="58">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O151" s="58">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O152" s="58">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O153" s="58">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O154" s="58">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O155" s="58">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O156" s="58">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O157" s="58">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O158" s="58">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O159" s="58">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O160" s="58">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O161" s="58">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O162" s="58">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O163" s="58">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O164" s="58">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O165" s="58">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O166" s="58">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O167" s="58">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O168" s="58">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O169" s="58">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O170" s="58">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O171" s="58">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O172" s="58">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O173" s="58">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O174" s="58">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O175" s="58">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O176" s="58">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O177" s="58">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O178" s="58">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O179" s="58">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O180" s="58">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O181" s="58">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O182" s="58">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O183" s="58">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O184" s="58">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O185" s="58">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="186" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O186" s="58">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O187" s="58">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O188" s="58">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O189" s="58">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O190" s="58">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O191" s="58">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O192" s="58">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O193" s="58">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O194" s="58">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O195" s="58">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O196" s="58">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O197" s="58">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O198" s="58">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O199" s="58">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O200" s="58">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O201" s="58">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O202" s="58">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O203" s="58">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O204" s="58">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O205" s="58">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="206" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O206" s="58">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O207" s="58">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O208" s="58">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O209" s="58">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O210" s="58">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O211" s="58">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O212" s="58">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O213" s="58">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O214" s="58">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O215" s="58">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O216" s="58">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O217" s="58">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O218" s="58">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O219" s="58">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O220" s="58">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="221" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O221" s="58">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="222" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O222" s="58">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="223" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O223" s="58">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="224" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O224" s="58">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O225" s="58">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O226" s="58">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O227" s="58">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O228" s="58">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O229" s="58">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O230" s="58">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O231" s="58">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O232" s="58">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O233" s="58">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O234" s="58">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O235" s="58">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="236" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O236" s="58">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O237" s="58">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O238" s="58">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="239" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O239" s="58">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O240" s="58">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O241" s="58">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="242" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O242" s="58">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="243" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O243" s="58">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O244" s="58">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="245" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O245" s="58">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O246" s="58">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O247" s="58">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O248" s="58">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O249" s="58">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O250" s="58">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O251" s="58">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="252" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O252" s="58">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O253" s="58">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O254" s="58">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="255" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O255" s="58">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O256" s="58">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O257" s="58">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="258" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O258" s="58">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="259" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O259" s="58">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O260" s="58">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="261" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O261" s="58">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="262" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O262" s="58">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="263" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O263" s="58">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O264" s="58">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O265" s="58">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O266" s="58">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O267" s="58">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="268" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O268" s="58">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O269" s="58">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="270" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O270" s="58">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="271" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O271" s="58">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="272" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O272" s="58">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="273" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O273" s="58">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="274" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O274" s="58">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O275" s="58">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="276" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O276" s="58">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="277" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O277" s="58">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="278" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O278" s="58">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="279" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O279" s="58">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="280" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O280" s="58">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O281" s="58">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O282" s="58">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="283" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O283" s="58">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O284" s="58">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O285" s="58">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O286" s="58">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="287" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O287" s="58">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="288" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O288" s="58">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="289" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O289" s="58">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O290" s="58">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="291" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O291" s="58">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O292" s="58">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O293" s="58">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O294" s="58">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="295" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O295" s="58">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="296" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O296" s="58">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="297" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O297" s="58">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="298" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O298" s="58">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O299" s="58">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="300" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O300" s="58">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O301" s="58">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="302" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O302" s="58">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="303" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O303" s="58">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="304" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O304" s="58">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O305" s="58">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="306" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O306" s="58">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O307" s="58">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O308" s="58">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="309" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O309" s="58">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="310" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O310" s="58">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="311" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O311" s="58">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="312" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O312" s="58">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O313" s="58">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="314" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O314" s="58">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="315" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O315" s="58">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="316" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O316" s="58">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="317" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O317" s="58">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="318" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O318" s="58">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="319" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O319" s="58">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="320" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O320" s="58">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O321" s="58">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O322" s="58">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O323" s="58">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O324" s="58">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="325" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O325" s="58">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="326" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O326" s="58">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O327" s="58">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="328" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O328" s="58">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="329" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O329" s="58">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="330" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O330" s="58">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="331" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O331" s="58">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="332" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O332" s="58">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="333" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O333" s="58">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="334" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O334" s="58">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="335" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O335" s="58">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="336" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O336" s="58">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="337" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O337" s="58">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="338" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O338" s="58">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="339" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O339" s="58">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="340" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O340" s="58">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="341" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O341" s="58">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="342" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O342" s="58">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="343" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O343" s="58">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="344" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O344" s="58">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="345" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O345" s="58">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O346" s="58">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="347" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O347" s="58">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="348" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O348" s="58">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="349" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O349" s="58">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="350" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O350" s="58">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="351" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O351" s="58">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="352" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O352" s="58">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O353" s="58">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="354" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O354" s="58">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="355" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O355" s="58">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="356" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O356" s="58">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="357" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O357" s="58">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="358" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O358" s="58">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="359" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O359" s="58">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="360" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O360" s="58">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="361" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O361" s="58">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="362" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O362" s="58">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="363" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O363" s="58">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="364" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O364" s="58">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="365" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O365" s="58">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="366" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O366" s="58">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="367" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O367" s="58">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="368" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O368" s="58">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="369" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O369" s="58">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="370" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O370" s="58">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="371" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O371" s="58">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="372" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O372" s="58">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="373" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O373" s="58">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="374" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O374" s="58">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="375" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O375" s="58">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="376" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O376" s="58">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="377" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O377" s="58">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="378" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O378" s="58">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="379" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O379" s="58">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="380" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O380" s="58">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="381" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O381" s="58">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="382" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O382" s="58">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O383" s="58">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O384" s="58">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="385" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O385" s="58">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="386" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O386" s="58">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="387" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O387" s="58">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="388" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O388" s="58">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="389" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O389" s="58">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="390" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O390" s="58">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="391" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O391" s="58">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="392" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O392" s="58">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="393" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O393" s="58">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="394" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O394" s="58">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="395" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O395" s="58">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="396" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O396" s="58">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="397" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O397" s="58">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="398" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O398" s="58">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="399" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O399" s="58">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="400" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O400" s="58">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="401" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O401" s="58">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="402" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O402" s="58">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="403" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O403" s="58">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="404" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O404" s="58">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="405" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O405" s="58">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="406" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O406" s="58">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="407" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O407" s="58">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="408" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O408" s="58">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="409" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O409" s="58">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="410" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O410" s="58">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="411" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O411" s="58">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="412" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O412" s="58">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="413" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O413" s="58">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="414" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O414" s="58">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="415" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O415" s="58">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O416" s="58">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="417" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O417" s="58">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="418" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O418" s="58">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="419" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O419" s="58">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="420" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O420" s="58">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="421" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O421" s="58">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="422" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O422" s="58">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="423" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O423" s="58">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="424" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O424" s="58">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="425" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O425" s="58">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="426" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O426" s="58">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="427" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O427" s="58">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="428" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O428" s="58">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="429" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O429" s="58">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="430" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O430" s="58">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="431" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O431" s="58">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="432" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O432" s="58">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="433" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O433" s="58">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="434" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O434" s="58">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="435" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O435" s="58">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="436" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O436" s="58">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="437" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O437" s="58">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="438" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O438" s="58">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="439" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O439" s="58">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="440" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O440" s="58">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="441" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O441" s="58">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="442" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O442" s="58">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="443" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O443" s="58">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="444" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O444" s="58">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="445" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O445" s="58">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="446" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O446" s="58">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="447" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O447" s="58">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="448" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O448" s="58">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="449" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O449" s="58">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="450" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O450" s="58">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="451" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O451" s="58">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="452" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O452" s="58">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="453" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O453" s="58">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="454" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O454" s="58">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="455" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O455" s="58">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="456" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O456" s="58">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="457" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O457" s="58">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="458" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O458" s="58">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="459" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O459" s="58">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="460" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O460" s="58">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="461" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O461" s="58">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="462" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O462" s="58">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="463" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O463" s="58">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="464" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O464" s="58">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="465" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O465" s="58">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="466" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O466" s="58">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="467" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O467" s="58">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="468" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O468" s="58">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="469" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O469" s="58">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="470" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O470" s="58">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="471" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O471" s="58">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="472" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O472" s="58">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="473" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O473" s="58">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="474" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O474" s="58">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="475" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O475" s="58">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="476" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O476" s="58">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="477" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O477" s="58">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="478" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O478" s="58">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="479" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O479" s="58">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="480" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O480" s="58">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="481" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O481" s="58">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="482" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O482" s="58">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="483" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O483" s="58">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="484" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O484" s="58">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="485" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O485" s="58">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="486" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O486" s="58">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="487" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O487" s="58">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="488" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O488" s="58">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="489" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O489" s="58">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="490" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O490" s="58">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="491" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O491" s="58">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="492" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O492" s="58">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="493" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O493" s="58">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="494" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O494" s="58">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="495" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O495" s="58">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="496" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O496" s="58">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="497" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O497" s="58">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="498" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O498" s="58">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="499" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O499" s="58">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="500" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O500" s="58">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="501" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O501" s="58">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="502" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O502" s="58">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="503" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O503" s="58">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="504" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O504" s="58">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="505" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O505" s="58">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="506" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O506" s="58">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="507" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O507" s="58">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="508" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O508" s="58">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="509" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O509" s="58">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="510" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O510" s="58">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="511" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O511" s="58">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="512" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O512" s="58">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="513" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O513" s="58">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="514" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O514" s="58">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="515" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O515" s="58">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="516" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O516" s="58">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="517" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O517" s="58">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="518" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O518" s="58">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="519" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O519" s="58">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="520" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O520" s="58">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="521" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O521" s="58">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="522" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O522" s="58">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="523" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O523" s="58">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="524" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O524" s="58">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="525" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O525" s="58">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="526" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O526" s="58">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="527" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O527" s="58">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="528" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O528" s="58">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="529" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O529" s="58">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="530" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O530" s="58">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="531" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O531" s="58">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="532" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O532" s="58">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="533" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O533" s="58">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="534" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O534" s="58">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="535" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O535" s="58">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="536" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O536" s="58">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="537" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O537" s="58">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="538" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O538" s="58">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="539" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O539" s="58">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="540" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O540" s="58">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="541" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O541" s="58">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="542" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O542" s="58">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="543" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O543" s="58">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="544" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O544" s="58">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="545" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O545" s="58">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="546" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O546" s="58">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="547" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O547" s="58">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="548" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O548" s="58">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="549" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O549" s="58">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="550" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O550" s="58">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="551" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O551" s="58">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="552" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O552" s="58">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="553" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O553" s="58">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="554" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O554" s="58">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="555" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O555" s="58">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="556" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O556" s="58">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="557" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O557" s="58">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="558" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O558" s="58">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="559" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O559" s="58">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="560" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O560" s="58">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="561" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O561" s="58">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="562" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O562" s="58">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="563" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O563" s="58">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="564" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O564" s="58">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="565" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O565" s="58">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="566" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O566" s="58">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="567" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O567" s="58">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="568" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O568" s="58">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="569" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O569" s="58">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="570" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O570" s="58">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="571" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O571" s="58">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="572" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O572" s="58">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="573" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O573" s="58">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="574" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O574" s="58">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="575" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O575" s="58">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="576" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O576" s="58">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="577" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O577" s="58">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="578" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O578" s="58">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="579" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O579" s="58">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="580" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O580" s="58">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="581" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O581" s="58">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="582" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O582" s="58">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="583" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O583" s="58">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="584" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O584" s="58">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="585" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O585" s="58">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="586" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O586" s="58">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="587" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O587" s="58">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="588" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O588" s="58">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="589" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O589" s="58">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="590" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O590" s="58">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="591" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O591" s="58">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="592" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O592" s="58">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="593" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O593" s="58">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="594" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O594" s="58">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="595" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O595" s="58">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="596" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O596" s="58">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="597" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O597" s="58">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="598" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O598" s="58">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="599" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O599" s="58">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="600" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O600" s="58">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="601" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O601" s="58">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="602" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O602" s="58">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="603" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O603" s="58">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="604" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O604" s="58">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="605" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O605" s="58">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="606" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O606" s="58">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="607" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O607" s="58">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="608" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O608" s="58">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="609" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O609" s="58">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="610" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O610" s="58">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="611" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O611" s="58">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="612" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O612" s="58">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="613" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O613" s="58">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="614" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O614" s="58">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="615" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O615" s="58">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="616" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O616" s="58">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="617" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O617" s="58">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="618" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O618" s="58">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="619" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O619" s="58">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="620" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O620" s="58">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="621" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O621" s="58">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="622" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O622" s="58">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="623" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O623" s="58">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="624" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O624" s="58">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="625" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O625" s="58">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="626" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O626" s="58">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="627" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O627" s="58">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="628" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O628" s="58">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="629" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O629" s="58">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="630" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O630" s="58">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="631" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O631" s="58">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="632" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O632" s="58">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="633" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O633" s="58">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="634" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O634" s="58">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="635" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O635" s="58">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="636" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O636" s="58">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="637" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O637" s="58">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="638" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O638" s="58">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="639" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O639" s="58">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="640" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O640" s="58">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="641" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O641" s="58">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="642" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O642" s="58">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="643" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O643" s="58">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="644" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O644" s="58">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="645" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O645" s="58">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="646" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O646" s="58">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="647" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O647" s="58">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="648" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O648" s="58">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="649" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O649" s="58">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="650" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O650" s="58">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="651" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O651" s="58">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="652" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O652" s="58">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="653" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O653" s="58">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="654" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O654" s="58">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="655" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O655" s="58">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="656" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O656" s="58">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="657" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O657" s="58">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="658" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O658" s="58">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="659" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O659" s="58">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="660" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O660" s="58">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="661" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O661" s="58">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="662" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O662" s="58">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="663" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O663" s="58">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="664" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O664" s="58">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="665" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O665" s="58">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="666" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O666" s="58">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="667" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O667" s="58">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="668" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O668" s="58">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="669" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O669" s="58">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="670" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O670" s="58">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="671" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O671" s="58">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="672" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O672" s="58">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="673" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O673" s="58">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="674" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O674" s="58">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="675" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O675" s="58">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="676" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O676" s="58">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="677" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O677" s="58">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="678" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O678" s="58">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="679" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O679" s="58">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="680" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O680" s="58">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="681" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O681" s="58">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="682" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O682" s="58">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="683" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O683" s="58">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="684" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O684" s="58">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="685" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O685" s="58">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="686" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O686" s="58">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="687" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O687" s="58">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="688" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O688" s="58">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="689" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O689" s="58">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="690" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O690" s="58">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="691" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O691" s="58">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="692" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O692" s="58">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="693" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O693" s="58">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="694" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O694" s="58">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="695" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O695" s="58">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="696" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O696" s="58">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="697" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O697" s="58">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="698" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O698" s="58">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="699" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O699" s="58">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="700" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O700" s="58">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="701" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O701" s="58">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="702" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O702" s="58">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="703" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O703" s="58">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="704" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O704" s="58">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="705" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O705" s="58">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="706" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O706" s="58">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="707" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O707" s="58">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="708" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O708" s="58">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="709" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O709" s="58">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="710" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O710" s="58">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="711" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O711" s="58">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="712" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O712" s="58">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="713" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O713" s="58">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="714" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O714" s="58">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="715" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O715" s="58">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="716" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O716" s="58">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="717" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O717" s="58">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="718" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O718" s="58">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="719" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O719" s="58">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="720" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O720" s="58">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="721" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O721" s="58">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="722" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O722" s="58">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="723" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O723" s="58">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="724" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O724" s="58">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="725" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O725" s="58">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="726" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O726" s="58">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="727" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O727" s="58">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="728" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O728" s="58">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="729" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O729" s="58">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="730" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O730" s="58">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="731" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O731" s="58">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="732" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O732" s="58">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="733" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O733" s="58">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="734" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O734" s="58">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="735" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O735" s="58">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="736" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O736" s="58">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="737" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O737" s="58">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="738" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O738" s="58">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="739" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O739" s="58">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="740" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O740" s="58">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="741" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O741" s="58">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="742" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O742" s="58">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="743" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O743" s="58">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="744" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O744" s="58">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="745" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O745" s="58">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="746" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O746" s="58">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="747" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O747" s="58">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="748" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O748" s="58">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="749" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O749" s="58">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="750" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O750" s="58">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="751" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O751" s="58">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="752" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O752" s="58">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="753" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O753" s="58">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="754" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O754" s="58">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="755" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O755" s="58">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="756" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O756" s="58">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="757" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O757" s="58">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="758" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O758" s="58">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="759" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O759" s="58">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="760" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O760" s="58">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="761" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O761" s="58">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="762" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O762" s="58">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="763" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O763" s="58">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="764" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O764" s="58">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="765" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O765" s="58">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="766" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O766" s="58">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="767" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O767" s="58">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="768" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O768" s="58">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="769" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O769" s="58">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="770" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O770" s="58">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="771" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O771" s="58">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="772" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O772" s="58">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="773" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O773" s="58">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="774" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O774" s="58">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="775" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O775" s="58">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="776" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O776" s="58">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="777" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O777" s="58">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="778" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O778" s="58">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="779" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O779" s="58">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="780" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O780" s="58">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="781" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O781" s="58">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="782" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O782" s="58">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="783" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O783" s="58">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="784" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O784" s="58">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="785" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O785" s="58">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="786" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O786" s="58">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="787" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O787" s="58">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="788" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O788" s="58">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="789" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O789" s="58">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="790" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O790" s="58">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="791" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O791" s="58">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="792" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O792" s="58">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="793" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O793" s="58">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="794" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O794" s="58">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="795" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O795" s="58">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="796" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O796" s="58">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="797" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O797" s="58">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="798" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O798" s="58">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="799" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O799" s="58">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="800" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O800" s="58">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="801" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O801" s="58">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="802" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O802" s="58">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="803" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O803" s="58">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="804" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O804" s="58">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="805" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O805" s="58">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="806" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O806" s="58">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="807" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O807" s="58">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="808" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O808" s="58">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="809" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O809" s="58">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="810" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O810" s="58">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="811" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O811" s="58">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="812" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O812" s="58">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="813" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O813" s="58">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="814" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O814" s="58">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="815" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O815" s="58">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="816" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O816" s="58">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="817" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O817" s="58">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="818" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O818" s="58">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="819" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O819" s="58">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="820" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O820" s="58">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="821" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O821" s="58">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="822" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O822" s="58">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="823" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O823" s="58">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="824" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O824" s="58">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="825" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O825" s="58">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="826" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O826" s="58">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="827" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O827" s="58">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="828" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O828" s="58">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="829" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O829" s="58">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="830" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O830" s="58">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="831" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O831" s="58">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="832" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O832" s="58">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="833" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O833" s="58">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="834" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O834" s="58">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="835" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O835" s="58">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="836" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O836" s="58">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="837" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O837" s="58">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="838" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O838" s="58">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="839" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O839" s="58">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="840" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O840" s="58">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="841" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O841" s="58">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="842" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O842" s="58">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="843" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O843" s="58">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="844" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O844" s="58">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="845" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O845" s="58">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="846" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O846" s="58">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="847" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O847" s="58">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="848" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O848" s="58">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="849" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O849" s="58">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="850" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O850" s="58">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="851" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O851" s="58">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="852" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O852" s="58">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="853" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O853" s="58">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="854" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O854" s="58">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="855" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O855" s="58">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="856" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O856" s="58">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="857" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O857" s="58">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="858" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O858" s="58">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="859" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O859" s="58">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="860" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O860" s="58">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="861" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O861" s="58">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="862" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O862" s="58">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="863" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O863" s="58">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="864" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O864" s="58">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="865" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O865" s="58">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="866" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O866" s="58">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="867" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O867" s="58">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="868" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O868" s="58">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="869" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O869" s="58">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="870" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O870" s="58">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="871" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O871" s="58">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="872" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O872" s="58">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="873" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O873" s="58">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="874" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O874" s="58">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="875" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O875" s="58">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="876" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O876" s="58">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="877" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O877" s="58">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="878" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O878" s="58">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="879" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O879" s="58">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="880" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O880" s="58">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="881" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O881" s="58">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="882" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O882" s="58">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="883" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O883" s="58">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="884" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O884" s="58">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="885" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O885" s="58">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="886" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O886" s="58">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="887" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O887" s="58">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="888" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O888" s="58">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="889" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O889" s="58">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="890" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O890" s="58">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="891" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O891" s="58">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="892" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O892" s="58">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="893" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O893" s="58">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="894" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O894" s="58">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="895" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O895" s="58">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="896" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O896" s="58">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="897" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O897" s="58">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="898" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O898" s="58">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="899" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O899" s="58">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="900" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O900" s="58">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="901" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O901" s="58">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="902" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O902" s="58">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="903" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O903" s="58">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="904" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O904" s="58">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="905" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O905" s="58">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="906" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O906" s="58">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="907" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O907" s="58">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="908" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O908" s="58">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="909" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O909" s="58">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="910" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O910" s="58">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="911" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O911" s="58">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="912" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O912" s="58">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="913" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O913" s="58">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="914" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O914" s="58">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="915" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O915" s="58">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="916" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O916" s="58">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="917" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O917" s="58">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="918" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O918" s="58">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="919" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O919" s="58">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="920" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O920" s="58">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="921" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O921" s="58">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="922" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O922" s="58">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="923" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O923" s="58">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="924" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O924" s="58">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="925" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O925" s="58">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="926" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O926" s="58">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="927" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O927" s="58">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="928" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O928" s="58">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="929" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O929" s="58">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="930" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O930" s="58">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="931" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O931" s="58">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="932" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O932" s="58">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="933" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O933" s="58">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="934" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O934" s="58">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="935" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O935" s="58">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="936" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O936" s="58">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="937" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O937" s="58">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="938" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O938" s="58">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="939" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O939" s="58">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="940" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O940" s="58">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="941" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O941" s="58">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="942" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O942" s="58">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="943" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O943" s="58">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="944" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O944" s="58">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="945" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O945" s="58">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="946" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O946" s="58">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="947" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O947" s="58">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="948" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O948" s="58">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="949" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O949" s="58">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="950" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O950" s="58">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="951" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O951" s="58">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="952" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O952" s="58">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="953" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O953" s="58">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="954" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O954" s="58">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="955" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O955" s="58">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="956" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O956" s="58">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="957" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O957" s="58">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="958" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O958" s="58">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="959" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O959" s="58">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="960" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O960" s="58">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="961" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O961" s="58">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="962" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O962" s="58">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="963" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O963" s="58">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="964" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O964" s="58">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="965" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O965" s="58">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="966" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O966" s="58">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="967" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O967" s="58">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="968" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O968" s="58">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="969" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O969" s="58">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="970" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O970" s="58">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="971" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O971" s="58">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="972" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O972" s="58">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="973" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O973" s="58">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="974" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O974" s="58">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="975" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O975" s="58">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="976" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O976" s="58">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="977" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O977" s="58">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="978" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O978" s="58">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="979" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O979" s="58">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="980" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O980" s="58">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="981" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O981" s="58">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="982" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O982" s="58">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="983" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O983" s="58">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="984" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O984" s="58">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="985" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O985" s="58">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="986" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O986" s="58">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="987" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O987" s="58">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="988" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O988" s="58">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="989" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O989" s="58">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="990" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O990" s="58">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="991" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O991" s="58">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="992" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O992" s="58">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="993" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O993" s="58">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="994" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O994" s="58">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="995" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O995" s="58">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="996" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O996" s="58">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="997" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O997" s="58">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="998" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O998" s="58">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="999" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O999" s="58">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1000" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1000" s="58">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1001" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1001" s="58">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1002" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1002" s="58">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1003" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1003" s="58">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1004" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1004" s="58">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1005" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1005" s="58">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1006" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1006" s="58">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1007" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1007" s="58">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1008" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1008" s="58">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1009" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1009" s="58">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1010" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1010" s="58">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1011" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1011" s="58">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1012" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1012" s="58">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1013" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1013" s="58">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1014" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1014" s="58">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1015" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1015" s="58">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1016" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1016" s="58">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1017" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1017" s="58">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1018" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1018" s="58">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1019" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1019" s="58">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1020" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1020" s="58">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1021" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1021" s="58">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1022" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1022" s="58">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1023" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1023" s="58">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1024" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1024" s="58">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1025" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1025" s="58">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1026" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1026" s="58">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1027" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O1027" s="58">
         <v>999</v>
       </c>
     </row>
@@ -26812,7 +25766,7 @@
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B24 B26:B53" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="B24 B26:B52" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -26820,11 +25774,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D24:D56" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D24:D55" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$B$7:$B$9</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C24:C56" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C24:C55" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -26843,7 +25797,7 @@
   </sheetPr>
   <dimension ref="A1:AMK36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -26945,12 +25899,12 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="12"/>
@@ -27320,12 +26274,12 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
       <c r="F26" s="66"/>
       <c r="G26" s="67"/>
       <c r="I26"/>
@@ -27334,11 +26288,11 @@
       <c r="B27" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="159" t="s">
+      <c r="C27" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
       <c r="F27" s="68" t="s">
         <v>34</v>
       </c>
@@ -27351,11 +26305,11 @@
       <c r="B28" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
       <c r="F28" s="30">
         <v>1.5</v>
       </c>
@@ -27368,11 +26322,11 @@
       <c r="B29" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="160" t="s">
+      <c r="C29" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
       <c r="F29" s="30">
         <v>0.5</v>
       </c>
@@ -27385,11 +26339,11 @@
       <c r="B30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
       <c r="F30" s="30">
         <v>1</v>
       </c>
@@ -27402,11 +26356,11 @@
       <c r="B31" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="160" t="s">
+      <c r="C31" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
       <c r="F31" s="30">
         <v>0.5</v>
       </c>
@@ -27419,11 +26373,11 @@
       <c r="B32" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
       <c r="F32" s="30">
         <v>1</v>
       </c>
@@ -27436,11 +26390,11 @@
       <c r="B33" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="160" t="s">
+      <c r="C33" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
       <c r="F33" s="30">
         <v>2</v>
       </c>
@@ -27453,11 +26407,11 @@
       <c r="B34" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
       <c r="F34" s="30">
         <v>-1</v>
       </c>
@@ -27470,11 +26424,11 @@
       <c r="B35" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="160" t="s">
+      <c r="C35" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
       <c r="F35" s="30">
         <v>-1</v>
       </c>
@@ -27500,6 +26454,11 @@
   </sheetData>
   <sheetProtection password="C6D5" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
@@ -27509,11 +26468,6 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" showErrorMessage="1" promptTitle="Influência" sqref="E9:E21 I9:I21" xr:uid="{00000000-0002-0000-0300-000000000000}">
